--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/conflict-lookerupper/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6DCC08-1E4F-3646-A2FA-08924271CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A11702-2BFC-CD46-85DA-916149E72FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -651,12 +651,12 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{50DC1D60-DB40-CC4E-AADA-C428B2A2A55B}" name="STAFF NAME" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E1A8D9A8-36F0-F146-BD9C-FA31711EBC85}" name="FCCS" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{FF0DAB42-3BB1-EA41-9413-27FD06C23ADF}" name="CRM" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{59CFB218-8779-064E-9C81-82BE200916B8}" name="STABLE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8F885C3C-6551-A341-A1E1-E87A8B120364}" name="Wed SM Q1" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8FA5B1C0-F85D-9844-8174-379990B70432}" name="Thurs SM Q1" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5A52CB73-6879-224E-B82B-E4888397F67A}" name="OB SIM" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E1A8D9A8-36F0-F146-BD9C-FA31711EBC85}" name="FCCS" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FF0DAB42-3BB1-EA41-9413-27FD06C23ADF}" name="CRM" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{59CFB218-8779-064E-9C81-82BE200916B8}" name="STABLE" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8F885C3C-6551-A341-A1E1-E87A8B120364}" name="Wed SM Q1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8FA5B1C0-F85D-9844-8174-379990B70432}" name="Thurs SM Q1" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5A52CB73-6879-224E-B82B-E4888397F67A}" name="OB SIM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -985,7 +985,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>1</v>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1921972-6934-4E8E-8B01-87B19A84A46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{427D0485-26F1-4D6D-9708-2FE6C5554B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" activeTab="9" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="OB Lite" sheetId="10" r:id="rId7"/>
     <sheet name="OB SIM" sheetId="8" r:id="rId8"/>
     <sheet name="Course Dates Reference" sheetId="4" r:id="rId9"/>
+    <sheet name="CCEMT CRM Sched" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="182">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -578,6 +579,18 @@
   </si>
   <si>
     <t>5/11-12/26</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>LT</t>
   </si>
 </sst>
 </file>
@@ -1174,11 +1187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H60" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L79" sqref="L79"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D105" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A112" sqref="A112:A129"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5961,6 +5974,464 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE5E83A-B444-4206-8DA8-1368EF05AF5C}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1">
+      <c r="B1" s="13">
+        <v>45957</v>
+      </c>
+      <c r="C1" s="13">
+        <f>B1+1</f>
+        <v>45958</v>
+      </c>
+      <c r="D1" s="13">
+        <f t="shared" ref="D1:G1" si="0">C1+1</f>
+        <v>45959</v>
+      </c>
+      <c r="E1" s="13">
+        <f t="shared" si="0"/>
+        <v>45960</v>
+      </c>
+      <c r="F1" s="13">
+        <f t="shared" si="0"/>
+        <v>45961</v>
+      </c>
+      <c r="G1" s="13">
+        <f t="shared" si="0"/>
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7096,7 +7567,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7112,7 +7583,7 @@
         <v>144</v>
       </c>
       <c r="B1" s="8">
-        <v>46253</v>
+        <v>46042</v>
       </c>
       <c r="C1" s="12" t="b">
         <v>0</v>
@@ -7128,17 +7599,12 @@
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="8">
-        <v>46260</v>
-      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95">
@@ -7150,10 +7616,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95">
@@ -7165,10 +7628,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.95">
@@ -7180,10 +7640,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.95">
@@ -7195,10 +7652,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.95">
@@ -7210,10 +7664,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.95">
@@ -7232,7 +7683,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>154</v>
@@ -7273,7 +7724,7 @@
         <v>161</v>
       </c>
       <c r="B13" s="11">
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.95">
@@ -7281,40 +7732,32 @@
         <v>162</v>
       </c>
       <c r="B14" s="11">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="11">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="11">
-        <v>0.625</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="11">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="11">
-        <v>0.75</v>
-      </c>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
@@ -7596,7 +8039,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -7829,6 +8272,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -8011,25 +8471,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8037,5 +8480,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git Desktop Clone\CrewOps360\training\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{427D0485-26F1-4D6D-9708-2FE6C5554B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7BF4AF-E8FA-451C-B794-FE60D030837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" activeTab="9" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27270" windowHeight="14520" activeTab="7" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="183">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>LT</t>
+  </si>
+  <si>
+    <t>Instructors per day</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1190,12 +1193,12 @@
   <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D105" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A112" sqref="A112:A129"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="16.625" style="1" customWidth="1"/>
     <col min="6" max="7" width="13.375" style="1" customWidth="1"/>
@@ -1205,7 +1208,7 @@
     <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -3751,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>91</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>113</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>114</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>115</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>116</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>118</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>119</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>120</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>121</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>123</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>127</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
@@ -5441,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>129</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>130</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>131</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>132</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>133</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>135</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>136</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>137</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>138</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>139</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>140</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>141</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>142</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>143</v>
       </c>
@@ -5985,13 +5988,13 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1">
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13">
         <v>45957</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -6437,13 +6440,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AA679-D54D-BB45-A949-CBDCD69908D4}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -6451,7 +6454,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -6540,7 +6543,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -6615,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -6639,41 +6642,49 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6687,13 +6698,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8307E2-C15E-3246-97E6-1FE53EC08157}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -6701,7 +6712,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -6718,7 +6729,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -6735,7 +6746,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -6747,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6759,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -6771,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -6783,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -6794,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -6805,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -6822,7 +6833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -6830,7 +6841,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -6838,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -6846,7 +6857,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -6854,7 +6865,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -6862,34 +6873,42 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6904,13 +6923,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58626D5E-CF7D-7040-8A8E-EE19354196C8}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -6918,7 +6937,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -6932,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -6946,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -6960,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6971,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -6982,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -6993,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7004,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7015,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7032,7 +7051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7040,7 +7059,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7048,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7056,7 +7075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7064,7 +7083,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7072,34 +7091,42 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7114,13 +7141,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BC729-92D2-4067-85BC-DFDCD994C98C}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -7128,7 +7155,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -7142,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7159,7 +7186,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7173,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7184,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7195,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7206,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7217,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7228,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7245,7 +7272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7253,7 +7280,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7261,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7269,7 +7296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7277,7 +7304,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7285,34 +7312,42 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7327,13 +7362,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -7341,7 +7376,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -7358,7 +7393,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7375,7 +7410,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7392,7 +7427,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7409,7 +7444,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7426,7 +7461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7443,7 +7478,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7454,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7465,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7482,7 +7517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7490,7 +7525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7498,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7506,7 +7541,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7514,7 +7549,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7522,34 +7557,42 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7564,13 +7607,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73369AC4-C9B4-42DD-BF9C-2665EDC8C92A}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -7578,7 +7621,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -7595,7 +7638,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.95">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7607,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.95">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7619,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.95">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7631,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.95">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7643,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.95">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7655,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.95">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7667,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.95">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7678,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.95">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7695,7 +7738,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.95">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7703,7 +7746,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.95">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7711,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.95">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7719,7 +7762,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.95">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7727,7 +7770,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.95">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7735,38 +7778,46 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.95">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="15.95">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="15.95">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="15.95">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="15.95">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.95">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7781,13 +7832,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DEE273-7DC8-284A-9883-269CFB150B79}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -7795,7 +7846,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -7812,7 +7863,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7829,7 +7880,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7846,7 +7897,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7863,7 +7914,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7880,7 +7931,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7897,7 +7948,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7914,7 +7965,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7925,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7942,7 +7993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7950,7 +8001,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7958,7 +8009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7966,7 +8017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7974,7 +8025,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7982,7 +8033,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -7990,7 +8041,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -7998,7 +8049,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
@@ -8006,7 +8057,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
@@ -8014,14 +8065,22 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8042,9 +8101,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>171</v>
       </c>
@@ -8067,7 +8126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>172</v>
       </c>
@@ -8090,7 +8149,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>176</v>
@@ -8105,7 +8164,7 @@
         <v>46260</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="E4" s="6">
         <v>46063</v>
@@ -8114,7 +8173,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="E5" s="6">
         <v>46091</v>
@@ -8123,7 +8182,7 @@
         <v>46274</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="E6" s="6">
         <v>46114</v>
@@ -8132,7 +8191,7 @@
         <v>46280</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="E7" s="6">
         <v>46170</v>
@@ -8141,129 +8200,129 @@
         <v>46288</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="F8" s="8">
         <v>46294</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>46253</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>46260</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>46266</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>46274</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>46280</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46288</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46294</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
     </row>
   </sheetData>
@@ -8272,23 +8331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -8471,14 +8513,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git Desktop Clone\CrewOps360\training\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7BF4AF-E8FA-451C-B794-FE60D030837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CA63D3-8E78-41FA-9B7C-A3BFBB84989E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27270" windowHeight="14520" activeTab="7" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="9" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
-    <sheet name="CRM" sheetId="3" r:id="rId2"/>
-    <sheet name="FCCS" sheetId="9" r:id="rId3"/>
-    <sheet name="Wed SM Q1" sheetId="5" r:id="rId4"/>
-    <sheet name="Thurs SM Q1" sheetId="7" r:id="rId5"/>
-    <sheet name="STABLE" sheetId="6" r:id="rId6"/>
-    <sheet name="OB Lite" sheetId="10" r:id="rId7"/>
-    <sheet name="OB SIM" sheetId="8" r:id="rId8"/>
-    <sheet name="Course Dates Reference" sheetId="4" r:id="rId9"/>
-    <sheet name="CCEMT CRM Sched" sheetId="11" r:id="rId10"/>
+    <sheet name="Micro SIM" sheetId="13" r:id="rId2"/>
+    <sheet name="CRM" sheetId="3" r:id="rId3"/>
+    <sheet name="FCCS" sheetId="9" r:id="rId4"/>
+    <sheet name="Wed SM Q1" sheetId="5" r:id="rId5"/>
+    <sheet name="Thurs SM Q1" sheetId="7" r:id="rId6"/>
+    <sheet name="STABLE" sheetId="6" r:id="rId7"/>
+    <sheet name="OB Lite" sheetId="10" r:id="rId8"/>
+    <sheet name="OB SIM" sheetId="8" r:id="rId9"/>
+    <sheet name="Course Dates Reference" sheetId="4" r:id="rId10"/>
+    <sheet name="TEMPLATE" sheetId="12" r:id="rId11"/>
+    <sheet name="CCEMT CRM Sched" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="184">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -56,6 +58,9 @@
     <t>Educator AT</t>
   </si>
   <si>
+    <t>Micro SIM</t>
+  </si>
+  <si>
     <t>FCCS</t>
   </si>
   <si>
@@ -482,78 +487,81 @@
     <t>Date 1</t>
   </si>
   <si>
+    <t>Date 2</t>
+  </si>
+  <si>
+    <t>Date 3</t>
+  </si>
+  <si>
+    <t>Date 4</t>
+  </si>
+  <si>
+    <t>Date 5</t>
+  </si>
+  <si>
+    <t>Date 6</t>
+  </si>
+  <si>
+    <t>Date 7</t>
+  </si>
+  <si>
+    <t>Date 8</t>
+  </si>
+  <si>
+    <t>How Many Students Per Class?</t>
+  </si>
+  <si>
+    <t>LIVE Option</t>
+  </si>
+  <si>
+    <t>Can work N prior?</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Nurses and Medic Separate?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>How Many Classes Per Day?</t>
+  </si>
+  <si>
+    <t>Is this a two day class?</t>
+  </si>
+  <si>
+    <t>Time 1 START</t>
+  </si>
+  <si>
+    <t>Time 1 END</t>
+  </si>
+  <si>
+    <t>Time 2 START</t>
+  </si>
+  <si>
+    <t>Time 2 END</t>
+  </si>
+  <si>
+    <t>Time 3 START</t>
+  </si>
+  <si>
+    <t>Time 3 END</t>
+  </si>
+  <si>
+    <t>Time 4 START</t>
+  </si>
+  <si>
+    <t>Time 4 END</t>
+  </si>
+  <si>
+    <t>Instructors per day</t>
+  </si>
+  <si>
     <t>KBED</t>
   </si>
   <si>
-    <t>Date 2</t>
-  </si>
-  <si>
-    <t>Date 3</t>
-  </si>
-  <si>
-    <t>Date 4</t>
-  </si>
-  <si>
-    <t>Date 5</t>
-  </si>
-  <si>
-    <t>Date 6</t>
-  </si>
-  <si>
-    <t>Date 7</t>
-  </si>
-  <si>
-    <t>Date 8</t>
-  </si>
-  <si>
-    <t>How Many Students Per Class?</t>
-  </si>
-  <si>
-    <t>LIVE Option</t>
-  </si>
-  <si>
-    <t>Can work N prior?</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Nurses and Medic Separate?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>How Many Classes Per Day?</t>
-  </si>
-  <si>
-    <t>Is this a two day class?</t>
-  </si>
-  <si>
-    <t>Time 1 START</t>
-  </si>
-  <si>
-    <t>Time 1 END</t>
-  </si>
-  <si>
-    <t>Time 2 START</t>
-  </si>
-  <si>
-    <t>Time 2 END</t>
-  </si>
-  <si>
-    <t>Time 3 START</t>
-  </si>
-  <si>
-    <t>Time 3 END</t>
-  </si>
-  <si>
-    <t>Time 4 START</t>
-  </si>
-  <si>
-    <t>Time 4 END</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -591,9 +599,6 @@
   </si>
   <si>
     <t>LT</t>
-  </si>
-  <si>
-    <t>Instructors per day</t>
   </si>
 </sst>
 </file>
@@ -603,7 +608,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,7 +641,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -668,11 +673,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,11 +755,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <extLst>
@@ -814,6 +853,9 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -850,15 +892,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:L129" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L129" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:M129" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M129" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J82">
     <sortCondition ref="A1:A82"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{50DC1D60-DB40-CC4E-AADA-C428B2A2A55B}" name="STAFF NAME" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{6E8B322B-E8A9-4A76-89E6-0423806BDF7D}" name="Role" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{C08F3237-2D33-4620-A8D4-A1158062A4F4}" name="Educator AT" dataDxfId="9"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{50DC1D60-DB40-CC4E-AADA-C428B2A2A55B}" name="STAFF NAME" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{6E8B322B-E8A9-4A76-89E6-0423806BDF7D}" name="Role" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{C08F3237-2D33-4620-A8D4-A1158062A4F4}" name="Educator AT" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{7AC038BF-24B8-4FB6-BFAB-EBB4114C16B5}" name="Micro SIM" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{E1A8D9A8-36F0-F146-BD9C-FA31711EBC85}" name="FCCS" dataDxfId="8"/>
     <tableColumn id="11" xr3:uid="{99A3E3DB-8870-4AA5-A3B8-C9C4E099D5FD}" name="PFCCS" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FF0DAB42-3BB1-EA41-9413-27FD06C23ADF}" name="CRM" dataDxfId="6"/>
@@ -1190,25 +1233,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D110" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G83" sqref="G83:G129"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A112" sqref="A112:A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="16.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="16.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="1"/>
-    <col min="12" max="12" width="16.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,151 +1295,163 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="b">
         <v>0</v>
@@ -1397,69 +1459,75 @@
       <c r="L5" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="b">
         <v>1</v>
@@ -1471,71 +1539,77 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="b">
         <v>1</v>
@@ -1544,36 +1618,39 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="b">
         <v>1</v>
@@ -1582,18 +1659,21 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>0</v>
@@ -1602,16 +1682,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="b">
         <v>1</v>
@@ -1620,18 +1700,21 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>0</v>
@@ -1640,60 +1723,63 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="b">
         <v>0</v>
@@ -1701,31 +1787,34 @@
       <c r="L13" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="b">
         <v>1</v>
@@ -1739,51 +1828,57 @@
       <c r="L14" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>0</v>
@@ -1792,54 +1887,57 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="b">
         <v>1</v>
@@ -1848,56 +1946,62 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>1</v>
@@ -1909,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="b">
         <v>0</v>
@@ -1929,37 +2033,40 @@
       <c r="L19" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="b">
         <v>0</v>
@@ -1967,75 +2074,81 @@
       <c r="L20" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="b">
         <v>0</v>
@@ -2043,31 +2156,34 @@
       <c r="L22" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="b">
         <v>1</v>
@@ -2079,15 +2195,18 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
@@ -2099,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="b">
         <v>0</v>
@@ -2119,113 +2238,122 @@
       <c r="L24" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="b">
         <v>0</v>
@@ -2233,189 +2361,204 @@
       <c r="L27" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L28" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="b">
         <v>0</v>
@@ -2423,13 +2566,16 @@
       <c r="L32" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2" t="b">
         <v>1</v>
@@ -2441,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="F33" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2" t="b">
         <v>0</v>
@@ -2461,37 +2607,40 @@
       <c r="L33" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="b">
         <v>0</v>
@@ -2499,37 +2648,40 @@
       <c r="L34" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="b">
         <v>0</v>
@@ -2537,13 +2689,16 @@
       <c r="L35" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2" t="b">
         <v>0</v>
@@ -2552,130 +2707,139 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L36" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="b">
         <v>1</v>
@@ -2684,74 +2848,80 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="b">
         <v>1</v>
@@ -2760,118 +2930,127 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L43" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2" t="b">
         <v>0</v>
@@ -2879,75 +3058,81 @@
       <c r="L44" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F46" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="b">
         <v>0</v>
@@ -2955,37 +3140,40 @@
       <c r="L46" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J47" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2" t="b">
         <v>0</v>
@@ -2993,75 +3181,81 @@
       <c r="L47" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2" t="b">
         <v>0</v>
@@ -3069,127 +3263,139 @@
       <c r="L49" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F52" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2" t="b">
         <v>0</v>
@@ -3198,36 +3404,39 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2" t="b">
         <v>1</v>
@@ -3239,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2" t="b">
         <v>0</v>
@@ -3259,127 +3468,139 @@
       <c r="L54" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F55" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2" t="b">
         <v>0</v>
@@ -3388,42 +3609,45 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L58" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3435,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="b">
         <v>1</v>
@@ -3444,118 +3668,127 @@
         <v>1</v>
       </c>
       <c r="K59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L61" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2" t="b">
         <v>0</v>
@@ -3563,37 +3796,40 @@
       <c r="L62" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="2" t="b">
         <v>0</v>
@@ -3601,37 +3837,40 @@
       <c r="L63" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2" t="b">
         <v>0</v>
@@ -3639,37 +3878,40 @@
       <c r="L64" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2" t="b">
         <v>0</v>
@@ -3677,13 +3919,16 @@
       <c r="L65" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" s="2" t="b">
         <v>0</v>
@@ -3692,54 +3937,57 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J66" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L66" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F67" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="b">
         <v>1</v>
@@ -3751,109 +3999,118 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L68" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F69" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D70" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F70" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2" t="b">
         <v>1</v>
@@ -3862,65 +4119,71 @@
         <v>1</v>
       </c>
       <c r="K70" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2" t="b">
         <v>1</v>
@@ -3935,30 +4198,33 @@
         <v>1</v>
       </c>
       <c r="J72" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2" t="b">
         <v>1</v>
@@ -3973,68 +4239,74 @@
         <v>1</v>
       </c>
       <c r="J73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="2" t="b">
         <v>1</v>
@@ -4049,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2" t="b">
         <v>0</v>
@@ -4057,25 +4329,28 @@
       <c r="L75" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="2" t="b">
         <v>1</v>
@@ -4090,30 +4365,33 @@
         <v>1</v>
       </c>
       <c r="K76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2" t="b">
         <v>1</v>
@@ -4125,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="2" t="b">
         <v>0</v>
@@ -4133,22 +4411,25 @@
       <c r="L77" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="2" t="b">
         <v>1</v>
@@ -4163,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="2" t="b">
         <v>0</v>
@@ -4171,13 +4452,16 @@
       <c r="L78" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2" t="b">
         <v>1</v>
@@ -4189,33 +4473,36 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L79" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2" t="b">
         <v>0</v>
@@ -4224,10 +4511,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2" t="b">
         <v>1</v>
@@ -4239,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="2" t="b">
         <v>0</v>
@@ -4247,22 +4534,25 @@
       <c r="L80" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="2" t="b">
         <v>1</v>
@@ -4277,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="2" t="b">
         <v>0</v>
@@ -4285,22 +4575,25 @@
       <c r="L81" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D82" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="2" t="b">
         <v>1</v>
@@ -4315,30 +4608,30 @@
         <v>1</v>
       </c>
       <c r="J82" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2" t="b">
         <v>0</v>
@@ -4358,22 +4651,22 @@
       <c r="L83" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="E84" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F84" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="2" t="b">
         <v>0</v>
@@ -4393,22 +4686,22 @@
       <c r="L84" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F85" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="2" t="b">
         <v>0</v>
@@ -4428,22 +4721,22 @@
       <c r="L85" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F86" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="2" t="b">
         <v>0</v>
@@ -4463,22 +4756,22 @@
       <c r="L86" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="2" t="b">
         <v>0</v>
@@ -4498,22 +4791,22 @@
       <c r="L87" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F88" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="2" t="b">
         <v>0</v>
@@ -4533,22 +4826,22 @@
       <c r="L88" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="2" t="b">
         <v>0</v>
@@ -4568,22 +4861,22 @@
       <c r="L89" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F90" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="2" t="b">
         <v>0</v>
@@ -4603,22 +4896,22 @@
       <c r="L90" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F91" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="2" t="b">
         <v>0</v>
@@ -4638,22 +4931,22 @@
       <c r="L91" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F92" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="2" t="b">
         <v>0</v>
@@ -4673,22 +4966,22 @@
       <c r="L92" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F93" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2" t="b">
         <v>0</v>
@@ -4708,22 +5001,22 @@
       <c r="L93" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="2" t="b">
         <v>0</v>
@@ -4743,22 +5036,22 @@
       <c r="L94" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="2" t="b">
         <v>0</v>
@@ -4778,22 +5071,22 @@
       <c r="L95" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="2" t="b">
         <v>0</v>
@@ -4813,22 +5106,22 @@
       <c r="L96" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F97" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="2" t="b">
         <v>0</v>
@@ -4848,22 +5141,22 @@
       <c r="L97" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="2" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F98" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="2" t="b">
         <v>0</v>
@@ -4883,22 +5176,22 @@
       <c r="L98" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F99" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="2" t="b">
         <v>0</v>
@@ -4918,22 +5211,22 @@
       <c r="L99" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="2" t="b">
         <v>0</v>
@@ -4953,22 +5246,22 @@
       <c r="L100" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F101" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="2" t="b">
         <v>0</v>
@@ -4988,22 +5281,22 @@
       <c r="L101" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F102" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="2" t="b">
         <v>0</v>
@@ -5023,22 +5316,22 @@
       <c r="L102" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F103" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" s="2" t="b">
         <v>0</v>
@@ -5058,22 +5351,22 @@
       <c r="L103" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F104" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" s="2" t="b">
         <v>0</v>
@@ -5093,22 +5386,22 @@
       <c r="L104" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F105" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="2" t="b">
         <v>0</v>
@@ -5128,22 +5421,22 @@
       <c r="L105" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F106" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" s="2" t="b">
         <v>0</v>
@@ -5163,22 +5456,22 @@
       <c r="L106" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F107" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="2" t="b">
         <v>0</v>
@@ -5198,22 +5491,22 @@
       <c r="L107" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F108" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" s="2" t="b">
         <v>0</v>
@@ -5233,22 +5526,22 @@
       <c r="L108" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F109" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" s="2" t="b">
         <v>0</v>
@@ -5268,22 +5561,22 @@
       <c r="L109" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F110" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="2" t="b">
         <v>0</v>
@@ -5303,22 +5596,22 @@
       <c r="L110" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="2" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F111" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="2" t="b">
         <v>0</v>
@@ -5338,22 +5631,22 @@
       <c r="L111" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F112" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="2" t="b">
         <v>0</v>
@@ -5373,22 +5666,22 @@
       <c r="L112" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D113" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F113" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="2" t="b">
         <v>0</v>
@@ -5408,22 +5701,22 @@
       <c r="L113" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F114" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="2" t="b">
         <v>0</v>
@@ -5443,22 +5736,22 @@
       <c r="L114" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D115" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F115" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="2" t="b">
         <v>0</v>
@@ -5478,22 +5771,22 @@
       <c r="L115" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F116" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="2" t="b">
         <v>0</v>
@@ -5513,22 +5806,22 @@
       <c r="L116" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="2" t="b">
         <v>0</v>
@@ -5548,22 +5841,22 @@
       <c r="L117" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="2" t="b">
         <v>0</v>
@@ -5583,13 +5876,16 @@
       <c r="L118" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="b">
         <v>1</v>
@@ -5601,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="F119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="2" t="b">
         <v>0</v>
@@ -5621,22 +5917,22 @@
       <c r="L119" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="2" t="b">
         <v>0</v>
@@ -5656,22 +5952,22 @@
       <c r="L120" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="2" t="b">
         <v>0</v>
@@ -5691,22 +5987,22 @@
       <c r="L121" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F122" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" s="2" t="b">
         <v>0</v>
@@ -5726,22 +6022,22 @@
       <c r="L122" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D123" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F123" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" s="2" t="b">
         <v>0</v>
@@ -5761,22 +6057,22 @@
       <c r="L123" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F124" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="2" t="b">
         <v>0</v>
@@ -5796,22 +6092,22 @@
       <c r="L124" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" s="2" t="b">
         <v>0</v>
@@ -5831,22 +6127,22 @@
       <c r="L125" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D126" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" s="2" t="b">
         <v>0</v>
@@ -5866,22 +6162,22 @@
       <c r="L126" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D127" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" s="2" t="b">
         <v>0</v>
@@ -5901,22 +6197,22 @@
       <c r="L127" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D128" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="2" t="b">
         <v>0</v>
@@ -5936,22 +6232,22 @@
       <c r="L128" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D129" s="2" t="b">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="2" t="b">
         <v>0</v>
@@ -5969,6 +6265,9 @@
         <v>0</v>
       </c>
       <c r="L129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5981,6 +6280,450 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D7DB1A-8C06-5D43-8D41-553EA9E8A37B}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="6">
+        <v>46042</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45974</v>
+      </c>
+      <c r="F2" s="8">
+        <v>46253</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="6">
+        <v>46035</v>
+      </c>
+      <c r="F3" s="8">
+        <v>46260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5"/>
+      <c r="E4" s="6">
+        <v>46063</v>
+      </c>
+      <c r="F4" s="8">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5"/>
+      <c r="E5" s="6">
+        <v>46091</v>
+      </c>
+      <c r="F5" s="8">
+        <v>46274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5"/>
+      <c r="E6" s="6">
+        <v>46114</v>
+      </c>
+      <c r="F6" s="8">
+        <v>46280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5"/>
+      <c r="E7" s="6">
+        <v>46170</v>
+      </c>
+      <c r="F7" s="8">
+        <v>46288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="F8" s="8">
+        <v>46294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6">
+        <v>46253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6">
+        <v>46260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6">
+        <v>46274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6">
+        <v>46280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6">
+        <v>46288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6">
+        <v>46294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E32295-89C1-4E9D-BE05-F001BB2B51F6}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.95">
+      <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.95">
+      <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.95">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.95">
+      <c r="A4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.95">
+      <c r="A5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.95">
+      <c r="A6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.95">
+      <c r="A7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.95">
+      <c r="A8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.95">
+      <c r="A9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.95">
+      <c r="A10" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.95">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.95">
+      <c r="A12" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.95">
+      <c r="A13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.95">
+      <c r="A14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.95">
+      <c r="A15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.95">
+      <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.95">
+      <c r="A17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.95">
+      <c r="A18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.95">
+      <c r="A19" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.95">
+      <c r="A20" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.95">
+      <c r="A21" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B12" xr:uid="{70F00566-8FC3-4C46-82E5-BFCFAF3F9C93}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE5E83A-B444-4206-8DA8-1368EF05AF5C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -5988,13 +6731,13 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="13" customFormat="1">
       <c r="B1" s="13">
         <v>45957</v>
       </c>
@@ -6019,418 +6762,418 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
         <v>180</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>180</v>
       </c>
-      <c r="F5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" t="s">
-        <v>178</v>
-      </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>180</v>
       </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" t="s">
         <v>180</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
         <v>180</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E13" t="s">
         <v>180</v>
       </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F13" t="s">
         <v>181</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" t="s">
         <v>180</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E14" t="s">
         <v>180</v>
       </c>
-      <c r="D10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" t="s">
         <v>180</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C17" t="s">
         <v>180</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
         <v>180</v>
       </c>
-      <c r="F11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C18" t="s">
         <v>180</v>
       </c>
-      <c r="E15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
         <v>180</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G18" t="s">
         <v>180</v>
       </c>
-      <c r="F16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
         <v>181</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E19" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" t="s">
-        <v>179</v>
-      </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6439,6 +7182,249 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E7A6CB-75D8-40BA-8100-9864AFDBBD94}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="8">
+        <v>45945</v>
+      </c>
+      <c r="C1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45959</v>
+      </c>
+      <c r="C2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45979</v>
+      </c>
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="8">
+        <v>46001</v>
+      </c>
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46008</v>
+      </c>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="8">
+        <v>46028</v>
+      </c>
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="8">
+        <v>46043</v>
+      </c>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B12" xr:uid="{292C75D8-74EA-4086-AD00-0E573171E6C9}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AA679-D54D-BB45-A949-CBDCD69908D4}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6446,7 +7432,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -6454,9 +7440,9 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="9">
         <v>45957</v>
@@ -6468,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -6486,10 +7472,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -6504,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6522,10 +7508,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -6540,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -6558,10 +7544,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -6573,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -6585,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -6602,7 +7588,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -6610,7 +7596,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -6618,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -6626,7 +7612,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -6634,7 +7620,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -6642,48 +7628,48 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6696,15 +7682,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8307E2-C15E-3246-97E6-1FE53EC08157}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -6712,9 +7698,9 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="6">
         <v>45936</v>
@@ -6726,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -6743,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -6758,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6770,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -6782,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -6794,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -6805,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -6816,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -6833,7 +7819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -6841,7 +7827,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -6849,15 +7835,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -6865,7 +7851,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -6873,42 +7859,42 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6921,7 +7907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58626D5E-CF7D-7040-8A8E-EE19354196C8}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6929,7 +7915,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -6937,9 +7923,9 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="13">
         <v>45931</v>
@@ -6951,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -6965,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -6979,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6990,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7001,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7012,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7023,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7034,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7051,7 +8037,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7059,7 +8045,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7067,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7075,7 +8061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7083,7 +8069,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7091,39 +8077,39 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -7139,7 +8125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BC729-92D2-4067-85BC-DFDCD994C98C}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -7147,7 +8133,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -7155,9 +8141,9 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="13">
         <v>45946</v>
@@ -7169,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7183,10 +8169,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7200,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7211,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7222,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7233,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7244,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7255,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7272,7 +8258,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7280,7 +8266,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7288,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7296,7 +8282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7304,7 +8290,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7312,39 +8298,39 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -7360,15 +8346,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -7376,9 +8362,9 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="6">
         <v>45974</v>
@@ -7390,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7407,10 +8393,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7424,10 +8410,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7441,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7458,10 +8444,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7475,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7489,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7500,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7517,7 +8503,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7525,7 +8511,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7533,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7541,7 +8527,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7549,7 +8535,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7557,39 +8543,39 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -7605,7 +8591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73369AC4-C9B4-42DD-BF9C-2665EDC8C92A}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -7613,7 +8599,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -7621,9 +8607,9 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="8">
         <v>46042</v>
@@ -7635,10 +8621,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7650,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7662,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7674,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7686,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7698,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7710,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7721,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7738,7 +8724,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -7746,7 +8732,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -7754,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7762,7 +8748,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7770,7 +8756,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -7778,46 +8764,46 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.95">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7830,15 +8816,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DEE273-7DC8-284A-9883-269CFB150B79}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -7846,9 +8832,9 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="8">
         <v>46253</v>
@@ -7860,10 +8846,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -7877,10 +8863,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -7894,10 +8880,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -7911,10 +8897,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -7928,10 +8914,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -7945,10 +8931,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -7962,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -7976,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -7993,15 +8979,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -8009,7 +8995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -8017,7 +9003,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -8025,7 +9011,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -8033,7 +9019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -8041,7 +9027,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -8049,7 +9035,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
@@ -8057,7 +9043,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
@@ -8065,19 +9051,19 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -8089,243 +9075,6 @@
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D7DB1A-8C06-5D43-8D41-553EA9E8A37B}">
-  <dimension ref="A1:G56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="6">
-        <v>46042</v>
-      </c>
-      <c r="E2" s="6">
-        <v>45974</v>
-      </c>
-      <c r="F2" s="8">
-        <v>46253</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="6">
-        <v>46035</v>
-      </c>
-      <c r="F3" s="8">
-        <v>46260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="E4" s="6">
-        <v>46063</v>
-      </c>
-      <c r="F4" s="8">
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="E5" s="6">
-        <v>46091</v>
-      </c>
-      <c r="F5" s="8">
-        <v>46274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="E6" s="6">
-        <v>46114</v>
-      </c>
-      <c r="F6" s="8">
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="E7" s="6">
-        <v>46170</v>
-      </c>
-      <c r="F7" s="8">
-        <v>46288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="F8" s="8">
-        <v>46294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>46253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>46260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>46274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>46288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>46294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8531,38 +9280,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C0BC0F-8305-403A-82D1-3343978203E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F20AF4B-B0AF-453E-A6C6-D90C404CE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="9" activeTab="9" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="9" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>Airway Decision SIM</t>
   </si>
   <si>
-    <t>Micro SIM2</t>
+    <t>Micro SIM</t>
   </si>
   <si>
     <t>FCCS</t>
@@ -940,7 +940,7 @@
     <tableColumn id="8" xr3:uid="{6E8B322B-E8A9-4A76-89E6-0423806BDF7D}" name="Role" dataDxfId="12"/>
     <tableColumn id="9" xr3:uid="{C08F3237-2D33-4620-A8D4-A1158062A4F4}" name="Educator AT" dataDxfId="11"/>
     <tableColumn id="14" xr3:uid="{59549133-C9AB-476E-9F82-FC30D432A6B0}" name="Airway Decision SIM" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{7AC038BF-24B8-4FB6-BFAB-EBB4114C16B5}" name="Micro SIM2" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{7AC038BF-24B8-4FB6-BFAB-EBB4114C16B5}" name="Micro SIM" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{E1A8D9A8-36F0-F146-BD9C-FA31711EBC85}" name="FCCS" dataDxfId="8"/>
     <tableColumn id="11" xr3:uid="{99A3E3DB-8870-4AA5-A3B8-C9C4E099D5FD}" name="PFCCS" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FF0DAB42-3BB1-EA41-9413-27FD06C23ADF}" name="CRM" dataDxfId="6"/>
@@ -1274,9 +1274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6572,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DEE273-7DC8-284A-9883-269CFB150B79}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9D3660-8E20-4BCA-ACBD-778055BA7A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="13_ncr:1_{C9A11702-2BFC-CD46-85DA-916149E72FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E85800C-A688-4230-99FC-C2AA646DB698}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="9" activeTab="12" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,23 +857,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,7 +1079,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:P129" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:P129" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
+  <autoFilter ref="A1:P129" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M82">
     <sortCondition ref="A1:A82"/>
   </sortState>
@@ -1452,9 +1446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P10" sqref="P10"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1528,7 +1522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" hidden="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" hidden="1">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" hidden="1">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" hidden="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" hidden="1">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" hidden="1">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" hidden="1">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" hidden="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" hidden="1">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2078,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" hidden="1">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" hidden="1">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2178,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" hidden="1">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2278,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" hidden="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" hidden="1">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2378,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" hidden="1">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" hidden="1">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" hidden="1">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" hidden="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" hidden="1">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" hidden="1">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" hidden="1">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" hidden="1">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2778,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" hidden="1">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" hidden="1">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" hidden="1">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" hidden="1">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -2978,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" hidden="1">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3028,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" hidden="1">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -3078,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" hidden="1">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -3128,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -3178,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" hidden="1">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -3278,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" hidden="1">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -3328,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" hidden="1">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -3378,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -3428,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" hidden="1">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -3528,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" hidden="1">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -3578,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" hidden="1">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -3628,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -3678,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" hidden="1">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -3728,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" hidden="1">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -3778,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" hidden="1">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -3828,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" hidden="1">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -3878,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" hidden="1">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -3928,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" hidden="1">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" hidden="1">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -4028,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" hidden="1">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -4128,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" hidden="1">
       <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
@@ -4178,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" hidden="1">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -4228,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" hidden="1">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
@@ -4278,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -4378,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" hidden="1">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -4428,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" hidden="1">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
@@ -4478,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" hidden="1">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -4528,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="1">
       <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
@@ -4578,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" hidden="1">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -4628,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" hidden="1">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -4778,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" hidden="1">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -4828,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" hidden="1">
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
@@ -4878,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" hidden="1">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -4928,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" hidden="1">
       <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
@@ -4978,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" hidden="1">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -5028,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" hidden="1">
       <c r="A72" s="1" t="s">
         <v>87</v>
       </c>
@@ -5078,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" hidden="1">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
@@ -5128,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" hidden="1">
       <c r="A74" s="1" t="s">
         <v>89</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" hidden="1">
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
@@ -5228,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" hidden="1">
       <c r="A76" s="1" t="s">
         <v>91</v>
       </c>
@@ -5278,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" hidden="1">
       <c r="A77" s="1" t="s">
         <v>92</v>
       </c>
@@ -5328,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" hidden="1">
       <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
@@ -5378,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" hidden="1">
       <c r="A79" s="1" t="s">
         <v>94</v>
       </c>
@@ -5478,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" hidden="1">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
@@ -5528,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" hidden="1">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
@@ -5578,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" hidden="1">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
@@ -5613,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" hidden="1">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
@@ -5648,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" hidden="1">
       <c r="A85" s="1" t="s">
         <v>101</v>
       </c>
@@ -5683,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" hidden="1">
       <c r="A86" s="1" t="s">
         <v>102</v>
       </c>
@@ -5718,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" hidden="1">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
@@ -5753,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" hidden="1">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -5788,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" hidden="1">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" hidden="1">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
@@ -5858,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -5893,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" hidden="1">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
@@ -5928,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" hidden="1">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" hidden="1">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
@@ -5998,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" hidden="1">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6033,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" hidden="1">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -6068,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" hidden="1">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6103,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="1">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -6138,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="1">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6173,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" hidden="1">
       <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
@@ -6208,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="1">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -6243,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="1">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -6278,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="1">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -6313,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="1">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -6348,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="1">
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
@@ -6383,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="1">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
@@ -6418,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="1">
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
@@ -6453,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="1">
       <c r="A108" s="1" t="s">
         <v>125</v>
       </c>
@@ -6488,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" hidden="1">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -6523,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" hidden="1">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -6558,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" hidden="1">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -6593,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" hidden="1">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -6628,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="1">
       <c r="A113" s="1" t="s">
         <v>131</v>
       </c>
@@ -6663,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" hidden="1">
       <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
@@ -6698,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" hidden="1">
       <c r="A115" s="1" t="s">
         <v>133</v>
       </c>
@@ -6733,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" hidden="1">
       <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
@@ -6768,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" hidden="1">
       <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
@@ -6803,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" hidden="1">
       <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
@@ -6838,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" hidden="1">
       <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
@@ -6888,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" hidden="1">
       <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
@@ -6923,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" hidden="1">
       <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
@@ -6958,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" hidden="1">
       <c r="A122" s="1" t="s">
         <v>140</v>
       </c>
@@ -6993,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" hidden="1">
       <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
@@ -7028,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" hidden="1">
       <c r="A124" s="1" t="s">
         <v>142</v>
       </c>
@@ -7063,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" hidden="1">
       <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
@@ -7098,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" hidden="1">
       <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
@@ -7133,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" hidden="1">
       <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
@@ -7168,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" hidden="1">
       <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
@@ -7203,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" hidden="1">
       <c r="A129" s="1" t="s">
         <v>147</v>
       </c>
@@ -7248,7 +7242,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16:E16"/>
@@ -7262,7 +7256,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -7279,7 +7273,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -7296,7 +7290,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -7313,166 +7307,152 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="6">
         <v>46091</v>
       </c>
-      <c r="C4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="6">
         <v>46114</v>
       </c>
-      <c r="C5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="6">
         <v>46170</v>
       </c>
-      <c r="C6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
         <v>164</v>
       </c>
@@ -7482,31 +7462,24 @@
       <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>170</v>
       </c>
@@ -7514,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -7522,7 +7495,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>173</v>
       </c>
@@ -7530,7 +7503,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>174</v>
       </c>
@@ -7538,37 +7511,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
@@ -7588,7 +7561,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73369AC4-C9B4-42DD-BF9C-2665EDC8C92A}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15:E15"/>
@@ -7602,7 +7575,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95">
+    <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -7619,7 +7592,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.95">
+    <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -7631,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.95">
+    <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -7643,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95">
+    <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -7655,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -7667,129 +7640,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.95">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.95">
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.95">
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>164</v>
       </c>
@@ -7799,42 +7757,32 @@
       <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.95">
+    </row>
+    <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.95">
+    </row>
+    <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.95">
+    </row>
+    <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.95">
+    </row>
+    <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -7842,7 +7790,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.95">
+    <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
         <v>173</v>
       </c>
@@ -7850,7 +7798,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.95">
+    <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
         <v>174</v>
       </c>
@@ -7858,41 +7806,41 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.95">
+    <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="15.95">
+    <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="15.95">
+    <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:5" ht="15.95">
+    <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="15.95">
+    <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.95">
+    <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
@@ -7912,7 +7860,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DEE273-7DC8-284A-9883-269CFB150B79}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16:E16"/>
@@ -7926,7 +7874,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -7943,7 +7891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -7960,7 +7908,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -7977,7 +7925,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -7994,7 +7942,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -8011,7 +7959,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -8028,120 +7976,107 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="8">
         <v>46294</v>
       </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
         <v>164</v>
       </c>
@@ -8151,18 +8086,14 @@
       <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
@@ -8268,8 +8199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D7DB1A-8C06-5D43-8D41-553EA9E8A37B}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView topLeftCell="E62" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -8303,7 +8234,7 @@
       <c r="H1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>183</v>
       </c>
       <c r="J1" s="16" t="s">
@@ -8347,7 +8278,7 @@
       <c r="H2" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="18">
         <v>45931</v>
       </c>
       <c r="J2" s="16"/>
@@ -8369,7 +8300,7 @@
       <c r="H3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>45966</v>
       </c>
       <c r="J3" s="16"/>
@@ -8385,7 +8316,7 @@
       <c r="H4" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>45994</v>
       </c>
       <c r="J4" s="16"/>
@@ -8401,7 +8332,7 @@
       <c r="H5" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>46029</v>
       </c>
       <c r="J5" s="16" t="s">
@@ -8419,7 +8350,7 @@
       <c r="H6" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>46057</v>
       </c>
       <c r="J6" s="16"/>
@@ -8435,7 +8366,7 @@
       <c r="H7" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>46085</v>
       </c>
       <c r="J7" s="16"/>
@@ -8448,7 +8379,7 @@
       <c r="H8" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <v>46113</v>
       </c>
       <c r="J8" s="16"/>
@@ -8457,7 +8388,7 @@
       <c r="H9" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>46148</v>
       </c>
       <c r="J9" s="16" t="s">
@@ -8468,7 +8399,7 @@
       <c r="H10" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="18">
         <v>46176</v>
       </c>
       <c r="J10" s="16"/>
@@ -8477,7 +8408,7 @@
       <c r="H11" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>46204</v>
       </c>
       <c r="J11" s="16"/>
@@ -8487,7 +8418,7 @@
       <c r="H12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <v>46239</v>
       </c>
       <c r="J12" s="16"/>
@@ -8497,7 +8428,7 @@
       <c r="H13" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <v>46267</v>
       </c>
       <c r="J13" s="16" t="s">
@@ -8509,7 +8440,7 @@
       <c r="H14" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="18">
         <v>45946</v>
       </c>
       <c r="J14" s="16"/>
@@ -8519,7 +8450,7 @@
       <c r="H15" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="18">
         <v>45981</v>
       </c>
       <c r="J15" s="16" t="s">
@@ -8531,7 +8462,7 @@
       <c r="H16" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="18">
         <v>46009</v>
       </c>
       <c r="J16" s="16"/>
@@ -8540,7 +8471,7 @@
       <c r="H17" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="18">
         <v>46037</v>
       </c>
       <c r="J17" s="16"/>
@@ -8549,7 +8480,7 @@
       <c r="H18" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="18">
         <v>46072</v>
       </c>
       <c r="J18" s="16"/>
@@ -8558,7 +8489,7 @@
       <c r="H19" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="18">
         <v>46100</v>
       </c>
       <c r="J19" s="16" t="s">
@@ -8570,7 +8501,7 @@
       <c r="H20" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="18">
         <v>46128</v>
       </c>
       <c r="J20" s="16"/>
@@ -8580,7 +8511,7 @@
       <c r="H21" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="18">
         <v>46163</v>
       </c>
       <c r="J21" s="16"/>
@@ -8590,7 +8521,7 @@
       <c r="H22" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="18">
         <v>46191</v>
       </c>
       <c r="J22" s="16"/>
@@ -8600,7 +8531,7 @@
       <c r="H23" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="18">
         <v>46219</v>
       </c>
       <c r="J23" s="16" t="s">
@@ -8612,7 +8543,7 @@
       <c r="H24" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="18">
         <v>46254</v>
       </c>
       <c r="J24" s="16"/>
@@ -8621,7 +8552,7 @@
       <c r="H25" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="18">
         <v>46282</v>
       </c>
       <c r="J25" s="16"/>
@@ -8630,7 +8561,7 @@
       <c r="H26" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="18">
         <v>45945</v>
       </c>
       <c r="J26" s="16"/>
@@ -8640,7 +8571,7 @@
       <c r="H27" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="18">
         <v>45959</v>
       </c>
       <c r="J27" s="16"/>
@@ -8650,7 +8581,7 @@
       <c r="H28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="18">
         <v>45979</v>
       </c>
       <c r="J28" s="16"/>
@@ -8660,7 +8591,7 @@
       <c r="H29" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="18">
         <v>46001</v>
       </c>
       <c r="J29" s="16"/>
@@ -8670,7 +8601,7 @@
       <c r="H30" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="18">
         <v>46008</v>
       </c>
       <c r="J30" s="16"/>
@@ -8680,7 +8611,7 @@
       <c r="H31" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="18">
         <v>46028</v>
       </c>
       <c r="J31" s="16"/>
@@ -8690,7 +8621,7 @@
       <c r="H32" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="18">
         <v>46043</v>
       </c>
       <c r="J32" s="16"/>
@@ -8699,7 +8630,7 @@
       <c r="H33" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="18">
         <v>46050</v>
       </c>
       <c r="J33" s="16"/>
@@ -8708,7 +8639,7 @@
       <c r="H34" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="18">
         <v>46056</v>
       </c>
       <c r="J34" s="16"/>
@@ -8717,7 +8648,7 @@
       <c r="H35" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="18">
         <v>46064</v>
       </c>
       <c r="J35" s="16"/>
@@ -8726,7 +8657,7 @@
       <c r="H36" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="18">
         <v>46070</v>
       </c>
       <c r="J36" s="16"/>
@@ -8735,7 +8666,7 @@
       <c r="H37" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="18">
         <v>46078</v>
       </c>
       <c r="J37" s="16"/>
@@ -8744,7 +8675,7 @@
       <c r="H38" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="18">
         <v>46084</v>
       </c>
       <c r="J38" s="16"/>
@@ -8753,7 +8684,7 @@
       <c r="H39" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="18">
         <v>46092</v>
       </c>
       <c r="J39" s="16"/>
@@ -8763,7 +8694,7 @@
       <c r="H40" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="18">
         <v>46099</v>
       </c>
       <c r="J40" s="16"/>
@@ -8775,7 +8706,7 @@
       <c r="H41" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="18">
         <v>46112</v>
       </c>
       <c r="J41" s="16"/>
@@ -8787,7 +8718,7 @@
       <c r="H42" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="18">
         <v>46120</v>
       </c>
       <c r="J42" s="16"/>
@@ -8799,7 +8730,7 @@
       <c r="H43" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="18">
         <v>46126</v>
       </c>
       <c r="J43" s="16" t="s">
@@ -8813,7 +8744,7 @@
       <c r="H44" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="18">
         <v>46134</v>
       </c>
       <c r="J44" s="16" t="s">
@@ -8827,7 +8758,7 @@
       <c r="H45" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="18">
         <v>46140</v>
       </c>
       <c r="J45" s="16" t="s">
@@ -8841,7 +8772,7 @@
       <c r="H46" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="18">
         <v>45951</v>
       </c>
       <c r="J46" s="16"/>
@@ -8853,7 +8784,7 @@
       <c r="H47" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="18">
         <v>45983</v>
       </c>
       <c r="J47" s="16"/>
@@ -8865,7 +8796,7 @@
       <c r="H48" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="18">
         <v>45993</v>
       </c>
       <c r="J48" s="16"/>
@@ -8877,7 +8808,7 @@
       <c r="H49" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="18">
         <v>46036</v>
       </c>
       <c r="J49" s="16"/>
@@ -8889,7 +8820,7 @@
       <c r="H50" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="18">
         <v>46077</v>
       </c>
       <c r="J50" s="16"/>
@@ -8899,7 +8830,7 @@
       <c r="H51" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="18">
         <v>46106</v>
       </c>
       <c r="J51" s="16"/>
@@ -8909,7 +8840,7 @@
       <c r="H52" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="18">
         <v>46141</v>
       </c>
       <c r="J52" s="16"/>
@@ -8919,7 +8850,7 @@
       <c r="H53" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="18">
         <v>46161</v>
       </c>
       <c r="J53" s="16"/>
@@ -8929,7 +8860,7 @@
       <c r="H54" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="18">
         <v>46190</v>
       </c>
       <c r="J54" s="16"/>
@@ -8939,7 +8870,7 @@
       <c r="H55" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="18">
         <v>46224</v>
       </c>
       <c r="J55" s="16"/>
@@ -8949,7 +8880,7 @@
       <c r="H56" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="18">
         <v>46245</v>
       </c>
       <c r="J56" s="16"/>
@@ -8958,7 +8889,7 @@
       <c r="H57" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="18">
         <v>46295</v>
       </c>
       <c r="J57" s="16"/>
@@ -8967,7 +8898,7 @@
       <c r="H58" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="18">
         <v>46147</v>
       </c>
       <c r="J58" s="16"/>
@@ -8976,7 +8907,7 @@
       <c r="H59" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="18">
         <v>46162</v>
       </c>
       <c r="J59" s="16"/>
@@ -8985,7 +8916,7 @@
       <c r="H60" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="18">
         <v>46168</v>
       </c>
       <c r="J60" s="16"/>
@@ -8994,7 +8925,7 @@
       <c r="H61" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="18">
         <v>46175</v>
       </c>
       <c r="J61" s="16"/>
@@ -9003,7 +8934,7 @@
       <c r="H62" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="18">
         <v>46183</v>
       </c>
       <c r="J62" s="16"/>
@@ -9012,7 +8943,7 @@
       <c r="H63" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="18">
         <v>46189</v>
       </c>
       <c r="J63" s="16"/>
@@ -9021,7 +8952,7 @@
       <c r="H64" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="18">
         <v>46203</v>
       </c>
       <c r="J64" s="16"/>
@@ -9030,7 +8961,7 @@
       <c r="H65" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="18">
         <v>46211</v>
       </c>
       <c r="J65" s="16"/>
@@ -9039,7 +8970,7 @@
       <c r="H66" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="18">
         <v>46217</v>
       </c>
       <c r="J66" s="16"/>
@@ -9048,7 +8979,7 @@
       <c r="H67" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="18">
         <v>46225</v>
       </c>
       <c r="J67" s="16"/>
@@ -9057,7 +8988,7 @@
       <c r="H68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="18">
         <v>46231</v>
       </c>
       <c r="J68" s="16" t="s">
@@ -9068,7 +8999,7 @@
       <c r="H69" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="18">
         <v>46238</v>
       </c>
       <c r="J69" s="16" t="s">
@@ -9079,7 +9010,7 @@
       <c r="H70" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="18">
         <v>46246</v>
       </c>
       <c r="J70" s="16" t="s">
@@ -9090,7 +9021,7 @@
       <c r="H71" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="18">
         <v>46253</v>
       </c>
       <c r="J71" s="16"/>
@@ -9099,7 +9030,7 @@
       <c r="H72" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="18">
         <v>46260</v>
       </c>
       <c r="J72" s="16"/>
@@ -9108,7 +9039,7 @@
       <c r="H73" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="18">
         <v>46266</v>
       </c>
       <c r="J73" s="16"/>
@@ -9117,7 +9048,7 @@
       <c r="H74" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="18">
         <v>46274</v>
       </c>
       <c r="J74" s="16"/>
@@ -9126,7 +9057,7 @@
       <c r="H75" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="18">
         <v>46280</v>
       </c>
       <c r="J75" s="16"/>
@@ -9135,7 +9066,7 @@
       <c r="H76" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="18">
         <v>46288</v>
       </c>
       <c r="J76" s="16"/>
@@ -9144,7 +9075,7 @@
       <c r="H77" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="18">
         <v>46294</v>
       </c>
       <c r="J77" s="16"/>
@@ -9153,7 +9084,7 @@
       <c r="H78" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="18">
         <v>45946</v>
       </c>
       <c r="J78" s="16" t="s">
@@ -9170,7 +9101,7 @@
       <c r="H79" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="18">
         <v>45950</v>
       </c>
       <c r="J79" s="16" t="s">
@@ -9179,7 +9110,7 @@
       <c r="K79" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="L79" s="20"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
@@ -9187,7 +9118,7 @@
       <c r="H80" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="18">
         <v>45982</v>
       </c>
       <c r="J80" s="16" t="s">
@@ -9204,7 +9135,7 @@
       <c r="H81" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="I81" s="21"/>
+      <c r="I81" s="18"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
@@ -9215,7 +9146,7 @@
       <c r="H82" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I82" s="21" t="s">
+      <c r="I82" s="18" t="s">
         <v>209</v>
       </c>
       <c r="J82" s="16"/>
@@ -9228,7 +9159,7 @@
       <c r="H83" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I83" s="21" t="s">
+      <c r="I83" s="18" t="s">
         <v>210</v>
       </c>
       <c r="J83" s="16"/>
@@ -9241,7 +9172,7 @@
       <c r="H84" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I84" s="21" t="s">
+      <c r="I84" s="18" t="s">
         <v>211</v>
       </c>
       <c r="J84" s="16"/>
@@ -9254,7 +9185,7 @@
       <c r="H85" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I85" s="18" t="s">
         <v>212</v>
       </c>
       <c r="J85" s="16"/>
@@ -9267,7 +9198,7 @@
       <c r="H86" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="18">
         <v>45677</v>
       </c>
       <c r="J86" s="16"/>
@@ -9280,7 +9211,7 @@
       <c r="H87" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="18">
         <v>45739</v>
       </c>
       <c r="J87" s="16"/>
@@ -9293,7 +9224,7 @@
       <c r="H88" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="18">
         <v>45974</v>
       </c>
       <c r="J88" s="16"/>
@@ -9306,7 +9237,7 @@
       <c r="H89" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I89" s="18">
         <v>45670</v>
       </c>
       <c r="J89" s="16"/>
@@ -9319,7 +9250,7 @@
       <c r="H90" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="21">
+      <c r="I90" s="18">
         <v>45698</v>
       </c>
       <c r="J90" s="16"/>
@@ -9332,7 +9263,7 @@
       <c r="H91" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="18">
         <v>45726</v>
       </c>
       <c r="J91" s="16"/>
@@ -9345,7 +9276,7 @@
       <c r="H92" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="18">
         <v>45749</v>
       </c>
       <c r="J92" s="16"/>
@@ -9358,7 +9289,7 @@
       <c r="H93" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="18">
         <v>45805</v>
       </c>
       <c r="J93" s="16"/>
@@ -9371,7 +9302,7 @@
       <c r="H94" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="I94" s="21">
+      <c r="I94" s="18">
         <v>45981</v>
       </c>
       <c r="J94" s="16" t="s">
@@ -9394,7 +9325,7 @@
       <c r="H95" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="18">
         <v>45672</v>
       </c>
       <c r="J95" s="16" t="s">
@@ -9417,7 +9348,7 @@
       <c r="H96" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="I96" s="21">
+      <c r="I96" s="18">
         <v>45735</v>
       </c>
       <c r="J96" s="16" t="s">
@@ -9440,7 +9371,7 @@
       <c r="H97" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="I97" s="21">
+      <c r="I97" s="18">
         <v>45798</v>
       </c>
       <c r="J97" s="16"/>
@@ -9449,7 +9380,7 @@
       <c r="H98" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="I98" s="21">
+      <c r="I98" s="18">
         <v>45854</v>
       </c>
       <c r="J98" s="16"/>
@@ -9458,7 +9389,7 @@
       <c r="H99" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="I99" s="21">
+      <c r="I99" s="18">
         <v>45917</v>
       </c>
       <c r="J99" s="16"/>
@@ -10072,10 +10003,10 @@
       <c r="B8" s="9">
         <v>46211</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -10089,10 +10020,10 @@
       <c r="B9" s="9">
         <v>46217</v>
       </c>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -10106,10 +10037,10 @@
       <c r="B10" s="9">
         <v>46225</v>
       </c>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -10123,10 +10054,10 @@
       <c r="B11" s="9">
         <v>46231</v>
       </c>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -10140,10 +10071,10 @@
       <c r="B12" s="9">
         <v>46238</v>
       </c>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -10157,10 +10088,10 @@
       <c r="B13" s="9">
         <v>46246</v>
       </c>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -10172,10 +10103,10 @@
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10302,8 +10233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D169A3-4EB4-4BAF-ABF2-90D52870D9B1}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10441,10 +10372,10 @@
       <c r="B8" s="9">
         <v>46099</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -10458,10 +10389,10 @@
       <c r="B9" s="9">
         <v>46112</v>
       </c>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -10475,10 +10406,10 @@
       <c r="B10" s="9">
         <v>46120</v>
       </c>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -10492,10 +10423,10 @@
       <c r="B11" s="9">
         <v>46126</v>
       </c>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -10509,10 +10440,10 @@
       <c r="B12" s="9">
         <v>46134</v>
       </c>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -10526,10 +10457,10 @@
       <c r="B13" s="9">
         <v>46140</v>
       </c>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -10541,10 +10472,10 @@
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10810,10 +10741,10 @@
       <c r="B8" s="9">
         <v>46161</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -10827,10 +10758,10 @@
       <c r="B9" s="9">
         <v>46190</v>
       </c>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -10844,10 +10775,10 @@
       <c r="B10" s="9">
         <v>46224</v>
       </c>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -10861,10 +10792,10 @@
       <c r="B11" s="9">
         <v>46245</v>
       </c>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -10878,10 +10809,10 @@
       <c r="B12" s="9">
         <v>46295</v>
       </c>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -10893,10 +10824,10 @@
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10905,10 +10836,10 @@
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11035,8 +10966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E7A6CB-75D8-40BA-8100-9864AFDBBD94}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -11153,7 +11084,7 @@
       <c r="C8" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="18" t="b">
+      <c r="D8" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11162,10 +11093,10 @@
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11174,10 +11105,10 @@
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11186,10 +11117,10 @@
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11198,10 +11129,10 @@
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11210,10 +11141,10 @@
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11222,10 +11153,10 @@
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11247,9 +11178,6 @@
       <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
@@ -11353,10 +11281,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AA679-D54D-BB45-A949-CBDCD69908D4}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -11367,7 +11295,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -11384,7 +11312,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -11402,7 +11330,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -11420,7 +11348,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -11438,7 +11366,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -11456,7 +11384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -11464,130 +11392,113 @@
         <f t="shared" si="0"/>
         <v>45962</v>
       </c>
-      <c r="C6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
         <v>164</v>
       </c>
@@ -11597,19 +11508,14 @@
       <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>21</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
@@ -11707,7 +11613,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8307E2-C15E-3246-97E6-1FE53EC08157}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -11721,7 +11627,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -11738,7 +11644,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -11755,7 +11661,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -11767,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -11779,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -11791,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -11803,115 +11709,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
         <v>164</v>
       </c>
@@ -11921,18 +11813,14 @@
       <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
@@ -12024,7 +11912,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58626D5E-CF7D-7040-8A8E-EE19354196C8}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -12038,7 +11926,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -12052,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -12066,7 +11954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -12080,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -12091,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -12102,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -12113,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -12124,102 +12012,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
         <v>164</v>
       </c>
@@ -12229,18 +12105,14 @@
       <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
@@ -12332,7 +12204,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BC729-92D2-4067-85BC-DFDCD994C98C}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -12346,7 +12218,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -12360,7 +12232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -12377,7 +12249,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -12391,151 +12263,134 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
         <v>164</v>
       </c>
@@ -12545,42 +12400,32 @@
       <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -12588,7 +12433,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>173</v>
       </c>
@@ -12596,7 +12441,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>174</v>
       </c>
@@ -12604,37 +12449,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>181</v>
       </c>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E533E40A-CE17-4E32-960B-6D92B3CFFF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5C64EB-CA0E-4CE2-8DF6-D8188ECDD9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" activeTab="11" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="11" activeTab="10" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -7560,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73369AC4-C9B4-42DD-BF9C-2665EDC8C92A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7842,7 +7842,7 @@
         <v>181</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7859,8 +7859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DEE273-7DC8-284A-9883-269CFB150B79}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -8179,7 +8179,7 @@
         <v>181</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10600,7 +10600,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10963,8 +10963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E7A6CB-75D8-40BA-8100-9864AFDBBD94}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12495,14 +12495,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -12685,6 +12677,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12695,11 +12695,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5C64EB-CA0E-4CE2-8DF6-D8188ECDD9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C8CC52-970D-4BB8-9454-29374B879B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="11" activeTab="10" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="1" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1443,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F108" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D110" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J83" sqref="J83:J129"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2930,13 +2930,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="b">
         <v>1</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="2" t="b">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="2" t="b">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="2" t="b">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="2" t="b">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="2" t="b">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="2" t="b">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="2" t="b">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="2" t="b">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="2" t="b">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="2" t="b">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="2" t="b">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="2" t="b">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="2" t="b">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="2" t="b">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="2" t="b">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="2" t="b">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="2" t="b">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="2" t="b">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="2" t="b">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="2" t="b">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="2" t="b">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="2" t="b">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="2" t="b">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="2" t="b">
         <v>0</v>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="2" t="b">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="2" t="b">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="2" t="b">
         <v>0</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="2" t="b">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="2" t="b">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="2" t="b">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="2" t="b">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="2" t="b">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="2" t="b">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="2" t="b">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" s="2" t="b">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="2" t="b">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="2" t="b">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="2" t="b">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="2" t="b">
         <v>0</v>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="2" t="b">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="2" t="b">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="2" t="b">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="2" t="b">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="2" t="b">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="2" t="b">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="2" t="b">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="2" t="b">
         <v>0</v>
@@ -7560,7 +7560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73369AC4-C9B4-42DD-BF9C-2665EDC8C92A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -12495,6 +12495,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -12677,14 +12685,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12695,11 +12695,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C8CC52-970D-4BB8-9454-29374B879B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA04A67-2229-493F-BCAD-BCABCF13812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="1" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="8" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="226">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Gallagher</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
   <si>
     <t>Gibbs</t>
@@ -1444,8 +1447,8 @@
   <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D110" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J83" sqref="J83:J129"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="b">
         <v>0</v>
@@ -2676,8 +2679,8 @@
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="2" t="b">
-        <v>0</v>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="b">
         <v>1</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -2821,7 +2824,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
@@ -2871,7 +2874,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
@@ -2971,7 +2974,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
@@ -3121,7 +3124,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
@@ -3171,7 +3174,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>17</v>
@@ -3221,7 +3224,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>17</v>
@@ -3271,7 +3274,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
@@ -3321,7 +3324,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>17</v>
@@ -3371,7 +3374,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>17</v>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>17</v>
@@ -3471,7 +3474,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
@@ -3521,7 +3524,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>17</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -3621,7 +3624,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>17</v>
@@ -3671,7 +3674,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>17</v>
@@ -3771,7 +3774,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>17</v>
@@ -3821,7 +3824,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>17</v>
@@ -3871,7 +3874,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>17</v>
@@ -3921,7 +3924,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>17</v>
@@ -3971,7 +3974,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>17</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>17</v>
@@ -4071,7 +4074,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>17</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
@@ -4171,7 +4174,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
@@ -4221,7 +4224,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>17</v>
@@ -4271,7 +4274,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
@@ -4321,7 +4324,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
@@ -4371,7 +4374,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
@@ -4421,7 +4424,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
@@ -4471,7 +4474,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
@@ -4521,7 +4524,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>17</v>
@@ -4571,7 +4574,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
@@ -4621,7 +4624,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>17</v>
@@ -4671,7 +4674,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>17</v>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>17</v>
@@ -4771,7 +4774,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>17</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>17</v>
@@ -4871,7 +4874,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>17</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>17</v>
@@ -4971,7 +4974,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>17</v>
@@ -5021,7 +5024,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>17</v>
@@ -5071,7 +5074,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>17</v>
@@ -5171,7 +5174,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
@@ -5221,7 +5224,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>17</v>
@@ -5271,7 +5274,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>17</v>
@@ -5321,7 +5324,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>17</v>
@@ -5371,7 +5374,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>17</v>
@@ -5421,7 +5424,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>17</v>
@@ -5471,7 +5474,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>17</v>
@@ -5521,7 +5524,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
@@ -5571,10 +5574,10 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H83" s="2" t="b">
         <v>0</v>
@@ -5606,10 +5609,10 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H84" s="2" t="b">
         <v>0</v>
@@ -5641,10 +5644,10 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H85" s="2" t="b">
         <v>0</v>
@@ -5676,10 +5679,10 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H86" s="2" t="b">
         <v>0</v>
@@ -5711,10 +5714,10 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H87" s="2" t="b">
         <v>0</v>
@@ -5746,10 +5749,10 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H88" s="2" t="b">
         <v>0</v>
@@ -5781,10 +5784,10 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H89" s="2" t="b">
         <v>0</v>
@@ -5816,10 +5819,10 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H90" s="2" t="b">
         <v>0</v>
@@ -5851,10 +5854,10 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H91" s="2" t="b">
         <v>0</v>
@@ -5886,10 +5889,10 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H92" s="2" t="b">
         <v>0</v>
@@ -5921,10 +5924,10 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H93" s="2" t="b">
         <v>0</v>
@@ -5956,10 +5959,10 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H94" s="2" t="b">
         <v>0</v>
@@ -5991,10 +5994,10 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H95" s="2" t="b">
         <v>0</v>
@@ -6026,10 +6029,10 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H96" s="2" t="b">
         <v>0</v>
@@ -6061,10 +6064,10 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H97" s="2" t="b">
         <v>0</v>
@@ -6096,10 +6099,10 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H98" s="2" t="b">
         <v>0</v>
@@ -6131,10 +6134,10 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H99" s="2" t="b">
         <v>0</v>
@@ -6166,10 +6169,10 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H100" s="2" t="b">
         <v>0</v>
@@ -6201,10 +6204,10 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H101" s="2" t="b">
         <v>0</v>
@@ -6236,10 +6239,10 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H102" s="2" t="b">
         <v>0</v>
@@ -6271,10 +6274,10 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H103" s="2" t="b">
         <v>0</v>
@@ -6306,10 +6309,10 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H104" s="2" t="b">
         <v>0</v>
@@ -6341,10 +6344,10 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H105" s="2" t="b">
         <v>0</v>
@@ -6376,10 +6379,10 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H106" s="2" t="b">
         <v>0</v>
@@ -6411,10 +6414,10 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H107" s="2" t="b">
         <v>0</v>
@@ -6446,10 +6449,10 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H108" s="2" t="b">
         <v>0</v>
@@ -6481,10 +6484,10 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H109" s="2" t="b">
         <v>0</v>
@@ -6516,10 +6519,10 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H110" s="2" t="b">
         <v>0</v>
@@ -6551,10 +6554,10 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H111" s="2" t="b">
         <v>0</v>
@@ -6586,10 +6589,10 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H112" s="2" t="b">
         <v>0</v>
@@ -6621,10 +6624,10 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="H113" s="2" t="b">
         <v>0</v>
@@ -6656,10 +6659,10 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H114" s="2" t="b">
         <v>0</v>
@@ -6691,10 +6694,10 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H115" s="2" t="b">
         <v>0</v>
@@ -6726,10 +6729,10 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H116" s="2" t="b">
         <v>0</v>
@@ -6761,10 +6764,10 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H117" s="2" t="b">
         <v>0</v>
@@ -6796,10 +6799,10 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H118" s="2" t="b">
         <v>0</v>
@@ -6831,10 +6834,10 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C119" s="2" t="b">
         <v>1</v>
@@ -6881,10 +6884,10 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H120" s="2" t="b">
         <v>0</v>
@@ -6916,10 +6919,10 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H121" s="2" t="b">
         <v>0</v>
@@ -6951,10 +6954,10 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H122" s="2" t="b">
         <v>0</v>
@@ -6986,10 +6989,10 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H123" s="2" t="b">
         <v>0</v>
@@ -7021,10 +7024,10 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H124" s="2" t="b">
         <v>0</v>
@@ -7056,10 +7059,10 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H125" s="2" t="b">
         <v>0</v>
@@ -7091,10 +7094,10 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H126" s="2" t="b">
         <v>0</v>
@@ -7126,10 +7129,10 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H127" s="2" t="b">
         <v>0</v>
@@ -7161,10 +7164,10 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H128" s="2" t="b">
         <v>0</v>
@@ -7196,10 +7199,10 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H129" s="2" t="b">
         <v>0</v>
@@ -7255,7 +7258,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="6">
         <v>45974</v>
@@ -7267,12 +7270,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6">
         <v>46035</v>
@@ -7284,12 +7287,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6">
         <v>46063</v>
@@ -7301,12 +7304,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6">
         <v>46091</v>
@@ -7318,12 +7321,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6">
         <v>46114</v>
@@ -7335,12 +7338,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6">
         <v>46170</v>
@@ -7352,12 +7355,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -7368,7 +7371,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -7379,7 +7382,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -7391,7 +7394,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -7403,7 +7406,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -7415,7 +7418,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -7427,7 +7430,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -7439,7 +7442,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -7451,18 +7454,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -7470,15 +7473,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -7486,15 +7489,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -7502,7 +7505,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -7510,37 +7513,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -7574,7 +7577,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="8">
         <v>46042</v>
@@ -7586,12 +7589,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="12" t="b">
@@ -7603,7 +7606,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="12" t="b">
@@ -7615,7 +7618,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="b">
@@ -7627,7 +7630,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="b">
@@ -7639,7 +7642,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="b">
@@ -7651,7 +7654,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="b">
@@ -7663,7 +7666,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -7674,7 +7677,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -7686,7 +7689,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -7698,7 +7701,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -7710,7 +7713,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -7722,7 +7725,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -7734,7 +7737,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -7746,18 +7749,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -7765,15 +7768,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -7781,15 +7784,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -7797,7 +7800,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -7805,41 +7808,41 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -7873,7 +7876,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="8">
         <v>46253</v>
@@ -7885,12 +7888,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8">
         <v>46260</v>
@@ -7902,12 +7905,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8">
         <v>46266</v>
@@ -7919,12 +7922,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="8">
         <v>46274</v>
@@ -7936,12 +7939,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="8">
         <v>46280</v>
@@ -7953,12 +7956,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8">
         <v>46288</v>
@@ -7970,12 +7973,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8">
         <v>46294</v>
@@ -7987,12 +7990,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -8003,7 +8006,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -8015,7 +8018,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -8027,7 +8030,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -8039,7 +8042,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -8051,7 +8054,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -8063,7 +8066,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -8075,18 +8078,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -8094,15 +8097,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -8110,15 +8113,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -8134,7 +8137,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -8142,7 +8145,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -8158,7 +8161,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -8166,17 +8169,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -8208,7 +8211,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -8229,36 +8232,36 @@
         <v>15</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D2" s="6">
         <v>46042</v>
@@ -8270,10 +8273,10 @@
         <v>46253</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I2" s="18">
         <v>45931</v>
@@ -8283,10 +8286,10 @@
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E3" s="6">
         <v>46035</v>
@@ -8295,7 +8298,7 @@
         <v>46260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I3" s="18">
         <v>45966</v>
@@ -8311,7 +8314,7 @@
         <v>46266</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I4" s="18">
         <v>45994</v>
@@ -8327,13 +8330,13 @@
         <v>46274</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I5" s="18">
         <v>46029</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75">
@@ -8345,7 +8348,7 @@
         <v>46280</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I6" s="18">
         <v>46057</v>
@@ -8361,7 +8364,7 @@
         <v>46288</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I7" s="18">
         <v>46085</v>
@@ -8374,7 +8377,7 @@
         <v>46294</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I8" s="18">
         <v>46113</v>
@@ -8383,18 +8386,18 @@
     </row>
     <row r="9" spans="1:14" ht="15.75">
       <c r="H9" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I9" s="18">
         <v>46148</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75">
       <c r="H10" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I10" s="18">
         <v>46176</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75">
       <c r="H11" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I11" s="18">
         <v>46204</v>
@@ -8413,7 +8416,7 @@
     <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I12" s="18">
         <v>46239</v>
@@ -8423,19 +8426,19 @@
     <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I13" s="18">
         <v>46267</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I14" s="18">
         <v>45946</v>
@@ -8445,19 +8448,19 @@
     <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I15" s="18">
         <v>45981</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I16" s="18">
         <v>46009</v>
@@ -8466,7 +8469,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="H17" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I17" s="18">
         <v>46037</v>
@@ -8475,7 +8478,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="H18" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I18" s="18">
         <v>46072</v>
@@ -8484,19 +8487,19 @@
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="H19" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I19" s="18">
         <v>46100</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I20" s="18">
         <v>46128</v>
@@ -8506,7 +8509,7 @@
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I21" s="18">
         <v>46163</v>
@@ -8516,7 +8519,7 @@
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I22" s="18">
         <v>46191</v>
@@ -8526,19 +8529,19 @@
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I23" s="18">
         <v>46219</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I24" s="18">
         <v>46254</v>
@@ -8547,7 +8550,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="H25" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I25" s="18">
         <v>46282</v>
@@ -8556,7 +8559,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="H26" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I26" s="18">
         <v>45945</v>
@@ -8566,7 +8569,7 @@
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I27" s="18">
         <v>45959</v>
@@ -8576,7 +8579,7 @@
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I28" s="18">
         <v>45979</v>
@@ -8586,7 +8589,7 @@
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I29" s="18">
         <v>46001</v>
@@ -8596,7 +8599,7 @@
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I30" s="18">
         <v>46008</v>
@@ -8606,7 +8609,7 @@
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I31" s="18">
         <v>46028</v>
@@ -8616,7 +8619,7 @@
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I32" s="18">
         <v>46043</v>
@@ -8625,7 +8628,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="H33" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I33" s="18">
         <v>46050</v>
@@ -8634,7 +8637,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="H34" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I34" s="18">
         <v>46056</v>
@@ -8643,7 +8646,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="H35" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I35" s="18">
         <v>46064</v>
@@ -8652,7 +8655,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="H36" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I36" s="18">
         <v>46070</v>
@@ -8661,7 +8664,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="H37" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I37" s="18">
         <v>46078</v>
@@ -8670,7 +8673,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="H38" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I38" s="18">
         <v>46084</v>
@@ -8679,7 +8682,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="H39" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I39" s="18">
         <v>46092</v>
@@ -8689,7 +8692,7 @@
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I40" s="18">
         <v>46099</v>
@@ -8701,7 +8704,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I41" s="18">
         <v>46112</v>
@@ -8713,7 +8716,7 @@
         <v>46253</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I42" s="18">
         <v>46120</v>
@@ -8725,13 +8728,13 @@
         <v>46260</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I43" s="18">
         <v>46126</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
@@ -8739,13 +8742,13 @@
         <v>46266</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I44" s="18">
         <v>46134</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
@@ -8753,13 +8756,13 @@
         <v>46274</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I45" s="18">
         <v>46140</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
@@ -8767,7 +8770,7 @@
         <v>46280</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I46" s="18">
         <v>45951</v>
@@ -8779,7 +8782,7 @@
         <v>46288</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I47" s="18">
         <v>45983</v>
@@ -8791,7 +8794,7 @@
         <v>46294</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I48" s="18">
         <v>45993</v>
@@ -8803,7 +8806,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I49" s="18">
         <v>46036</v>
@@ -8812,10 +8815,10 @@
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I50" s="18">
         <v>46077</v>
@@ -8825,7 +8828,7 @@
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I51" s="18">
         <v>46106</v>
@@ -8835,7 +8838,7 @@
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I52" s="18">
         <v>46141</v>
@@ -8845,7 +8848,7 @@
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I53" s="18">
         <v>46161</v>
@@ -8855,7 +8858,7 @@
     <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I54" s="18">
         <v>46190</v>
@@ -8865,7 +8868,7 @@
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I55" s="18">
         <v>46224</v>
@@ -8875,7 +8878,7 @@
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I56" s="18">
         <v>46245</v>
@@ -8884,7 +8887,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="H57" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I57" s="18">
         <v>46295</v>
@@ -8893,7 +8896,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="H58" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I58" s="18">
         <v>46147</v>
@@ -8902,7 +8905,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75">
       <c r="H59" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I59" s="18">
         <v>46162</v>
@@ -8911,7 +8914,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75">
       <c r="H60" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I60" s="18">
         <v>46168</v>
@@ -8920,7 +8923,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="H61" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I61" s="18">
         <v>46175</v>
@@ -8929,7 +8932,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75">
       <c r="H62" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I62" s="18">
         <v>46183</v>
@@ -8938,7 +8941,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75">
       <c r="H63" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I63" s="18">
         <v>46189</v>
@@ -8947,7 +8950,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75">
       <c r="H64" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I64" s="18">
         <v>46203</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="65" spans="8:14" ht="15.75">
       <c r="H65" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I65" s="18">
         <v>46211</v>
@@ -8965,7 +8968,7 @@
     </row>
     <row r="66" spans="8:14" ht="15.75">
       <c r="H66" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I66" s="18">
         <v>46217</v>
@@ -8974,7 +8977,7 @@
     </row>
     <row r="67" spans="8:14" ht="15.75">
       <c r="H67" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I67" s="18">
         <v>46225</v>
@@ -8983,40 +8986,40 @@
     </row>
     <row r="68" spans="8:14" ht="15.75">
       <c r="H68" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I68" s="18">
         <v>46231</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="8:14" ht="15.75">
       <c r="H69" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I69" s="18">
         <v>46238</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="8:14" ht="15.75">
       <c r="H70" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I70" s="18">
         <v>46246</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="8:14" ht="15.75">
       <c r="H71" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I71" s="18">
         <v>46253</v>
@@ -9025,7 +9028,7 @@
     </row>
     <row r="72" spans="8:14" ht="15.75">
       <c r="H72" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I72" s="18">
         <v>46260</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="73" spans="8:14" ht="15.75">
       <c r="H73" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I73" s="18">
         <v>46266</v>
@@ -9043,7 +9046,7 @@
     </row>
     <row r="74" spans="8:14" ht="15.75">
       <c r="H74" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I74" s="18">
         <v>46274</v>
@@ -9052,7 +9055,7 @@
     </row>
     <row r="75" spans="8:14" ht="15.75">
       <c r="H75" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I75" s="18">
         <v>46280</v>
@@ -9061,7 +9064,7 @@
     </row>
     <row r="76" spans="8:14" ht="15.75">
       <c r="H76" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I76" s="18">
         <v>46288</v>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="77" spans="8:14" ht="15.75">
       <c r="H77" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I77" s="18">
         <v>46294</v>
@@ -9079,16 +9082,16 @@
     </row>
     <row r="78" spans="8:14" ht="15.75">
       <c r="H78" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I78" s="18">
         <v>45946</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
@@ -9096,16 +9099,16 @@
     </row>
     <row r="79" spans="8:14" ht="15.75">
       <c r="H79" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I79" s="18">
         <v>45950</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
@@ -9113,16 +9116,16 @@
     </row>
     <row r="80" spans="8:14" ht="15.75">
       <c r="H80" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I80" s="18">
         <v>45982</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
@@ -9130,7 +9133,7 @@
     </row>
     <row r="81" spans="8:14" ht="15.75">
       <c r="H81" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="16"/>
@@ -9144,7 +9147,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -9157,7 +9160,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
@@ -9170,7 +9173,7 @@
         <v>8</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
@@ -9183,7 +9186,7 @@
         <v>8</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
@@ -9193,7 +9196,7 @@
     </row>
     <row r="86" spans="8:14" ht="15.75">
       <c r="H86" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I86" s="18">
         <v>45677</v>
@@ -9206,7 +9209,7 @@
     </row>
     <row r="87" spans="8:14" ht="15.75">
       <c r="H87" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I87" s="18">
         <v>45739</v>
@@ -9297,76 +9300,76 @@
     </row>
     <row r="94" spans="8:14" ht="15.75">
       <c r="H94" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I94" s="18">
         <v>45981</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K94" s="16" t="s">
         <v>27</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M94" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N94" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="8:14" ht="15.75">
       <c r="H95" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I95" s="18">
         <v>45672</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K95" s="16" t="s">
         <v>27</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M95" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N95" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="8:14" ht="15.75">
       <c r="H96" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I96" s="18">
         <v>45735</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>27</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M96" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="8:10" ht="15.75">
       <c r="H97" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I97" s="18">
         <v>45798</v>
@@ -9375,7 +9378,7 @@
     </row>
     <row r="98" spans="8:10" ht="15.75">
       <c r="H98" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I98" s="18">
         <v>45854</v>
@@ -9384,7 +9387,7 @@
     </row>
     <row r="99" spans="8:10" ht="15.75">
       <c r="H99" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I99" s="18">
         <v>45917</v>
@@ -9440,416 +9443,416 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
         <v>222</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>222</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
         <v>222</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>222</v>
       </c>
-      <c r="D4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" t="s">
-        <v>221</v>
-      </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
         <v>223</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>223</v>
-      </c>
-      <c r="F5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
         <v>222</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>222</v>
       </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
-      </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" t="s">
         <v>223</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>223</v>
       </c>
-      <c r="D7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" t="s">
-        <v>222</v>
-      </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
         <v>223</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>223</v>
       </c>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" t="s">
-        <v>222</v>
-      </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" t="s">
         <v>223</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>223</v>
       </c>
-      <c r="D10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" t="s">
-        <v>222</v>
-      </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
         <v>223</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>223</v>
-      </c>
-      <c r="F11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" t="s">
         <v>222</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="s">
         <v>222</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>222</v>
       </c>
-      <c r="D13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" t="s">
-        <v>221</v>
-      </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" t="s">
         <v>222</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>222</v>
       </c>
-      <c r="D14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" t="s">
-        <v>221</v>
-      </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
         <v>222</v>
       </c>
-      <c r="C15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>223</v>
       </c>
-      <c r="E15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" t="s">
-        <v>222</v>
-      </c>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" t="s">
         <v>223</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>223</v>
-      </c>
-      <c r="F16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" t="s">
         <v>222</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" t="s">
         <v>222</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>222</v>
-      </c>
-      <c r="F19" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -9876,7 +9879,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="17">
         <v>46147</v>
@@ -9888,12 +9891,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="17">
         <v>46162</v>
@@ -9905,12 +9908,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="17">
         <v>46168</v>
@@ -9922,12 +9925,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="17">
         <v>46175</v>
@@ -9939,12 +9942,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="17">
         <v>46183</v>
@@ -9956,12 +9959,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="17">
         <v>46189</v>
@@ -9973,12 +9976,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="17">
         <v>46203</v>
@@ -9990,12 +9993,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="9">
         <v>46211</v>
@@ -10007,12 +10010,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9">
         <v>46217</v>
@@ -10024,12 +10027,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9">
         <v>46225</v>
@@ -10041,12 +10044,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9">
         <v>46231</v>
@@ -10058,12 +10061,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9">
         <v>46238</v>
@@ -10075,12 +10078,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9">
         <v>46246</v>
@@ -10092,12 +10095,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10109,18 +10112,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -10128,15 +10131,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -10144,15 +10147,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -10160,7 +10163,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -10168,7 +10171,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -10176,7 +10179,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -10184,7 +10187,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -10192,7 +10195,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -10200,17 +10203,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -10245,7 +10248,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="17">
         <v>46050</v>
@@ -10257,12 +10260,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="17">
         <v>46056</v>
@@ -10274,12 +10277,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="17">
         <v>46064</v>
@@ -10291,12 +10294,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="17">
         <v>46070</v>
@@ -10308,12 +10311,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="17">
         <v>46078</v>
@@ -10325,12 +10328,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="17">
         <v>46084</v>
@@ -10342,12 +10345,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="17">
         <v>46092</v>
@@ -10359,12 +10362,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="9">
         <v>46099</v>
@@ -10376,12 +10379,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9">
         <v>46112</v>
@@ -10393,12 +10396,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9">
         <v>46120</v>
@@ -10410,12 +10413,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9">
         <v>46126</v>
@@ -10427,12 +10430,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9">
         <v>46134</v>
@@ -10444,12 +10447,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9">
         <v>46140</v>
@@ -10461,12 +10464,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10478,18 +10481,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -10497,15 +10500,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -10513,15 +10516,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -10529,7 +10532,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -10537,7 +10540,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -10545,7 +10548,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -10553,7 +10556,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -10561,7 +10564,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -10569,17 +10572,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -10614,7 +10617,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="17">
         <v>45951</v>
@@ -10626,12 +10629,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="17">
         <v>45983</v>
@@ -10643,12 +10646,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="17">
         <v>45993</v>
@@ -10660,12 +10663,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="17">
         <v>46036</v>
@@ -10677,12 +10680,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="17">
         <v>46077</v>
@@ -10694,12 +10697,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="17">
         <v>46106</v>
@@ -10711,12 +10714,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="17">
         <v>46141</v>
@@ -10728,12 +10731,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="9">
         <v>46161</v>
@@ -10745,12 +10748,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9">
         <v>46190</v>
@@ -10762,12 +10765,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9">
         <v>46224</v>
@@ -10779,12 +10782,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9">
         <v>46245</v>
@@ -10796,12 +10799,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9">
         <v>46295</v>
@@ -10813,12 +10816,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10830,7 +10833,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10842,18 +10845,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -10861,15 +10864,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -10877,15 +10880,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -10893,7 +10896,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -10901,7 +10904,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -10909,7 +10912,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -10917,7 +10920,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -10925,7 +10928,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -10933,17 +10936,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -10978,7 +10981,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="8">
         <v>45945</v>
@@ -10992,7 +10995,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8">
         <v>45959</v>
@@ -11006,7 +11009,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8">
         <v>45979</v>
@@ -11020,7 +11023,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="8">
         <v>46001</v>
@@ -11034,7 +11037,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="8">
         <v>46008</v>
@@ -11048,7 +11051,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8">
         <v>46028</v>
@@ -11062,7 +11065,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8">
         <v>46043</v>
@@ -11076,7 +11079,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11087,7 +11090,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11099,7 +11102,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11111,7 +11114,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11123,7 +11126,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11135,7 +11138,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11147,7 +11150,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11159,18 +11162,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -11178,15 +11181,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -11194,15 +11197,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -11210,7 +11213,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -11218,7 +11221,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -11226,7 +11229,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -11234,7 +11237,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -11242,7 +11245,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -11250,17 +11253,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -11294,7 +11297,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="9">
         <v>45957</v>
@@ -11306,12 +11309,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="9">
         <f>B1+1</f>
@@ -11324,12 +11327,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B6" si="0">B2+1</f>
@@ -11342,12 +11345,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" si="0"/>
@@ -11360,12 +11363,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
@@ -11378,12 +11381,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
@@ -11396,12 +11399,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="b">
@@ -11413,7 +11416,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="b">
@@ -11425,7 +11428,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11437,7 +11440,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11449,7 +11452,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11461,7 +11464,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11473,7 +11476,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11485,7 +11488,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11497,18 +11500,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>21</v>
@@ -11516,15 +11519,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11532,15 +11535,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="10">
         <v>0.33333333333333331</v>
@@ -11548,7 +11551,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="10">
         <v>0.66666666666666663</v>
@@ -11556,43 +11559,43 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11626,7 +11629,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="6">
         <v>45936</v>
@@ -11638,12 +11641,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6">
         <v>46118</v>
@@ -11655,12 +11658,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -11672,7 +11675,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -11684,7 +11687,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -11696,7 +11699,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -11708,7 +11711,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11719,7 +11722,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11730,7 +11733,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11742,7 +11745,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11754,7 +11757,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11766,7 +11769,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11778,7 +11781,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11790,7 +11793,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11802,18 +11805,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -11821,15 +11824,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11837,15 +11840,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11853,7 +11856,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -11861,37 +11864,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -11912,7 +11915,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -11925,7 +11928,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="13">
         <v>45931</v>
@@ -11939,7 +11942,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="13">
         <v>45966</v>
@@ -11953,7 +11956,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="13">
         <v>45994</v>
@@ -11967,7 +11970,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11978,7 +11981,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11989,7 +11992,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -12000,7 +12003,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -12011,7 +12014,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12022,7 +12025,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12034,7 +12037,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12046,7 +12049,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12058,7 +12061,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12070,7 +12073,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12082,7 +12085,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12094,18 +12097,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -12113,15 +12116,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12129,15 +12132,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12145,7 +12148,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -12153,37 +12156,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -12204,7 +12207,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -12217,7 +12220,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="13">
         <v>45946</v>
@@ -12231,7 +12234,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="13">
         <v>45981</v>
@@ -12243,12 +12246,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="13">
         <v>46009</v>
@@ -12262,7 +12265,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -12273,7 +12276,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -12284,7 +12287,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -12295,7 +12298,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -12306,7 +12309,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12317,7 +12320,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12329,7 +12332,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12341,7 +12344,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12353,7 +12356,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12365,7 +12368,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12377,7 +12380,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12389,18 +12392,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -12408,15 +12411,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12424,15 +12427,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12440,7 +12443,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -12448,37 +12451,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -12495,11 +12498,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12686,16 +12690,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12703,5 +12706,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA04A67-2229-493F-BCAD-BCABCF13812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4FA15F7-861E-44D8-82F1-8C4A4D32679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="8" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" activeTab="3" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C25" sqref="C25"/>
       <selection activeCell="A2" sqref="A2"/>
@@ -10602,8 +10602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB69695D-4376-40F6-8843-39E9145FC039}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10637,7 +10637,7 @@
         <v>151</v>
       </c>
       <c r="B2" s="17">
-        <v>45983</v>
+        <v>45973</v>
       </c>
       <c r="C2" s="12" t="b">
         <v>0</v>
@@ -12507,6 +12507,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -12689,22 +12697,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4FA15F7-861E-44D8-82F1-8C4A4D32679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{492A8C94-BF36-424E-B58F-E2481AB14854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" activeTab="3" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" activeTab="5" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -10602,7 +10602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB69695D-4376-40F6-8843-39E9145FC039}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -11283,8 +11283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AA679-D54D-BB45-A949-CBDCD69908D4}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -11514,7 +11514,7 @@
         <v>168</v>
       </c>
       <c r="B16" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -12507,14 +12507,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -12697,14 +12689,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492A8C94-BF36-424E-B58F-E2481AB14854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8420D04-35E1-4ED4-B555-2A8E100ECEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" activeTab="5" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" activeTab="8" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="226">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -10967,7 +10967,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E1" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10992,6 +10992,9 @@
       <c r="D1" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -11006,6 +11009,9 @@
       <c r="D2" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -11020,6 +11026,9 @@
       <c r="D3" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
@@ -11034,6 +11043,9 @@
       <c r="D4" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -11048,6 +11060,9 @@
       <c r="D5" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
@@ -11062,6 +11077,9 @@
       <c r="D6" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
@@ -11075,6 +11093,9 @@
       </c>
       <c r="D7" s="12" t="b">
         <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11283,7 +11304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AA679-D54D-BB45-A949-CBDCD69908D4}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -12206,8 +12227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BC729-92D2-4067-85BC-DFDCD994C98C}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -12244,9 +12265,6 @@
       </c>
       <c r="D2" s="12" t="b">
         <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8420D04-35E1-4ED4-B555-2A8E100ECEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72267553-DB7A-4CF0-9C11-25C694087D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" activeTab="8" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="11" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1446,9 +1446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D25" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C52" sqref="C52"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2280,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>1</v>
@@ -4030,7 +4030,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="b">
         <v>1</v>
@@ -12227,7 +12227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BC729-92D2-4067-85BC-DFDCD994C98C}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -12516,15 +12516,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -12707,6 +12698,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12716,11 +12716,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72267553-DB7A-4CF0-9C11-25C694087D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{998A94CD-3A4B-43DA-88EE-17EC7512459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="11" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="253">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -496,6 +496,87 @@
   </si>
   <si>
     <t>Turner</t>
+  </si>
+  <si>
+    <t>Christian Rubbert</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>Firat Iletir</t>
+  </si>
+  <si>
+    <t>Jeffrey Kelleher</t>
+  </si>
+  <si>
+    <t>Joseph Samaro</t>
+  </si>
+  <si>
+    <t>Prassuna Budlong</t>
+  </si>
+  <si>
+    <t>Ronald Baker</t>
+  </si>
+  <si>
+    <t>Stephen Moran</t>
+  </si>
+  <si>
+    <t>Alex Fouillit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris McDonald </t>
+  </si>
+  <si>
+    <t>Craig DiGiovanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan Quinn </t>
+  </si>
+  <si>
+    <t>Doug Atkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Varela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian Hurst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Kelly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Lanteigne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Ahrens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Onorato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Falzone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan Fancher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick J. Sullivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Lamb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Jensen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaddeus Yukna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Pascoe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">William White </t>
   </si>
   <si>
     <t>Date 1</t>
@@ -1084,8 +1165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:P129" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:P129" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:P155" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:P155" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M82">
     <sortCondition ref="A1:A82"/>
   </sortState>
@@ -1444,11 +1525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D25" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C52" sqref="C52"/>
+      <pane xSplit="3" topLeftCell="D128" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J129" sqref="J129:J155"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7229,6 +7310,916 @@
         <v>0</v>
       </c>
       <c r="P129" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P130" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P131" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P132" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P133" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P134" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A135" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P135" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P136" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P137" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P138" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P139" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P140" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A141" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P141" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A142" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P142" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A143" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P143" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P144" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P145" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A146" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P146" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P147" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P148" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P149" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P150" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P151" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P152" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P153" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P154" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P155" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7258,7 +8249,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="6">
         <v>45974</v>
@@ -7270,12 +8261,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6">
         <v>46035</v>
@@ -7287,12 +8278,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="6">
         <v>46063</v>
@@ -7304,12 +8295,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="6">
         <v>46091</v>
@@ -7321,12 +8312,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="6">
         <v>46114</v>
@@ -7338,12 +8329,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="6">
         <v>46170</v>
@@ -7355,12 +8346,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -7371,7 +8362,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -7382,7 +8373,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -7394,7 +8385,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -7406,7 +8397,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -7418,7 +8409,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -7430,7 +8421,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -7442,7 +8433,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -7454,18 +8445,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -7473,15 +8464,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -7489,15 +8480,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -7505,7 +8496,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -7513,37 +8504,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -7577,7 +8568,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="8">
         <v>46042</v>
@@ -7589,12 +8580,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="12" t="b">
@@ -7606,7 +8597,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="12" t="b">
@@ -7618,7 +8609,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="b">
@@ -7630,7 +8621,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="b">
@@ -7642,7 +8633,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="b">
@@ -7654,7 +8645,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="b">
@@ -7666,7 +8657,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -7677,7 +8668,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -7689,7 +8680,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -7701,7 +8692,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -7713,7 +8704,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -7725,7 +8716,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -7737,7 +8728,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -7749,18 +8740,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -7768,15 +8759,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -7784,15 +8775,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -7800,7 +8791,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -7808,41 +8799,41 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -7876,7 +8867,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="8">
         <v>46253</v>
@@ -7888,12 +8879,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8">
         <v>46260</v>
@@ -7905,12 +8896,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="8">
         <v>46266</v>
@@ -7922,12 +8913,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="8">
         <v>46274</v>
@@ -7939,12 +8930,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="8">
         <v>46280</v>
@@ -7956,12 +8947,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="8">
         <v>46288</v>
@@ -7973,12 +8964,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B7" s="8">
         <v>46294</v>
@@ -7990,12 +8981,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -8006,7 +8997,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -8018,7 +9009,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -8030,7 +9021,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -8042,7 +9033,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -8054,7 +9045,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -8066,7 +9057,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -8078,18 +9069,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -8097,15 +9088,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -8113,15 +9104,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -8129,7 +9120,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -8137,7 +9128,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -8145,7 +9136,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -8153,7 +9144,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -8161,7 +9152,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -8169,17 +9160,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -8211,7 +9202,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -8232,36 +9223,36 @@
         <v>15</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D2" s="6">
         <v>46042</v>
@@ -8273,10 +9264,10 @@
         <v>46253</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I2" s="18">
         <v>45931</v>
@@ -8286,10 +9277,10 @@
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="E3" s="6">
         <v>46035</v>
@@ -8298,7 +9289,7 @@
         <v>46260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I3" s="18">
         <v>45966</v>
@@ -8314,7 +9305,7 @@
         <v>46266</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I4" s="18">
         <v>45994</v>
@@ -8330,13 +9321,13 @@
         <v>46274</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I5" s="18">
         <v>46029</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75">
@@ -8348,7 +9339,7 @@
         <v>46280</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I6" s="18">
         <v>46057</v>
@@ -8364,7 +9355,7 @@
         <v>46288</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I7" s="18">
         <v>46085</v>
@@ -8377,7 +9368,7 @@
         <v>46294</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I8" s="18">
         <v>46113</v>
@@ -8386,18 +9377,18 @@
     </row>
     <row r="9" spans="1:14" ht="15.75">
       <c r="H9" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I9" s="18">
         <v>46148</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75">
       <c r="H10" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I10" s="18">
         <v>46176</v>
@@ -8406,7 +9397,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75">
       <c r="H11" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I11" s="18">
         <v>46204</v>
@@ -8416,7 +9407,7 @@
     <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I12" s="18">
         <v>46239</v>
@@ -8426,19 +9417,19 @@
     <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I13" s="18">
         <v>46267</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I14" s="18">
         <v>45946</v>
@@ -8448,19 +9439,19 @@
     <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I15" s="18">
         <v>45981</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I16" s="18">
         <v>46009</v>
@@ -8469,7 +9460,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="H17" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I17" s="18">
         <v>46037</v>
@@ -8478,7 +9469,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="H18" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I18" s="18">
         <v>46072</v>
@@ -8487,19 +9478,19 @@
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="H19" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I19" s="18">
         <v>46100</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I20" s="18">
         <v>46128</v>
@@ -8509,7 +9500,7 @@
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I21" s="18">
         <v>46163</v>
@@ -8519,7 +9510,7 @@
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I22" s="18">
         <v>46191</v>
@@ -8529,19 +9520,19 @@
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I23" s="18">
         <v>46219</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I24" s="18">
         <v>46254</v>
@@ -8550,7 +9541,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="H25" s="16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I25" s="18">
         <v>46282</v>
@@ -8559,7 +9550,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="H26" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I26" s="18">
         <v>45945</v>
@@ -8569,7 +9560,7 @@
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I27" s="18">
         <v>45959</v>
@@ -8579,7 +9570,7 @@
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I28" s="18">
         <v>45979</v>
@@ -8589,7 +9580,7 @@
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I29" s="18">
         <v>46001</v>
@@ -8599,7 +9590,7 @@
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I30" s="18">
         <v>46008</v>
@@ -8609,7 +9600,7 @@
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I31" s="18">
         <v>46028</v>
@@ -8619,7 +9610,7 @@
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I32" s="18">
         <v>46043</v>
@@ -8628,7 +9619,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="H33" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I33" s="18">
         <v>46050</v>
@@ -8637,7 +9628,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="H34" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I34" s="18">
         <v>46056</v>
@@ -8646,7 +9637,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="H35" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I35" s="18">
         <v>46064</v>
@@ -8655,7 +9646,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="H36" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I36" s="18">
         <v>46070</v>
@@ -8664,7 +9655,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="H37" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I37" s="18">
         <v>46078</v>
@@ -8673,7 +9664,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="H38" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I38" s="18">
         <v>46084</v>
@@ -8682,7 +9673,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="H39" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I39" s="18">
         <v>46092</v>
@@ -8692,7 +9683,7 @@
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I40" s="18">
         <v>46099</v>
@@ -8704,7 +9695,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I41" s="18">
         <v>46112</v>
@@ -8716,7 +9707,7 @@
         <v>46253</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I42" s="18">
         <v>46120</v>
@@ -8728,13 +9719,13 @@
         <v>46260</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I43" s="18">
         <v>46126</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
@@ -8742,13 +9733,13 @@
         <v>46266</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I44" s="18">
         <v>46134</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
@@ -8756,13 +9747,13 @@
         <v>46274</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I45" s="18">
         <v>46140</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
@@ -8770,7 +9761,7 @@
         <v>46280</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I46" s="18">
         <v>45951</v>
@@ -8782,7 +9773,7 @@
         <v>46288</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I47" s="18">
         <v>45983</v>
@@ -8794,7 +9785,7 @@
         <v>46294</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I48" s="18">
         <v>45993</v>
@@ -8806,7 +9797,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I49" s="18">
         <v>46036</v>
@@ -8815,10 +9806,10 @@
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="5" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I50" s="18">
         <v>46077</v>
@@ -8828,7 +9819,7 @@
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I51" s="18">
         <v>46106</v>
@@ -8838,7 +9829,7 @@
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I52" s="18">
         <v>46141</v>
@@ -8848,7 +9839,7 @@
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I53" s="18">
         <v>46161</v>
@@ -8858,7 +9849,7 @@
     <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I54" s="18">
         <v>46190</v>
@@ -8868,7 +9859,7 @@
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I55" s="18">
         <v>46224</v>
@@ -8878,7 +9869,7 @@
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I56" s="18">
         <v>46245</v>
@@ -8887,7 +9878,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="H57" s="16" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="I57" s="18">
         <v>46295</v>
@@ -8896,7 +9887,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="H58" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I58" s="18">
         <v>46147</v>
@@ -8905,7 +9896,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75">
       <c r="H59" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I59" s="18">
         <v>46162</v>
@@ -8914,7 +9905,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75">
       <c r="H60" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I60" s="18">
         <v>46168</v>
@@ -8923,7 +9914,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="H61" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I61" s="18">
         <v>46175</v>
@@ -8932,7 +9923,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75">
       <c r="H62" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I62" s="18">
         <v>46183</v>
@@ -8941,7 +9932,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75">
       <c r="H63" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I63" s="18">
         <v>46189</v>
@@ -8950,7 +9941,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75">
       <c r="H64" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I64" s="18">
         <v>46203</v>
@@ -8959,7 +9950,7 @@
     </row>
     <row r="65" spans="8:14" ht="15.75">
       <c r="H65" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I65" s="18">
         <v>46211</v>
@@ -8968,7 +9959,7 @@
     </row>
     <row r="66" spans="8:14" ht="15.75">
       <c r="H66" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I66" s="18">
         <v>46217</v>
@@ -8977,7 +9968,7 @@
     </row>
     <row r="67" spans="8:14" ht="15.75">
       <c r="H67" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I67" s="18">
         <v>46225</v>
@@ -8986,40 +9977,40 @@
     </row>
     <row r="68" spans="8:14" ht="15.75">
       <c r="H68" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I68" s="18">
         <v>46231</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="8:14" ht="15.75">
       <c r="H69" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I69" s="18">
         <v>46238</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="8:14" ht="15.75">
       <c r="H70" s="16" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I70" s="18">
         <v>46246</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="8:14" ht="15.75">
       <c r="H71" s="16" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I71" s="18">
         <v>46253</v>
@@ -9028,7 +10019,7 @@
     </row>
     <row r="72" spans="8:14" ht="15.75">
       <c r="H72" s="16" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I72" s="18">
         <v>46260</v>
@@ -9037,7 +10028,7 @@
     </row>
     <row r="73" spans="8:14" ht="15.75">
       <c r="H73" s="16" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I73" s="18">
         <v>46266</v>
@@ -9046,7 +10037,7 @@
     </row>
     <row r="74" spans="8:14" ht="15.75">
       <c r="H74" s="16" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I74" s="18">
         <v>46274</v>
@@ -9055,7 +10046,7 @@
     </row>
     <row r="75" spans="8:14" ht="15.75">
       <c r="H75" s="16" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I75" s="18">
         <v>46280</v>
@@ -9064,7 +10055,7 @@
     </row>
     <row r="76" spans="8:14" ht="15.75">
       <c r="H76" s="16" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I76" s="18">
         <v>46288</v>
@@ -9073,7 +10064,7 @@
     </row>
     <row r="77" spans="8:14" ht="15.75">
       <c r="H77" s="16" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I77" s="18">
         <v>46294</v>
@@ -9082,7 +10073,7 @@
     </row>
     <row r="78" spans="8:14" ht="15.75">
       <c r="H78" s="16" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I78" s="18">
         <v>45946</v>
@@ -9099,7 +10090,7 @@
     </row>
     <row r="79" spans="8:14" ht="15.75">
       <c r="H79" s="16" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="I79" s="18">
         <v>45950</v>
@@ -9116,7 +10107,7 @@
     </row>
     <row r="80" spans="8:14" ht="15.75">
       <c r="H80" s="16" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="I80" s="18">
         <v>45982</v>
@@ -9133,7 +10124,7 @@
     </row>
     <row r="81" spans="8:14" ht="15.75">
       <c r="H81" s="16" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="16"/>
@@ -9147,7 +10138,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -9160,7 +10151,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
@@ -9173,7 +10164,7 @@
         <v>8</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
@@ -9186,7 +10177,7 @@
         <v>8</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
@@ -9196,7 +10187,7 @@
     </row>
     <row r="86" spans="8:14" ht="15.75">
       <c r="H86" s="16" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="I86" s="18">
         <v>45677</v>
@@ -9209,7 +10200,7 @@
     </row>
     <row r="87" spans="8:14" ht="15.75">
       <c r="H87" s="16" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="I87" s="18">
         <v>45739</v>
@@ -9300,7 +10291,7 @@
     </row>
     <row r="94" spans="8:14" ht="15.75">
       <c r="H94" s="16" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="I94" s="18">
         <v>45981</v>
@@ -9323,7 +10314,7 @@
     </row>
     <row r="95" spans="8:14" ht="15.75">
       <c r="H95" s="16" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="I95" s="18">
         <v>45672</v>
@@ -9346,13 +10337,13 @@
     </row>
     <row r="96" spans="8:14" ht="15.75">
       <c r="H96" s="16" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="I96" s="18">
         <v>45735</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>27</v>
@@ -9369,7 +10360,7 @@
     </row>
     <row r="97" spans="8:10" ht="15.75">
       <c r="H97" s="16" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="I97" s="18">
         <v>45798</v>
@@ -9378,7 +10369,7 @@
     </row>
     <row r="98" spans="8:10" ht="15.75">
       <c r="H98" s="16" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="I98" s="18">
         <v>45854</v>
@@ -9387,7 +10378,7 @@
     </row>
     <row r="99" spans="8:10" ht="15.75">
       <c r="H99" s="16" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="I99" s="18">
         <v>45917</v>
@@ -9446,22 +10437,22 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9469,22 +10460,22 @@
         <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9492,22 +10483,22 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9515,22 +10506,22 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9538,22 +10529,22 @@
         <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9561,22 +10552,22 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9584,22 +10575,22 @@
         <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9607,22 +10598,22 @@
         <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9630,22 +10621,22 @@
         <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9653,22 +10644,22 @@
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9676,22 +10667,22 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9699,22 +10690,22 @@
         <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9722,22 +10713,22 @@
         <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9745,22 +10736,22 @@
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9768,22 +10759,22 @@
         <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G16" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9791,22 +10782,22 @@
         <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9814,22 +10805,22 @@
         <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9837,22 +10828,22 @@
         <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -9879,7 +10870,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="17">
         <v>46147</v>
@@ -9891,12 +10882,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="17">
         <v>46162</v>
@@ -9908,12 +10899,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="17">
         <v>46168</v>
@@ -9925,12 +10916,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="17">
         <v>46175</v>
@@ -9942,12 +10933,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="17">
         <v>46183</v>
@@ -9959,12 +10950,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="17">
         <v>46189</v>
@@ -9976,12 +10967,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B7" s="17">
         <v>46203</v>
@@ -9993,12 +10984,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9">
         <v>46211</v>
@@ -10010,12 +11001,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9">
         <v>46217</v>
@@ -10027,12 +11018,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9">
         <v>46225</v>
@@ -10044,12 +11035,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9">
         <v>46231</v>
@@ -10061,12 +11052,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9">
         <v>46238</v>
@@ -10078,12 +11069,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9">
         <v>46246</v>
@@ -10095,12 +11086,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10112,18 +11103,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -10131,15 +11122,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -10147,15 +11138,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -10163,7 +11154,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -10171,7 +11162,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -10179,7 +11170,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -10187,7 +11178,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -10195,7 +11186,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -10203,17 +11194,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -10248,7 +11239,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="17">
         <v>46050</v>
@@ -10260,12 +11251,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="17">
         <v>46056</v>
@@ -10277,12 +11268,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="17">
         <v>46064</v>
@@ -10294,12 +11285,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="17">
         <v>46070</v>
@@ -10311,12 +11302,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="17">
         <v>46078</v>
@@ -10328,12 +11319,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="17">
         <v>46084</v>
@@ -10345,12 +11336,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B7" s="17">
         <v>46092</v>
@@ -10362,12 +11353,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9">
         <v>46099</v>
@@ -10379,12 +11370,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9">
         <v>46112</v>
@@ -10396,12 +11387,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9">
         <v>46120</v>
@@ -10413,12 +11404,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9">
         <v>46126</v>
@@ -10430,12 +11421,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9">
         <v>46134</v>
@@ -10447,12 +11438,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9">
         <v>46140</v>
@@ -10464,12 +11455,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10481,18 +11472,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -10500,15 +11491,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -10516,15 +11507,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -10532,7 +11523,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -10540,7 +11531,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -10548,7 +11539,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -10556,7 +11547,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -10564,7 +11555,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -10572,17 +11563,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -10617,7 +11608,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="17">
         <v>45951</v>
@@ -10629,12 +11620,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="17">
         <v>45973</v>
@@ -10646,12 +11637,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="17">
         <v>45993</v>
@@ -10663,12 +11654,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="17">
         <v>46036</v>
@@ -10680,12 +11671,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="17">
         <v>46077</v>
@@ -10697,12 +11688,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="17">
         <v>46106</v>
@@ -10714,12 +11705,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B7" s="17">
         <v>46141</v>
@@ -10731,12 +11722,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9">
         <v>46161</v>
@@ -10748,12 +11739,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9">
         <v>46190</v>
@@ -10765,12 +11756,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9">
         <v>46224</v>
@@ -10782,12 +11773,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9">
         <v>46245</v>
@@ -10799,12 +11790,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9">
         <v>46295</v>
@@ -10816,12 +11807,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10833,7 +11824,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10845,18 +11836,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -10864,15 +11855,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -10880,15 +11871,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -10896,7 +11887,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -10904,7 +11895,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -10912,7 +11903,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -10920,7 +11911,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -10928,7 +11919,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -10936,17 +11927,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -10981,7 +11972,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="8">
         <v>45945</v>
@@ -10993,12 +11984,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8">
         <v>45959</v>
@@ -11010,12 +12001,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="8">
         <v>45979</v>
@@ -11027,12 +12018,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="8">
         <v>46001</v>
@@ -11044,12 +12035,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="8">
         <v>46008</v>
@@ -11061,12 +12052,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="8">
         <v>46028</v>
@@ -11078,12 +12069,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B7" s="8">
         <v>46043</v>
@@ -11095,12 +12086,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11111,7 +12102,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11123,7 +12114,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11135,7 +12126,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11147,7 +12138,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11159,7 +12150,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11171,7 +12162,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11183,18 +12174,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -11202,15 +12193,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -11218,15 +12209,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -11234,7 +12225,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -11242,7 +12233,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -11250,7 +12241,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -11258,7 +12249,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -11266,7 +12257,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -11274,17 +12265,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -11318,7 +12309,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="9">
         <v>45957</v>
@@ -11330,12 +12321,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="9">
         <f>B1+1</f>
@@ -11348,12 +12339,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B6" si="0">B2+1</f>
@@ -11366,12 +12357,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" si="0"/>
@@ -11384,12 +12375,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
@@ -11402,12 +12393,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
@@ -11420,12 +12411,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="b">
@@ -11437,7 +12428,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="b">
@@ -11449,7 +12440,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11461,7 +12452,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11473,7 +12464,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11485,7 +12476,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11497,7 +12488,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11509,7 +12500,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11521,18 +12512,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>28</v>
@@ -11540,15 +12531,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11556,15 +12547,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="10">
         <v>0.33333333333333331</v>
@@ -11572,7 +12563,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="10">
         <v>0.66666666666666663</v>
@@ -11580,43 +12571,43 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11650,7 +12641,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="6">
         <v>45936</v>
@@ -11662,12 +12653,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6">
         <v>46118</v>
@@ -11679,12 +12670,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -11696,7 +12687,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -11708,7 +12699,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -11720,7 +12711,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -11732,7 +12723,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11743,7 +12734,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11754,7 +12745,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11766,7 +12757,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11778,7 +12769,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11790,7 +12781,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11802,7 +12793,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11814,7 +12805,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11826,18 +12817,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -11845,15 +12836,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11861,15 +12852,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11877,7 +12868,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -11885,37 +12876,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -11949,7 +12940,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="13">
         <v>45931</v>
@@ -11963,7 +12954,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="13">
         <v>45966</v>
@@ -11977,7 +12968,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="13">
         <v>45994</v>
@@ -11991,7 +12982,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -12002,7 +12993,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -12013,7 +13004,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -12024,7 +13015,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -12035,7 +13026,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12046,7 +13037,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12058,7 +13049,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12070,7 +13061,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12082,7 +13073,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12094,7 +13085,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12106,7 +13097,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12118,18 +13109,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -12137,15 +13128,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12153,15 +13144,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12169,7 +13160,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -12177,37 +13168,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -12241,7 +13232,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B1" s="13">
         <v>45946</v>
@@ -12255,7 +13246,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B2" s="13">
         <v>45981</v>
@@ -12269,7 +13260,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B3" s="13">
         <v>46009</v>
@@ -12283,7 +13274,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -12294,7 +13285,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -12305,7 +13296,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -12316,7 +13307,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -12327,7 +13318,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12338,7 +13329,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12350,7 +13341,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12362,7 +13353,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12374,7 +13365,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12386,7 +13377,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12398,7 +13389,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12410,18 +13401,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="C15" s="14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -12429,15 +13420,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12445,15 +13436,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12461,7 +13452,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -12469,37 +13460,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -12516,6 +13507,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -12698,25 +13706,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12724,5 +13715,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{998A94CD-3A4B-43DA-88EE-17EC7512459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6460FCC7-0137-42AA-AC61-58A9E9C999DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" activeTab="12" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="STABLE" sheetId="6" r:id="rId10"/>
     <sheet name="OB Lite" sheetId="10" r:id="rId11"/>
     <sheet name="OB SIM" sheetId="8" r:id="rId12"/>
-    <sheet name="Course Dates Reference" sheetId="4" r:id="rId13"/>
-    <sheet name="CCEMT CRM Sched" sheetId="11" r:id="rId14"/>
+    <sheet name="ATLS" sheetId="17" r:id="rId13"/>
+    <sheet name="Course Dates Reference" sheetId="4" r:id="rId14"/>
+    <sheet name="CCEMT CRM Sched" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="256">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -679,6 +680,15 @@
   </si>
   <si>
     <t>Instructors per day</t>
+  </si>
+  <si>
+    <t>BAW</t>
+  </si>
+  <si>
+    <t>MGH</t>
+  </si>
+  <si>
+    <t>Lahey</t>
   </si>
   <si>
     <t>Course</t>
@@ -1527,9 +1537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D128" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J129" sqref="J129:J155"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E138" sqref="E138"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9187,11 +9197,322 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0587D0-89DF-4D05-A902-12BFC82DD3EC}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="17">
+        <v>45946</v>
+      </c>
+      <c r="C1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="17">
+        <v>45950</v>
+      </c>
+      <c r="C2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="17">
+        <v>45982</v>
+      </c>
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{715332AC-6F7F-42E3-B9E0-82D9005C52C8}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D7DB1A-8C06-5D43-8D41-553EA9E8A37B}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="E62" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView topLeftCell="E81" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94:N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -9202,7 +9523,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -9223,36 +9544,36 @@
         <v>15</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D2" s="6">
         <v>46042</v>
@@ -9264,10 +9585,10 @@
         <v>46253</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I2" s="18">
         <v>45931</v>
@@ -9277,10 +9598,10 @@
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E3" s="6">
         <v>46035</v>
@@ -9289,7 +9610,7 @@
         <v>46260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I3" s="18">
         <v>45966</v>
@@ -9305,7 +9626,7 @@
         <v>46266</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I4" s="18">
         <v>45994</v>
@@ -9321,13 +9642,13 @@
         <v>46274</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I5" s="18">
         <v>46029</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75">
@@ -9339,7 +9660,7 @@
         <v>46280</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I6" s="18">
         <v>46057</v>
@@ -9355,7 +9676,7 @@
         <v>46288</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I7" s="18">
         <v>46085</v>
@@ -9368,7 +9689,7 @@
         <v>46294</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I8" s="18">
         <v>46113</v>
@@ -9377,18 +9698,18 @@
     </row>
     <row r="9" spans="1:14" ht="15.75">
       <c r="H9" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I9" s="18">
         <v>46148</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75">
       <c r="H10" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I10" s="18">
         <v>46176</v>
@@ -9397,7 +9718,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75">
       <c r="H11" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I11" s="18">
         <v>46204</v>
@@ -9407,7 +9728,7 @@
     <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I12" s="18">
         <v>46239</v>
@@ -9417,19 +9738,19 @@
     <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I13" s="18">
         <v>46267</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I14" s="18">
         <v>45946</v>
@@ -9439,19 +9760,19 @@
     <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I15" s="18">
         <v>45981</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I16" s="18">
         <v>46009</v>
@@ -9460,7 +9781,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="H17" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I17" s="18">
         <v>46037</v>
@@ -9469,7 +9790,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="H18" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I18" s="18">
         <v>46072</v>
@@ -9478,19 +9799,19 @@
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="H19" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I19" s="18">
         <v>46100</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I20" s="18">
         <v>46128</v>
@@ -9500,7 +9821,7 @@
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I21" s="18">
         <v>46163</v>
@@ -9510,7 +9831,7 @@
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I22" s="18">
         <v>46191</v>
@@ -9520,19 +9841,19 @@
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I23" s="18">
         <v>46219</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I24" s="18">
         <v>46254</v>
@@ -9541,7 +9862,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="H25" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I25" s="18">
         <v>46282</v>
@@ -9550,7 +9871,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="H26" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I26" s="18">
         <v>45945</v>
@@ -9560,7 +9881,7 @@
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I27" s="18">
         <v>45959</v>
@@ -9570,7 +9891,7 @@
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I28" s="18">
         <v>45979</v>
@@ -9580,7 +9901,7 @@
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I29" s="18">
         <v>46001</v>
@@ -9590,7 +9911,7 @@
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I30" s="18">
         <v>46008</v>
@@ -9600,7 +9921,7 @@
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I31" s="18">
         <v>46028</v>
@@ -9610,7 +9931,7 @@
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I32" s="18">
         <v>46043</v>
@@ -9619,7 +9940,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="H33" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I33" s="18">
         <v>46050</v>
@@ -9628,7 +9949,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="H34" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I34" s="18">
         <v>46056</v>
@@ -9637,7 +9958,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="H35" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I35" s="18">
         <v>46064</v>
@@ -9646,7 +9967,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="H36" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I36" s="18">
         <v>46070</v>
@@ -9655,7 +9976,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="H37" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I37" s="18">
         <v>46078</v>
@@ -9664,7 +9985,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="H38" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I38" s="18">
         <v>46084</v>
@@ -9673,7 +9994,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="H39" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I39" s="18">
         <v>46092</v>
@@ -9683,7 +10004,7 @@
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I40" s="18">
         <v>46099</v>
@@ -9695,7 +10016,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I41" s="18">
         <v>46112</v>
@@ -9707,7 +10028,7 @@
         <v>46253</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I42" s="18">
         <v>46120</v>
@@ -9719,13 +10040,13 @@
         <v>46260</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I43" s="18">
         <v>46126</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
@@ -9733,13 +10054,13 @@
         <v>46266</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I44" s="18">
         <v>46134</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
@@ -9747,13 +10068,13 @@
         <v>46274</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I45" s="18">
         <v>46140</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
@@ -9761,7 +10082,7 @@
         <v>46280</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I46" s="18">
         <v>45951</v>
@@ -9773,7 +10094,7 @@
         <v>46288</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I47" s="18">
         <v>45983</v>
@@ -9785,7 +10106,7 @@
         <v>46294</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I48" s="18">
         <v>45993</v>
@@ -9797,7 +10118,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I49" s="18">
         <v>46036</v>
@@ -9806,10 +10127,10 @@
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I50" s="18">
         <v>46077</v>
@@ -9819,7 +10140,7 @@
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I51" s="18">
         <v>46106</v>
@@ -9829,7 +10150,7 @@
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I52" s="18">
         <v>46141</v>
@@ -9839,7 +10160,7 @@
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I53" s="18">
         <v>46161</v>
@@ -9849,7 +10170,7 @@
     <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I54" s="18">
         <v>46190</v>
@@ -9859,7 +10180,7 @@
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I55" s="18">
         <v>46224</v>
@@ -9869,7 +10190,7 @@
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I56" s="18">
         <v>46245</v>
@@ -9878,7 +10199,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="H57" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I57" s="18">
         <v>46295</v>
@@ -9887,7 +10208,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="H58" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I58" s="18">
         <v>46147</v>
@@ -9896,7 +10217,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75">
       <c r="H59" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I59" s="18">
         <v>46162</v>
@@ -9905,7 +10226,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75">
       <c r="H60" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I60" s="18">
         <v>46168</v>
@@ -9914,7 +10235,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="H61" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I61" s="18">
         <v>46175</v>
@@ -9923,7 +10244,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75">
       <c r="H62" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I62" s="18">
         <v>46183</v>
@@ -9932,7 +10253,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75">
       <c r="H63" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I63" s="18">
         <v>46189</v>
@@ -9941,7 +10262,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75">
       <c r="H64" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I64" s="18">
         <v>46203</v>
@@ -9950,7 +10271,7 @@
     </row>
     <row r="65" spans="8:14" ht="15.75">
       <c r="H65" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I65" s="18">
         <v>46211</v>
@@ -9959,7 +10280,7 @@
     </row>
     <row r="66" spans="8:14" ht="15.75">
       <c r="H66" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I66" s="18">
         <v>46217</v>
@@ -9968,7 +10289,7 @@
     </row>
     <row r="67" spans="8:14" ht="15.75">
       <c r="H67" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I67" s="18">
         <v>46225</v>
@@ -9977,40 +10298,40 @@
     </row>
     <row r="68" spans="8:14" ht="15.75">
       <c r="H68" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I68" s="18">
         <v>46231</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="8:14" ht="15.75">
       <c r="H69" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I69" s="18">
         <v>46238</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="8:14" ht="15.75">
       <c r="H70" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I70" s="18">
         <v>46246</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="8:14" ht="15.75">
       <c r="H71" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I71" s="18">
         <v>46253</v>
@@ -10019,7 +10340,7 @@
     </row>
     <row r="72" spans="8:14" ht="15.75">
       <c r="H72" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I72" s="18">
         <v>46260</v>
@@ -10028,7 +10349,7 @@
     </row>
     <row r="73" spans="8:14" ht="15.75">
       <c r="H73" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I73" s="18">
         <v>46266</v>
@@ -10037,7 +10358,7 @@
     </row>
     <row r="74" spans="8:14" ht="15.75">
       <c r="H74" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I74" s="18">
         <v>46274</v>
@@ -10046,7 +10367,7 @@
     </row>
     <row r="75" spans="8:14" ht="15.75">
       <c r="H75" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I75" s="18">
         <v>46280</v>
@@ -10055,7 +10376,7 @@
     </row>
     <row r="76" spans="8:14" ht="15.75">
       <c r="H76" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I76" s="18">
         <v>46288</v>
@@ -10064,7 +10385,7 @@
     </row>
     <row r="77" spans="8:14" ht="15.75">
       <c r="H77" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I77" s="18">
         <v>46294</v>
@@ -10073,7 +10394,7 @@
     </row>
     <row r="78" spans="8:14" ht="15.75">
       <c r="H78" s="16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I78" s="18">
         <v>45946</v>
@@ -10090,7 +10411,7 @@
     </row>
     <row r="79" spans="8:14" ht="15.75">
       <c r="H79" s="16" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I79" s="18">
         <v>45950</v>
@@ -10107,7 +10428,7 @@
     </row>
     <row r="80" spans="8:14" ht="15.75">
       <c r="H80" s="16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I80" s="18">
         <v>45982</v>
@@ -10124,7 +10445,7 @@
     </row>
     <row r="81" spans="8:14" ht="15.75">
       <c r="H81" s="16" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="16"/>
@@ -10138,7 +10459,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -10151,7 +10472,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
@@ -10164,7 +10485,7 @@
         <v>8</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
@@ -10177,7 +10498,7 @@
         <v>8</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
@@ -10187,7 +10508,7 @@
     </row>
     <row r="86" spans="8:14" ht="15.75">
       <c r="H86" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I86" s="18">
         <v>45677</v>
@@ -10200,7 +10521,7 @@
     </row>
     <row r="87" spans="8:14" ht="15.75">
       <c r="H87" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I87" s="18">
         <v>45739</v>
@@ -10291,7 +10612,7 @@
     </row>
     <row r="94" spans="8:14" ht="15.75">
       <c r="H94" s="16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I94" s="18">
         <v>45981</v>
@@ -10314,7 +10635,7 @@
     </row>
     <row r="95" spans="8:14" ht="15.75">
       <c r="H95" s="16" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I95" s="18">
         <v>45672</v>
@@ -10337,13 +10658,13 @@
     </row>
     <row r="96" spans="8:14" ht="15.75">
       <c r="H96" s="16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I96" s="18">
         <v>45735</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>27</v>
@@ -10360,7 +10681,7 @@
     </row>
     <row r="97" spans="8:10" ht="15.75">
       <c r="H97" s="16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I97" s="18">
         <v>45798</v>
@@ -10369,7 +10690,7 @@
     </row>
     <row r="98" spans="8:10" ht="15.75">
       <c r="H98" s="16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I98" s="18">
         <v>45854</v>
@@ -10378,7 +10699,7 @@
     </row>
     <row r="99" spans="8:10" ht="15.75">
       <c r="H99" s="16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I99" s="18">
         <v>45917</v>
@@ -10393,7 +10714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE5E83A-B444-4206-8DA8-1368EF05AF5C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -10437,22 +10758,22 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10460,22 +10781,22 @@
         <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10483,22 +10804,22 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10506,22 +10827,22 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10529,22 +10850,22 @@
         <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10552,22 +10873,22 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10575,22 +10896,22 @@
         <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -10598,22 +10919,22 @@
         <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -10621,22 +10942,22 @@
         <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -10644,22 +10965,22 @@
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10667,22 +10988,22 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10690,22 +11011,22 @@
         <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -10713,22 +11034,22 @@
         <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10736,22 +11057,22 @@
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10759,22 +11080,22 @@
         <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G16" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10782,22 +11103,22 @@
         <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10805,22 +11126,22 @@
         <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10828,22 +11149,22 @@
         <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -10855,7 +11176,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD174F3-4421-40E9-ADA5-4D51B58F838B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="17">
+        <v>46147</v>
+      </c>
+      <c r="C1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="17">
+        <v>46162</v>
+      </c>
+      <c r="C2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="17">
+        <v>46168</v>
+      </c>
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="17">
+        <v>46175</v>
+      </c>
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="17">
+        <v>46183</v>
+      </c>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="17">
+        <v>46189</v>
+      </c>
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="17">
+        <v>46203</v>
+      </c>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="9">
+        <v>46211</v>
+      </c>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="9">
+        <v>46217</v>
+      </c>
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="9">
+        <v>46225</v>
+      </c>
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="9">
+        <v>46231</v>
+      </c>
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="9">
+        <v>46238</v>
+      </c>
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="9">
+        <v>46246</v>
+      </c>
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{2547D2A8-F8DF-4796-95DD-179174D39C8B}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D169A3-4EB4-4BAF-ABF2-90D52870D9B1}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -10873,375 +11563,6 @@
         <v>176</v>
       </c>
       <c r="B1" s="17">
-        <v>46147</v>
-      </c>
-      <c r="C1" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="17">
-        <v>46162</v>
-      </c>
-      <c r="C2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="17">
-        <v>46168</v>
-      </c>
-      <c r="C3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="17">
-        <v>46175</v>
-      </c>
-      <c r="C4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="17">
-        <v>46183</v>
-      </c>
-      <c r="C5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="17">
-        <v>46189</v>
-      </c>
-      <c r="C6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="17">
-        <v>46203</v>
-      </c>
-      <c r="C7" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="9">
-        <v>46211</v>
-      </c>
-      <c r="C8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="9">
-        <v>46217</v>
-      </c>
-      <c r="C9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="9">
-        <v>46225</v>
-      </c>
-      <c r="C10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="9">
-        <v>46231</v>
-      </c>
-      <c r="C11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="9">
-        <v>46238</v>
-      </c>
-      <c r="C12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="9">
-        <v>46246</v>
-      </c>
-      <c r="C13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="11">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="11">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="11">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{2547D2A8-F8DF-4796-95DD-179174D39C8B}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D169A3-4EB4-4BAF-ABF2-90D52870D9B1}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="17">
         <v>46050</v>
       </c>
       <c r="C1" s="12" t="b">
@@ -11594,7 +11915,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -13507,14 +13828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13523,7 +13836,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -13706,14 +14019,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6460FCC7-0137-42AA-AC61-58A9E9C999DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C88C12-CA33-4042-8E58-9248710F7659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" activeTab="12" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1537,9 +1537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E34" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P40" sqref="P40"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="P55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="P69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="P82" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -9200,7 +9200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0587D0-89DF-4D05-A902-12BFC82DD3EC}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C88C12-CA33-4042-8E58-9248710F7659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A5206B-EA2E-44FE-93FC-D52C41DF5878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -1538,8 +1538,8 @@
   <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E34" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P40" sqref="P40"/>
+      <pane xSplit="3" topLeftCell="E62" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P78" sqref="P78"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:16">

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/CrewOps360/training/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A5206B-EA2E-44FE-93FC-D52C41DF5878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{C9A11702-2BFC-CD46-85DA-916149E72FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CA4FA1-16CF-44F6-8618-60DB0D99150D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" firstSheet="3" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -1538,8 +1538,8 @@
   <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E62" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P78" sqref="P78"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5670,32 +5670,8 @@
       <c r="B83" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P83" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5705,32 +5681,8 @@
       <c r="B84" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P84" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5740,32 +5692,8 @@
       <c r="B85" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P85" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5775,32 +5703,8 @@
       <c r="B86" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P86" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5810,32 +5714,8 @@
       <c r="B87" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P87" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5845,32 +5725,8 @@
       <c r="B88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P88" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5880,32 +5736,8 @@
       <c r="B89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P89" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5915,32 +5747,8 @@
       <c r="B90" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P90" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5950,32 +5758,8 @@
       <c r="B91" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P91" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5985,32 +5769,8 @@
       <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P92" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6020,32 +5780,8 @@
       <c r="B93" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P93" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6055,32 +5791,8 @@
       <c r="B94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P94" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6090,32 +5802,8 @@
       <c r="B95" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P95" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6125,805 +5813,253 @@
       <c r="B96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P96" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P97" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P98" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P99" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P100" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P101" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P102" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P103" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P104" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P105" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P106" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J107" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P107" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P108" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16">
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P109" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P110" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J111" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P111" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J112" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P112" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P113" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J114" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P114" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J115" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P115" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J116" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P116" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J117" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P117" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J118" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P118" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
         <v>138</v>
       </c>
@@ -6936,1301 +6072,404 @@
       <c r="D119" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J119" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P119" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J120" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P120" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J121" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P121" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J122" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P122" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J123" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P123" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J124" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P124" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J125" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P125" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J126" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P126" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J127" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P127" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J128" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P128" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J129" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P129" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J130" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P130" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J131" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P131" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J132" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P132" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J133" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P133" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J134" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P134" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J135" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P135" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J136" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P136" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J137" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P137" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J138" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P138" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J139" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P139" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J140" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P140" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J141" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P141" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J142" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P142" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J143" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P143" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J144" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P144" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J145" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P145" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J146" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P146" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J147" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P147" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J148" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P148" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J149" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P149" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J150" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P150" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J151" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P151" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J152" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P152" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J153" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P153" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J154" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P154" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="J155" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P155" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC942924-F343-4E42-A064-ECFD3B8753AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E75BB5-EC35-4348-AEE6-34122D9A017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="14" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="14" activeTab="6" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,22 @@
     <sheet name="Airway Decision SIM" sheetId="14" r:id="rId4"/>
     <sheet name="Micro SIM" sheetId="13" r:id="rId5"/>
     <sheet name="CRM" sheetId="3" r:id="rId6"/>
-    <sheet name="FCCS" sheetId="9" r:id="rId7"/>
-    <sheet name="Wed SM Q1" sheetId="5" r:id="rId8"/>
-    <sheet name="Thurs SM Q1" sheetId="7" r:id="rId9"/>
-    <sheet name="Wed SM Q2" sheetId="18" r:id="rId10"/>
-    <sheet name="Thurs SM Q2" sheetId="21" r:id="rId11"/>
-    <sheet name="Wed SM Q3" sheetId="19" r:id="rId12"/>
-    <sheet name="Thurs SM Q3" sheetId="22" r:id="rId13"/>
-    <sheet name="Wed SM Q4" sheetId="20" r:id="rId14"/>
-    <sheet name="Thurs SM Q4" sheetId="23" r:id="rId15"/>
-    <sheet name="STABLE" sheetId="6" r:id="rId16"/>
-    <sheet name="OB Lite" sheetId="10" r:id="rId17"/>
-    <sheet name="OB SIM" sheetId="8" r:id="rId18"/>
-    <sheet name="ATLS" sheetId="17" r:id="rId19"/>
-    <sheet name="Course Dates Reference" sheetId="4" r:id="rId20"/>
-    <sheet name="CCEMT CRM Sched" sheetId="11" r:id="rId21"/>
+    <sheet name="PFCCS" sheetId="24" r:id="rId7"/>
+    <sheet name="FCCS" sheetId="9" r:id="rId8"/>
+    <sheet name="Wed SM Q1" sheetId="5" r:id="rId9"/>
+    <sheet name="Thurs SM Q1" sheetId="7" r:id="rId10"/>
+    <sheet name="Wed SM Q2" sheetId="18" r:id="rId11"/>
+    <sheet name="Thurs SM Q2" sheetId="21" r:id="rId12"/>
+    <sheet name="Wed SM Q3" sheetId="19" r:id="rId13"/>
+    <sheet name="Thurs SM Q3" sheetId="22" r:id="rId14"/>
+    <sheet name="Wed SM Q4" sheetId="20" r:id="rId15"/>
+    <sheet name="Thurs SM Q4" sheetId="23" r:id="rId16"/>
+    <sheet name="STABLE" sheetId="6" r:id="rId17"/>
+    <sheet name="OB Lite" sheetId="10" r:id="rId18"/>
+    <sheet name="OB SIM" sheetId="8" r:id="rId19"/>
+    <sheet name="ATLS" sheetId="17" r:id="rId20"/>
+    <sheet name="Course Dates Reference" sheetId="4" r:id="rId21"/>
+    <sheet name="CCEMT CRM Sched" sheetId="11" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="265">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -1296,7 +1297,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB44FF52-3184-4A4E-B500-D5EA36ADC232}" name="Table3" displayName="Table3" ref="H1:N99" totalsRowShown="0">
-  <autoFilter ref="H1:N99" xr:uid="{AB44FF52-3184-4A4E-B500-D5EA36ADC232}"/>
+  <autoFilter ref="H1:N99" xr:uid="{AB44FF52-3184-4A4E-B500-D5EA36ADC232}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PFCCS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2672EBD8-969E-42D0-823E-342D8F577BC7}" name="Course" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C65C019C-A891-46EF-BA31-BD8C3BF273AC}" name="Date" dataDxfId="1"/>
@@ -1630,8 +1637,8 @@
   <dimension ref="A1:X155"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q1" sqref="Q1:R1048576"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E123" sqref="E123"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9657,6 +9664,298 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BC729-92D2-4067-85BC-DFDCD994C98C}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <cols>
+    <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.875" style="3"/>
+    <col min="4" max="4" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="13">
+        <v>45946</v>
+      </c>
+      <c r="C1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45981</v>
+      </c>
+      <c r="C2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="13">
+        <v>46009</v>
+      </c>
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{D1E6D444-8A38-4DF4-945C-5FF372BCE724}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88D2FE4-23CC-491D-BD62-D960817AB0D2}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -9948,7 +10247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24407AE7-238F-42BD-B8EA-6F88E165DF83}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -10241,7 +10540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7578FEE-5B85-43AD-81EE-212BA4C5295B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -10533,7 +10832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEAB94E-7986-48ED-9C86-1B1BBA3C1E49}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -10826,7 +11125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC058F5-09C7-4162-863E-422D32EBC74A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -11118,12 +11417,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFE2395-82E7-4A11-91BF-FB62274BB4C3}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -11411,7 +11710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -11730,7 +12029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73369AC4-C9B4-42DD-BF9C-2665EDC8C92A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -12029,7 +12328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DEE273-7DC8-284A-9883-269CFB150B79}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -12359,317 +12658,6 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{8AA65C56-938D-4F43-A15E-6C53B243E9C6}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0587D0-89DF-4D05-A902-12BFC82DD3EC}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
-  <cols>
-    <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="17">
-        <v>45946</v>
-      </c>
-      <c r="C1" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="17">
-        <v>45950</v>
-      </c>
-      <c r="C2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="17">
-        <v>45982</v>
-      </c>
-      <c r="C3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" s="11">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{715332AC-6F7F-42E3-B9E0-82D9005C52C8}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13047,6 +13035,317 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0587D0-89DF-4D05-A902-12BFC82DD3EC}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <cols>
+    <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="17">
+        <v>45946</v>
+      </c>
+      <c r="C1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="17">
+        <v>45950</v>
+      </c>
+      <c r="C2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="17">
+        <v>45982</v>
+      </c>
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{715332AC-6F7F-42E3-B9E0-82D9005C52C8}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D7DB1A-8C06-5D43-8D41-553EA9E8A37B}">
   <dimension ref="A1:N99"/>
   <sheetViews>
@@ -13104,7 +13403,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="4" t="s">
         <v>229</v>
       </c>
@@ -13134,7 +13433,7 @@
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>234</v>
@@ -13156,7 +13455,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" s="5"/>
       <c r="E4" s="6">
         <v>46063</v>
@@ -13172,7 +13471,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="5"/>
       <c r="E5" s="6">
         <v>46091</v>
@@ -13190,7 +13489,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" s="5"/>
       <c r="E6" s="6">
         <v>46114</v>
@@ -13206,7 +13505,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="5"/>
       <c r="E7" s="6">
         <v>46170</v>
@@ -13222,7 +13521,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="5"/>
       <c r="F8" s="8">
         <v>46294</v>
@@ -13235,7 +13534,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" hidden="1">
       <c r="H9" s="16" t="s">
         <v>233</v>
       </c>
@@ -13246,7 +13545,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" hidden="1">
       <c r="H10" s="16" t="s">
         <v>233</v>
       </c>
@@ -13255,7 +13554,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" hidden="1">
       <c r="H11" s="16" t="s">
         <v>233</v>
       </c>
@@ -13264,7 +13563,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
         <v>233</v>
@@ -13274,7 +13573,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
         <v>233</v>
@@ -13286,7 +13585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
         <v>237</v>
@@ -13296,7 +13595,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
         <v>237</v>
@@ -13308,7 +13607,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
         <v>237</v>
@@ -13318,7 +13617,7 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="H17" s="16" t="s">
         <v>237</v>
       </c>
@@ -13327,7 +13626,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="H18" s="16" t="s">
         <v>237</v>
       </c>
@@ -13336,7 +13635,7 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="H19" s="16" t="s">
         <v>237</v>
       </c>
@@ -13347,7 +13646,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
         <v>237</v>
@@ -13357,7 +13656,7 @@
       </c>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
         <v>237</v>
@@ -13367,7 +13666,7 @@
       </c>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
         <v>237</v>
@@ -13377,7 +13676,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
         <v>237</v>
@@ -13389,7 +13688,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
         <v>237</v>
@@ -13399,7 +13698,7 @@
       </c>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="H25" s="16" t="s">
         <v>237</v>
       </c>
@@ -13408,7 +13707,7 @@
       </c>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="H26" s="16" t="s">
         <v>238</v>
       </c>
@@ -13417,7 +13716,7 @@
       </c>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
         <v>238</v>
@@ -13427,7 +13726,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
         <v>238</v>
@@ -13437,7 +13736,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
         <v>238</v>
@@ -13447,7 +13746,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
         <v>238</v>
@@ -13457,7 +13756,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
         <v>238</v>
@@ -13467,7 +13766,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
         <v>238</v>
@@ -13477,7 +13776,7 @@
       </c>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="H33" s="16" t="s">
         <v>239</v>
       </c>
@@ -13486,7 +13785,7 @@
       </c>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="H34" s="16" t="s">
         <v>239</v>
       </c>
@@ -13495,7 +13794,7 @@
       </c>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="H35" s="16" t="s">
         <v>239</v>
       </c>
@@ -13504,7 +13803,7 @@
       </c>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="H36" s="16" t="s">
         <v>239</v>
       </c>
@@ -13513,7 +13812,7 @@
       </c>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="H37" s="16" t="s">
         <v>239</v>
       </c>
@@ -13522,7 +13821,7 @@
       </c>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="H38" s="16" t="s">
         <v>239</v>
       </c>
@@ -13531,7 +13830,7 @@
       </c>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="H39" s="16" t="s">
         <v>239</v>
       </c>
@@ -13540,7 +13839,7 @@
       </c>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
         <v>239</v>
@@ -13550,7 +13849,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
@@ -13562,7 +13861,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="6">
         <v>46253</v>
       </c>
@@ -13574,7 +13873,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="6">
         <v>46260</v>
       </c>
@@ -13588,7 +13887,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="6">
         <v>46266</v>
       </c>
@@ -13602,7 +13901,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="6">
         <v>46274</v>
       </c>
@@ -13616,7 +13915,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="6">
         <v>46280</v>
       </c>
@@ -13628,7 +13927,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="6">
         <v>46288</v>
       </c>
@@ -13640,7 +13939,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="6">
         <v>46294</v>
       </c>
@@ -13652,7 +13951,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="5" t="s">
         <v>15</v>
       </c>
@@ -13664,7 +13963,7 @@
       </c>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="5" t="s">
         <v>232</v>
       </c>
@@ -13676,7 +13975,7 @@
       </c>
       <c r="J50" s="16"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
         <v>241</v>
@@ -13686,7 +13985,7 @@
       </c>
       <c r="J51" s="16"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
         <v>241</v>
@@ -13696,7 +13995,7 @@
       </c>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
         <v>241</v>
@@ -13706,7 +14005,7 @@
       </c>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
         <v>241</v>
@@ -13716,7 +14015,7 @@
       </c>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
         <v>241</v>
@@ -13726,7 +14025,7 @@
       </c>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
         <v>241</v>
@@ -13736,7 +14035,7 @@
       </c>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="H57" s="16" t="s">
         <v>241</v>
       </c>
@@ -13745,7 +14044,7 @@
       </c>
       <c r="J57" s="16"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="H58" s="16" t="s">
         <v>242</v>
       </c>
@@ -13754,7 +14053,7 @@
       </c>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="H59" s="16" t="s">
         <v>242</v>
       </c>
@@ -13763,7 +14062,7 @@
       </c>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="H60" s="16" t="s">
         <v>242</v>
       </c>
@@ -13772,7 +14071,7 @@
       </c>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="H61" s="16" t="s">
         <v>242</v>
       </c>
@@ -13781,7 +14080,7 @@
       </c>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="H62" s="16" t="s">
         <v>242</v>
       </c>
@@ -13790,7 +14089,7 @@
       </c>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="H63" s="16" t="s">
         <v>242</v>
       </c>
@@ -13799,7 +14098,7 @@
       </c>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="H64" s="16" t="s">
         <v>242</v>
       </c>
@@ -13808,7 +14107,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="8:14">
+    <row r="65" spans="8:14" hidden="1">
       <c r="H65" s="16" t="s">
         <v>242</v>
       </c>
@@ -13817,7 +14116,7 @@
       </c>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="8:14">
+    <row r="66" spans="8:14" hidden="1">
       <c r="H66" s="16" t="s">
         <v>242</v>
       </c>
@@ -13826,7 +14125,7 @@
       </c>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="8:14">
+    <row r="67" spans="8:14" hidden="1">
       <c r="H67" s="16" t="s">
         <v>242</v>
       </c>
@@ -13835,7 +14134,7 @@
       </c>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" spans="8:14">
+    <row r="68" spans="8:14" hidden="1">
       <c r="H68" s="16" t="s">
         <v>242</v>
       </c>
@@ -13846,7 +14145,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="8:14">
+    <row r="69" spans="8:14" hidden="1">
       <c r="H69" s="16" t="s">
         <v>242</v>
       </c>
@@ -13857,7 +14156,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="8:14">
+    <row r="70" spans="8:14" hidden="1">
       <c r="H70" s="16" t="s">
         <v>242</v>
       </c>
@@ -13868,7 +14167,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="8:14">
+    <row r="71" spans="8:14" hidden="1">
       <c r="H71" s="16" t="s">
         <v>244</v>
       </c>
@@ -13877,7 +14176,7 @@
       </c>
       <c r="J71" s="16"/>
     </row>
-    <row r="72" spans="8:14">
+    <row r="72" spans="8:14" hidden="1">
       <c r="H72" s="16" t="s">
         <v>244</v>
       </c>
@@ -13886,7 +14185,7 @@
       </c>
       <c r="J72" s="16"/>
     </row>
-    <row r="73" spans="8:14">
+    <row r="73" spans="8:14" hidden="1">
       <c r="H73" s="16" t="s">
         <v>244</v>
       </c>
@@ -13895,7 +14194,7 @@
       </c>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="8:14">
+    <row r="74" spans="8:14" hidden="1">
       <c r="H74" s="16" t="s">
         <v>244</v>
       </c>
@@ -13904,7 +14203,7 @@
       </c>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="8:14">
+    <row r="75" spans="8:14" hidden="1">
       <c r="H75" s="16" t="s">
         <v>244</v>
       </c>
@@ -13913,7 +14212,7 @@
       </c>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="8:14">
+    <row r="76" spans="8:14" hidden="1">
       <c r="H76" s="16" t="s">
         <v>244</v>
       </c>
@@ -13922,7 +14221,7 @@
       </c>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="8:14">
+    <row r="77" spans="8:14" hidden="1">
       <c r="H77" s="16" t="s">
         <v>244</v>
       </c>
@@ -13931,7 +14230,7 @@
       </c>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="8:14">
+    <row r="78" spans="8:14" hidden="1">
       <c r="H78" s="16" t="s">
         <v>245</v>
       </c>
@@ -13948,7 +14247,7 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="8:14">
+    <row r="79" spans="8:14" hidden="1">
       <c r="H79" s="16" t="s">
         <v>246</v>
       </c>
@@ -13965,7 +14264,7 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="8:14">
+    <row r="80" spans="8:14" hidden="1">
       <c r="H80" s="16" t="s">
         <v>247</v>
       </c>
@@ -13982,7 +14281,7 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="8:14">
+    <row r="81" spans="8:14" hidden="1">
       <c r="H81" s="16" t="s">
         <v>248</v>
       </c>
@@ -13993,7 +14292,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="8:14">
+    <row r="82" spans="8:14" hidden="1">
       <c r="H82" s="16" t="s">
         <v>9</v>
       </c>
@@ -14006,7 +14305,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="8:14">
+    <row r="83" spans="8:14" hidden="1">
       <c r="H83" s="16" t="s">
         <v>9</v>
       </c>
@@ -14045,7 +14344,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="8:14">
+    <row r="86" spans="8:14" hidden="1">
       <c r="H86" s="16" t="s">
         <v>253</v>
       </c>
@@ -14058,7 +14357,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="8:14">
+    <row r="87" spans="8:14" hidden="1">
       <c r="H87" s="16" t="s">
         <v>253</v>
       </c>
@@ -14071,7 +14370,7 @@
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="8:14">
+    <row r="88" spans="8:14" hidden="1">
       <c r="H88" s="16" t="s">
         <v>12</v>
       </c>
@@ -14084,7 +14383,7 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="8:14">
+    <row r="89" spans="8:14" hidden="1">
       <c r="H89" s="16" t="s">
         <v>12</v>
       </c>
@@ -14097,7 +14396,7 @@
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="8:14">
+    <row r="90" spans="8:14" hidden="1">
       <c r="H90" s="16" t="s">
         <v>12</v>
       </c>
@@ -14110,7 +14409,7 @@
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="8:14">
+    <row r="91" spans="8:14" hidden="1">
       <c r="H91" s="16" t="s">
         <v>12</v>
       </c>
@@ -14123,7 +14422,7 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="8:14">
+    <row r="92" spans="8:14" hidden="1">
       <c r="H92" s="16" t="s">
         <v>12</v>
       </c>
@@ -14136,7 +14435,7 @@
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="8:14">
+    <row r="93" spans="8:14" hidden="1">
       <c r="H93" s="16" t="s">
         <v>12</v>
       </c>
@@ -14149,7 +14448,7 @@
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="8:14">
+    <row r="94" spans="8:14" hidden="1">
       <c r="H94" s="16" t="s">
         <v>254</v>
       </c>
@@ -14172,7 +14471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="8:14">
+    <row r="95" spans="8:14" hidden="1">
       <c r="H95" s="16" t="s">
         <v>255</v>
       </c>
@@ -14195,7 +14494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="8:14">
+    <row r="96" spans="8:14" hidden="1">
       <c r="H96" s="16" t="s">
         <v>256</v>
       </c>
@@ -14218,7 +14517,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="8:10">
+    <row r="97" spans="8:10" hidden="1">
       <c r="H97" s="16" t="s">
         <v>258</v>
       </c>
@@ -14227,7 +14526,7 @@
       </c>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="8:10">
+    <row r="98" spans="8:10" hidden="1">
       <c r="H98" s="16" t="s">
         <v>259</v>
       </c>
@@ -14236,7 +14535,7 @@
       </c>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="8:10">
+    <row r="99" spans="8:10" hidden="1">
       <c r="H99" s="16" t="s">
         <v>260</v>
       </c>
@@ -14253,7 +14552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE5E83A-B444-4206-8DA8-1368EF05AF5C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -16115,6 +16414,306 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B674D435-D420-471A-A5F5-9FBCD730FC8D}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.95">
+      <c r="A1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="6">
+        <v>45964</v>
+      </c>
+      <c r="C1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.95">
+      <c r="A2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="6">
+        <v>46153</v>
+      </c>
+      <c r="C2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.95">
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.95">
+      <c r="A4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.95">
+      <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.95">
+      <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.95">
+      <c r="A7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.95">
+      <c r="A8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.95">
+      <c r="A9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.95">
+      <c r="A10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.95">
+      <c r="A11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.95">
+      <c r="A12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.95">
+      <c r="A13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.95">
+      <c r="A14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.95">
+      <c r="C15" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.95">
+      <c r="A16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.95">
+      <c r="A17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.95">
+      <c r="A18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.95">
+      <c r="A19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.95">
+      <c r="A20" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.95">
+      <c r="A21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.95">
+      <c r="A22" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.95">
+      <c r="A23" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.95">
+      <c r="A24" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.95">
+      <c r="A25" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.95">
+      <c r="A26" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.95">
+      <c r="A27" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.95">
+      <c r="A28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{83018CC3-D5E2-45C3-8C9F-657C9C7AB673}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8307E2-C15E-3246-97E6-1FE53EC08157}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -16413,7 +17012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58626D5E-CF7D-7040-8A8E-EE19354196C8}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -16705,304 +17304,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BC729-92D2-4067-85BC-DFDCD994C98C}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
-  <cols>
-    <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.875" style="3"/>
-    <col min="4" max="4" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="13">
-        <v>45946</v>
-      </c>
-      <c r="C1" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="13">
-        <v>45981</v>
-      </c>
-      <c r="C2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="13">
-        <v>46009</v>
-      </c>
-      <c r="C3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{D1E6D444-8A38-4DF4-945C-5FF372BCE724}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17189,16 +17497,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17206,5 +17513,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E75BB5-EC35-4348-AEE6-34122D9A017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76B7488-D5D5-4788-99E4-6103CC3A1C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="14" activeTab="6" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="6" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="264">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Gallagher</t>
-  </si>
-  <si>
-    <t>q</t>
   </si>
   <si>
     <t>Gibbs</t>
@@ -1636,9 +1633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F15" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2703,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2" t="b">
         <v>0</v>
@@ -2848,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="b">
         <v>0</v>
@@ -3138,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2" t="b">
         <v>0</v>
@@ -3406,8 +3403,8 @@
       <c r="D25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
+      <c r="E25" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F25" s="2" t="b">
         <v>1</v>
@@ -3469,7 +3466,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -3540,7 +3537,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -3753,7 +3750,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
@@ -3824,7 +3821,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>25</v>
@@ -3898,7 +3895,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>28</v>
@@ -3969,7 +3966,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
@@ -4040,7 +4037,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>28</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
@@ -4185,7 +4182,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
@@ -4256,7 +4253,7 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>28</v>
@@ -4398,7 +4395,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>28</v>
@@ -4469,7 +4466,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>28</v>
@@ -4540,7 +4537,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>25</v>
@@ -4611,7 +4608,7 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -4682,7 +4679,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>25</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>25</v>
@@ -4824,7 +4821,7 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>28</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
@@ -4966,7 +4963,7 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>28</v>
@@ -5037,7 +5034,7 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>28</v>
@@ -5108,7 +5105,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
@@ -5179,7 +5176,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>25</v>
@@ -5253,7 +5250,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>28</v>
@@ -5324,7 +5321,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>28</v>
@@ -5395,7 +5392,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>28</v>
@@ -5466,7 +5463,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>28</v>
@@ -5540,7 +5537,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>28</v>
@@ -5611,7 +5608,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>28</v>
@@ -5682,7 +5679,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>25</v>
@@ -5753,7 +5750,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>25</v>
@@ -5824,7 +5821,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>28</v>
@@ -5895,7 +5892,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>25</v>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>28</v>
@@ -6037,7 +6034,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>25</v>
@@ -6108,7 +6105,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>25</v>
@@ -6182,7 +6179,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>28</v>
@@ -6253,7 +6250,7 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
@@ -6324,7 +6321,7 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>
@@ -6395,7 +6392,7 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>28</v>
@@ -6466,7 +6463,7 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>25</v>
@@ -6537,7 +6534,7 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -6608,7 +6605,7 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>28</v>
@@ -6679,7 +6676,7 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>28</v>
@@ -6750,7 +6747,7 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>28</v>
@@ -6821,7 +6818,7 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>28</v>
@@ -6892,7 +6889,7 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>28</v>
@@ -6966,7 +6963,7 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
@@ -7037,7 +7034,7 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>28</v>
@@ -7108,7 +7105,7 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>28</v>
@@ -7179,7 +7176,7 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
@@ -7250,7 +7247,7 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>28</v>
@@ -7324,7 +7321,7 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>28</v>
@@ -7395,7 +7392,7 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>28</v>
@@ -7466,7 +7463,7 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>25</v>
@@ -7534,10 +7531,10 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="L83" s="2" t="b">
         <v>1</v>
@@ -7563,10 +7560,10 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L84" s="2" t="b">
         <v>1</v>
@@ -7592,10 +7589,10 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L85" s="2" t="b">
         <v>1</v>
@@ -7621,10 +7618,10 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L86" s="2" t="b">
         <v>1</v>
@@ -7650,10 +7647,10 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L87" s="2" t="b">
         <v>1</v>
@@ -7679,10 +7676,10 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L88" s="2" t="b">
         <v>1</v>
@@ -7708,10 +7705,10 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L89" s="2" t="b">
         <v>1</v>
@@ -7737,10 +7734,10 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L90" s="2" t="b">
         <v>1</v>
@@ -7766,10 +7763,10 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L91" s="2" t="b">
         <v>1</v>
@@ -7795,10 +7792,10 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L92" s="2" t="b">
         <v>1</v>
@@ -7824,10 +7821,10 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L93" s="2" t="b">
         <v>1</v>
@@ -7853,10 +7850,10 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L94" s="2" t="b">
         <v>1</v>
@@ -7882,10 +7879,10 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L95" s="2" t="b">
         <v>1</v>
@@ -7911,10 +7908,10 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L96" s="2" t="b">
         <v>1</v>
@@ -7940,10 +7937,10 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L97" s="2" t="b">
         <v>1</v>
@@ -7969,10 +7966,10 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L98" s="2" t="b">
         <v>1</v>
@@ -7998,10 +7995,10 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="L99" s="2" t="b">
         <v>1</v>
@@ -8027,10 +8024,10 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L100" s="2" t="b">
         <v>1</v>
@@ -8056,10 +8053,10 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L101" s="2" t="b">
         <v>1</v>
@@ -8085,10 +8082,10 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L102" s="2" t="b">
         <v>1</v>
@@ -8114,10 +8111,10 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L103" s="2" t="b">
         <v>1</v>
@@ -8143,10 +8140,10 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L104" s="2" t="b">
         <v>1</v>
@@ -8172,10 +8169,10 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L105" s="2" t="b">
         <v>1</v>
@@ -8201,10 +8198,10 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L106" s="2" t="b">
         <v>1</v>
@@ -8230,10 +8227,10 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L107" s="2" t="b">
         <v>1</v>
@@ -8259,10 +8256,10 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L108" s="2" t="b">
         <v>1</v>
@@ -8288,10 +8285,10 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L109" s="2" t="b">
         <v>1</v>
@@ -8317,10 +8314,10 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L110" s="2" t="b">
         <v>1</v>
@@ -8346,10 +8343,10 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L111" s="2" t="b">
         <v>1</v>
@@ -8375,10 +8372,10 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="L112" s="2" t="b">
         <v>1</v>
@@ -8404,10 +8401,10 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L113" s="2" t="b">
         <v>1</v>
@@ -8433,10 +8430,10 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L114" s="2" t="b">
         <v>1</v>
@@ -8462,10 +8459,10 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L115" s="2" t="b">
         <v>1</v>
@@ -8491,10 +8488,10 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L116" s="2" t="b">
         <v>1</v>
@@ -8520,10 +8517,10 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L117" s="2" t="b">
         <v>1</v>
@@ -8549,10 +8546,10 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L118" s="2" t="b">
         <v>1</v>
@@ -8578,10 +8575,10 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>1</v>
@@ -8613,10 +8610,10 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L120" s="2" t="b">
         <v>1</v>
@@ -8642,10 +8639,10 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L121" s="2" t="b">
         <v>1</v>
@@ -8671,10 +8668,10 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L122" s="2" t="b">
         <v>1</v>
@@ -8700,10 +8697,10 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L123" s="2" t="b">
         <v>1</v>
@@ -8729,10 +8726,10 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L124" s="2" t="b">
         <v>1</v>
@@ -8758,10 +8755,10 @@
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L125" s="2" t="b">
         <v>1</v>
@@ -8787,10 +8784,10 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L126" s="2" t="b">
         <v>1</v>
@@ -8816,10 +8813,10 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L127" s="2" t="b">
         <v>1</v>
@@ -8845,10 +8842,10 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L128" s="2" t="b">
         <v>1</v>
@@ -8874,10 +8871,10 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L129" s="2" t="b">
         <v>1</v>
@@ -8903,10 +8900,10 @@
     </row>
     <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="L130" s="2" t="b">
         <v>1</v>
@@ -8932,10 +8929,10 @@
     </row>
     <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L131" s="2" t="b">
         <v>1</v>
@@ -8961,10 +8958,10 @@
     </row>
     <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L132" s="2" t="b">
         <v>1</v>
@@ -8990,10 +8987,10 @@
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L133" s="2" t="b">
         <v>1</v>
@@ -9019,10 +9016,10 @@
     </row>
     <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L134" s="2" t="b">
         <v>1</v>
@@ -9048,10 +9045,10 @@
     </row>
     <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L135" s="2" t="b">
         <v>1</v>
@@ -9077,10 +9074,10 @@
     </row>
     <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L136" s="2" t="b">
         <v>1</v>
@@ -9106,10 +9103,10 @@
     </row>
     <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L137" s="2" t="b">
         <v>1</v>
@@ -9135,10 +9132,10 @@
     </row>
     <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L138" s="2" t="b">
         <v>1</v>
@@ -9164,10 +9161,10 @@
     </row>
     <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L139" s="2" t="b">
         <v>1</v>
@@ -9193,10 +9190,10 @@
     </row>
     <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L140" s="2" t="b">
         <v>1</v>
@@ -9222,10 +9219,10 @@
     </row>
     <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L141" s="2" t="b">
         <v>1</v>
@@ -9251,10 +9248,10 @@
     </row>
     <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L142" s="2" t="b">
         <v>1</v>
@@ -9280,10 +9277,10 @@
     </row>
     <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L143" s="2" t="b">
         <v>1</v>
@@ -9309,10 +9306,10 @@
     </row>
     <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L144" s="2" t="b">
         <v>1</v>
@@ -9338,10 +9335,10 @@
     </row>
     <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L145" s="2" t="b">
         <v>1</v>
@@ -9367,10 +9364,10 @@
     </row>
     <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L146" s="2" t="b">
         <v>1</v>
@@ -9396,10 +9393,10 @@
     </row>
     <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L147" s="2" t="b">
         <v>1</v>
@@ -9425,10 +9422,10 @@
     </row>
     <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L148" s="2" t="b">
         <v>1</v>
@@ -9454,10 +9451,10 @@
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L149" s="2" t="b">
         <v>1</v>
@@ -9483,10 +9480,10 @@
     </row>
     <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L150" s="2" t="b">
         <v>1</v>
@@ -9512,10 +9509,10 @@
     </row>
     <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L151" s="2" t="b">
         <v>1</v>
@@ -9541,10 +9538,10 @@
     </row>
     <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L152" s="2" t="b">
         <v>1</v>
@@ -9570,10 +9567,10 @@
     </row>
     <row r="153" spans="1:24" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L153" s="2" t="b">
         <v>1</v>
@@ -9599,10 +9596,10 @@
     </row>
     <row r="154" spans="1:24" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L154" s="2" t="b">
         <v>1</v>
@@ -9628,10 +9625,10 @@
     </row>
     <row r="155" spans="1:24" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L155" s="2" t="b">
         <v>1</v>
@@ -9681,7 +9678,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>45946</v>
@@ -9695,7 +9692,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>45981</v>
@@ -9709,7 +9706,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>46009</v>
@@ -9723,7 +9720,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -9734,7 +9731,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -9745,7 +9742,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -9756,7 +9753,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -9767,7 +9764,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -9778,7 +9775,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -9790,7 +9787,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -9802,7 +9799,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -9814,7 +9811,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -9826,7 +9823,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -9838,7 +9835,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -9850,18 +9847,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -9869,15 +9866,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -9885,15 +9882,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -9901,7 +9898,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -9909,37 +9906,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -9973,7 +9970,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>46029</v>
@@ -9987,7 +9984,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>46057</v>
@@ -10001,7 +9998,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>46085</v>
@@ -10015,7 +10012,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10026,7 +10023,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10037,7 +10034,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10048,7 +10045,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10059,7 +10056,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10070,7 +10067,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10082,7 +10079,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10094,7 +10091,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10106,7 +10103,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10118,7 +10115,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10130,7 +10127,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10142,18 +10139,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10161,15 +10158,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10177,15 +10174,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10193,7 +10190,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10201,37 +10198,37 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10266,7 +10263,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>46037</v>
@@ -10280,7 +10277,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>46072</v>
@@ -10294,7 +10291,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>46100</v>
@@ -10308,7 +10305,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10319,7 +10316,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10330,7 +10327,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10341,7 +10338,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10352,7 +10349,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10363,7 +10360,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10375,7 +10372,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10387,7 +10384,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10399,7 +10396,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10411,7 +10408,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10423,7 +10420,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10435,18 +10432,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10454,15 +10451,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10470,15 +10467,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10486,7 +10483,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10494,37 +10491,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10558,7 +10555,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>46113</v>
@@ -10572,7 +10569,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>46148</v>
@@ -10586,7 +10583,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>46176</v>
@@ -10600,7 +10597,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10611,7 +10608,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10622,7 +10619,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10633,7 +10630,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10644,7 +10641,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10655,7 +10652,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10667,7 +10664,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10679,7 +10676,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10691,7 +10688,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10703,7 +10700,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10715,7 +10712,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10727,18 +10724,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10746,15 +10743,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10762,15 +10759,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10778,7 +10775,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10786,37 +10783,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10851,7 +10848,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>46128</v>
@@ -10865,7 +10862,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>46163</v>
@@ -10879,7 +10876,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>46191</v>
@@ -10893,7 +10890,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10904,7 +10901,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10915,7 +10912,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10926,7 +10923,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10937,7 +10934,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10948,7 +10945,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10960,7 +10957,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10972,7 +10969,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10984,7 +10981,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10996,7 +10993,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11008,7 +11005,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11020,18 +11017,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11039,15 +11036,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11055,15 +11052,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11071,7 +11068,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11079,37 +11076,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11143,7 +11140,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>46204</v>
@@ -11157,7 +11154,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>46239</v>
@@ -11171,7 +11168,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>46267</v>
@@ -11185,7 +11182,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11196,7 +11193,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11207,7 +11204,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -11218,7 +11215,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11229,7 +11226,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11240,7 +11237,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11252,7 +11249,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11264,7 +11261,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11276,7 +11273,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11288,7 +11285,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11300,7 +11297,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11312,18 +11309,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11331,15 +11328,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11347,15 +11344,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11363,7 +11360,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11371,37 +11368,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11436,7 +11433,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>46219</v>
@@ -11450,7 +11447,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>46254</v>
@@ -11464,7 +11461,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>46282</v>
@@ -11478,7 +11475,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11489,7 +11486,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11500,7 +11497,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -11511,7 +11508,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11522,7 +11519,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11533,7 +11530,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11545,7 +11542,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11557,7 +11554,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11569,7 +11566,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11581,7 +11578,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11593,7 +11590,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11605,18 +11602,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11624,15 +11621,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11640,15 +11637,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11656,7 +11653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11664,37 +11661,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11728,7 +11725,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="6">
         <v>45974</v>
@@ -11740,12 +11737,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6">
         <v>46035</v>
@@ -11757,12 +11754,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6">
         <v>46063</v>
@@ -11774,12 +11771,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6">
         <v>46091</v>
@@ -11791,12 +11788,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6">
         <v>46114</v>
@@ -11808,12 +11805,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="6">
         <v>46170</v>
@@ -11825,12 +11822,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11841,7 +11838,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11852,7 +11849,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11864,7 +11861,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11876,7 +11873,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11888,7 +11885,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11900,7 +11897,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11912,7 +11909,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11924,18 +11921,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -11943,15 +11940,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11959,15 +11956,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11975,7 +11972,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11983,37 +11980,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -12047,7 +12044,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="8">
         <v>46042</v>
@@ -12059,12 +12056,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="12" t="b">
@@ -12076,7 +12073,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="12" t="b">
@@ -12088,7 +12085,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="b">
@@ -12100,7 +12097,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="b">
@@ -12112,7 +12109,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="b">
@@ -12124,7 +12121,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="b">
@@ -12136,7 +12133,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12147,7 +12144,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12159,7 +12156,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12171,7 +12168,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12183,7 +12180,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12195,7 +12192,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12207,7 +12204,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12219,18 +12216,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -12238,15 +12235,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12254,15 +12251,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12270,7 +12267,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -12278,41 +12275,41 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -12346,7 +12343,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="8">
         <v>46253</v>
@@ -12358,12 +12355,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="8">
         <v>46260</v>
@@ -12375,12 +12372,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="8">
         <v>46266</v>
@@ -12392,12 +12389,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="8">
         <v>46274</v>
@@ -12409,12 +12406,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="8">
         <v>46280</v>
@@ -12426,12 +12423,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="8">
         <v>46288</v>
@@ -12443,12 +12440,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="8">
         <v>46294</v>
@@ -12460,12 +12457,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12476,7 +12473,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12488,7 +12485,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12500,7 +12497,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12512,7 +12509,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12524,7 +12521,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12536,7 +12533,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12548,18 +12545,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -12567,15 +12564,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -12583,15 +12580,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -12599,7 +12596,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -12607,7 +12604,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -12615,7 +12612,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -12623,7 +12620,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -12631,7 +12628,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -12639,17 +12636,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -12684,7 +12681,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="17">
         <v>46147</v>
@@ -12696,12 +12693,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17">
         <v>46162</v>
@@ -12713,12 +12710,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="17">
         <v>46168</v>
@@ -12730,12 +12727,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="17">
         <v>46175</v>
@@ -12747,12 +12744,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="17">
         <v>46183</v>
@@ -12764,12 +12761,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="17">
         <v>46189</v>
@@ -12781,12 +12778,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="17">
         <v>46203</v>
@@ -12798,12 +12795,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="9">
         <v>46211</v>
@@ -12815,12 +12812,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9">
         <v>46217</v>
@@ -12832,12 +12829,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9">
         <v>46225</v>
@@ -12849,12 +12846,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9">
         <v>46231</v>
@@ -12866,12 +12863,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9">
         <v>46238</v>
@@ -12883,12 +12880,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9">
         <v>46246</v>
@@ -12900,12 +12897,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12917,18 +12914,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -12936,15 +12933,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -12952,15 +12949,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -12976,7 +12973,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -12984,7 +12981,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -12992,7 +12989,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -13000,7 +12997,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -13008,17 +13005,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -13053,7 +13050,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="17">
         <v>45946</v>
@@ -13065,12 +13062,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17">
         <v>45950</v>
@@ -13082,12 +13079,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="17">
         <v>45982</v>
@@ -13099,12 +13096,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="12" t="b">
@@ -13116,7 +13113,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="12" t="b">
@@ -13128,7 +13125,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="12" t="b">
@@ -13140,7 +13137,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="12" t="b">
@@ -13152,7 +13149,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="b">
@@ -13164,7 +13161,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -13176,7 +13173,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -13188,7 +13185,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -13200,7 +13197,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -13212,7 +13209,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -13224,7 +13221,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -13236,18 +13233,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -13255,15 +13252,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -13271,15 +13268,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -13295,41 +13292,41 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -13361,7 +13358,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -13382,36 +13379,36 @@
         <v>15</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" t="s">
         <v>224</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>225</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>226</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>227</v>
-      </c>
-      <c r="N1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="D2" s="6">
         <v>46042</v>
@@ -13423,10 +13420,10 @@
         <v>46253</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>233</v>
       </c>
       <c r="I2" s="18">
         <v>45931</v>
@@ -13436,10 +13433,10 @@
     <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="E3" s="6">
         <v>46035</v>
@@ -13448,7 +13445,7 @@
         <v>46260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" s="18">
         <v>45966</v>
@@ -13464,7 +13461,7 @@
         <v>46266</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I4" s="18">
         <v>45994</v>
@@ -13480,13 +13477,13 @@
         <v>46274</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I5" s="18">
         <v>46029</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1">
@@ -13498,7 +13495,7 @@
         <v>46280</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I6" s="18">
         <v>46057</v>
@@ -13514,7 +13511,7 @@
         <v>46288</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I7" s="18">
         <v>46085</v>
@@ -13527,7 +13524,7 @@
         <v>46294</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I8" s="18">
         <v>46113</v>
@@ -13536,18 +13533,18 @@
     </row>
     <row r="9" spans="1:14" hidden="1">
       <c r="H9" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I9" s="18">
         <v>46148</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1">
       <c r="H10" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I10" s="18">
         <v>46176</v>
@@ -13556,7 +13553,7 @@
     </row>
     <row r="11" spans="1:14" hidden="1">
       <c r="H11" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I11" s="18">
         <v>46204</v>
@@ -13566,7 +13563,7 @@
     <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I12" s="18">
         <v>46239</v>
@@ -13576,19 +13573,19 @@
     <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I13" s="18">
         <v>46267</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I14" s="18">
         <v>45946</v>
@@ -13598,19 +13595,19 @@
     <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I15" s="18">
         <v>45981</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I16" s="18">
         <v>46009</v>
@@ -13619,7 +13616,7 @@
     </row>
     <row r="17" spans="1:10" hidden="1">
       <c r="H17" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I17" s="18">
         <v>46037</v>
@@ -13628,7 +13625,7 @@
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="H18" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I18" s="18">
         <v>46072</v>
@@ -13637,19 +13634,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="H19" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I19" s="18">
         <v>46100</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I20" s="18">
         <v>46128</v>
@@ -13659,7 +13656,7 @@
     <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I21" s="18">
         <v>46163</v>
@@ -13669,7 +13666,7 @@
     <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I22" s="18">
         <v>46191</v>
@@ -13679,19 +13676,19 @@
     <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I23" s="18">
         <v>46219</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I24" s="18">
         <v>46254</v>
@@ -13700,7 +13697,7 @@
     </row>
     <row r="25" spans="1:10" hidden="1">
       <c r="H25" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I25" s="18">
         <v>46282</v>
@@ -13709,7 +13706,7 @@
     </row>
     <row r="26" spans="1:10" hidden="1">
       <c r="H26" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I26" s="18">
         <v>45945</v>
@@ -13719,7 +13716,7 @@
     <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I27" s="18">
         <v>45959</v>
@@ -13729,7 +13726,7 @@
     <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I28" s="18">
         <v>45979</v>
@@ -13739,7 +13736,7 @@
     <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I29" s="18">
         <v>46001</v>
@@ -13749,7 +13746,7 @@
     <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I30" s="18">
         <v>46008</v>
@@ -13759,7 +13756,7 @@
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I31" s="18">
         <v>46028</v>
@@ -13769,7 +13766,7 @@
     <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I32" s="18">
         <v>46043</v>
@@ -13778,7 +13775,7 @@
     </row>
     <row r="33" spans="1:10" hidden="1">
       <c r="H33" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I33" s="18">
         <v>46050</v>
@@ -13787,7 +13784,7 @@
     </row>
     <row r="34" spans="1:10" hidden="1">
       <c r="H34" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I34" s="18">
         <v>46056</v>
@@ -13796,7 +13793,7 @@
     </row>
     <row r="35" spans="1:10" hidden="1">
       <c r="H35" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I35" s="18">
         <v>46064</v>
@@ -13805,7 +13802,7 @@
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="H36" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I36" s="18">
         <v>46070</v>
@@ -13814,7 +13811,7 @@
     </row>
     <row r="37" spans="1:10" hidden="1">
       <c r="H37" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I37" s="18">
         <v>46078</v>
@@ -13823,7 +13820,7 @@
     </row>
     <row r="38" spans="1:10" hidden="1">
       <c r="H38" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I38" s="18">
         <v>46084</v>
@@ -13832,7 +13829,7 @@
     </row>
     <row r="39" spans="1:10" hidden="1">
       <c r="H39" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I39" s="18">
         <v>46092</v>
@@ -13842,7 +13839,7 @@
     <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I40" s="18">
         <v>46099</v>
@@ -13854,7 +13851,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I41" s="18">
         <v>46112</v>
@@ -13866,7 +13863,7 @@
         <v>46253</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I42" s="18">
         <v>46120</v>
@@ -13878,13 +13875,13 @@
         <v>46260</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I43" s="18">
         <v>46126</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1">
@@ -13892,13 +13889,13 @@
         <v>46266</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I44" s="18">
         <v>46134</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1">
@@ -13906,13 +13903,13 @@
         <v>46274</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I45" s="18">
         <v>46140</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1">
@@ -13920,7 +13917,7 @@
         <v>46280</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I46" s="18">
         <v>45951</v>
@@ -13932,7 +13929,7 @@
         <v>46288</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I47" s="18">
         <v>45983</v>
@@ -13944,7 +13941,7 @@
         <v>46294</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I48" s="18">
         <v>45993</v>
@@ -13956,7 +13953,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I49" s="18">
         <v>46036</v>
@@ -13965,10 +13962,10 @@
     </row>
     <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I50" s="18">
         <v>46077</v>
@@ -13978,7 +13975,7 @@
     <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I51" s="18">
         <v>46106</v>
@@ -13988,7 +13985,7 @@
     <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I52" s="18">
         <v>46141</v>
@@ -13998,7 +13995,7 @@
     <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I53" s="18">
         <v>46161</v>
@@ -14008,7 +14005,7 @@
     <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I54" s="18">
         <v>46190</v>
@@ -14018,7 +14015,7 @@
     <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I55" s="18">
         <v>46224</v>
@@ -14028,7 +14025,7 @@
     <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I56" s="18">
         <v>46245</v>
@@ -14037,7 +14034,7 @@
     </row>
     <row r="57" spans="1:10" hidden="1">
       <c r="H57" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I57" s="18">
         <v>46295</v>
@@ -14046,7 +14043,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1">
       <c r="H58" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I58" s="18">
         <v>46147</v>
@@ -14055,7 +14052,7 @@
     </row>
     <row r="59" spans="1:10" hidden="1">
       <c r="H59" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I59" s="18">
         <v>46162</v>
@@ -14064,7 +14061,7 @@
     </row>
     <row r="60" spans="1:10" hidden="1">
       <c r="H60" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I60" s="18">
         <v>46168</v>
@@ -14073,7 +14070,7 @@
     </row>
     <row r="61" spans="1:10" hidden="1">
       <c r="H61" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I61" s="18">
         <v>46175</v>
@@ -14082,7 +14079,7 @@
     </row>
     <row r="62" spans="1:10" hidden="1">
       <c r="H62" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I62" s="18">
         <v>46183</v>
@@ -14091,7 +14088,7 @@
     </row>
     <row r="63" spans="1:10" hidden="1">
       <c r="H63" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I63" s="18">
         <v>46189</v>
@@ -14100,7 +14097,7 @@
     </row>
     <row r="64" spans="1:10" hidden="1">
       <c r="H64" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I64" s="18">
         <v>46203</v>
@@ -14109,7 +14106,7 @@
     </row>
     <row r="65" spans="8:14" hidden="1">
       <c r="H65" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I65" s="18">
         <v>46211</v>
@@ -14118,7 +14115,7 @@
     </row>
     <row r="66" spans="8:14" hidden="1">
       <c r="H66" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I66" s="18">
         <v>46217</v>
@@ -14127,7 +14124,7 @@
     </row>
     <row r="67" spans="8:14" hidden="1">
       <c r="H67" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I67" s="18">
         <v>46225</v>
@@ -14136,40 +14133,40 @@
     </row>
     <row r="68" spans="8:14" hidden="1">
       <c r="H68" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I68" s="18">
         <v>46231</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="8:14" hidden="1">
       <c r="H69" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I69" s="18">
         <v>46238</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="8:14" hidden="1">
       <c r="H70" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I70" s="18">
         <v>46246</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="8:14" hidden="1">
       <c r="H71" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I71" s="18">
         <v>46253</v>
@@ -14178,7 +14175,7 @@
     </row>
     <row r="72" spans="8:14" hidden="1">
       <c r="H72" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I72" s="18">
         <v>46260</v>
@@ -14187,7 +14184,7 @@
     </row>
     <row r="73" spans="8:14" hidden="1">
       <c r="H73" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I73" s="18">
         <v>46266</v>
@@ -14196,7 +14193,7 @@
     </row>
     <row r="74" spans="8:14" hidden="1">
       <c r="H74" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I74" s="18">
         <v>46274</v>
@@ -14205,7 +14202,7 @@
     </row>
     <row r="75" spans="8:14" hidden="1">
       <c r="H75" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I75" s="18">
         <v>46280</v>
@@ -14214,7 +14211,7 @@
     </row>
     <row r="76" spans="8:14" hidden="1">
       <c r="H76" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I76" s="18">
         <v>46288</v>
@@ -14223,7 +14220,7 @@
     </row>
     <row r="77" spans="8:14" hidden="1">
       <c r="H77" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I77" s="18">
         <v>46294</v>
@@ -14232,16 +14229,16 @@
     </row>
     <row r="78" spans="8:14" hidden="1">
       <c r="H78" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I78" s="18">
         <v>45946</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
@@ -14249,16 +14246,16 @@
     </row>
     <row r="79" spans="8:14" hidden="1">
       <c r="H79" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I79" s="18">
         <v>45950</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
@@ -14266,16 +14263,16 @@
     </row>
     <row r="80" spans="8:14" hidden="1">
       <c r="H80" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I80" s="18">
         <v>45982</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
@@ -14283,7 +14280,7 @@
     </row>
     <row r="81" spans="8:14" hidden="1">
       <c r="H81" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="16"/>
@@ -14297,7 +14294,7 @@
         <v>9</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -14310,7 +14307,7 @@
         <v>9</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
@@ -14323,7 +14320,7 @@
         <v>10</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
@@ -14336,7 +14333,7 @@
         <v>10</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
@@ -14346,7 +14343,7 @@
     </row>
     <row r="86" spans="8:14" hidden="1">
       <c r="H86" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I86" s="18">
         <v>45677</v>
@@ -14359,7 +14356,7 @@
     </row>
     <row r="87" spans="8:14" hidden="1">
       <c r="H87" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I87" s="18">
         <v>45739</v>
@@ -14450,76 +14447,76 @@
     </row>
     <row r="94" spans="8:14" hidden="1">
       <c r="H94" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I94" s="18">
         <v>45981</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K94" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M94" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N94" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="8:14" hidden="1">
       <c r="H95" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I95" s="18">
         <v>45672</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K95" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M95" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N95" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="8:14" hidden="1">
       <c r="H96" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I96" s="18">
         <v>45735</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M96" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="8:10" hidden="1">
       <c r="H97" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I97" s="18">
         <v>45798</v>
@@ -14528,7 +14525,7 @@
     </row>
     <row r="98" spans="8:10" hidden="1">
       <c r="H98" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I98" s="18">
         <v>45854</v>
@@ -14537,7 +14534,7 @@
     </row>
     <row r="99" spans="8:10" hidden="1">
       <c r="H99" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I99" s="18">
         <v>45917</v>
@@ -14593,416 +14590,416 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" t="s">
         <v>261</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>261</v>
       </c>
-      <c r="D2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" t="s">
-        <v>262</v>
-      </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
         <v>261</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>261</v>
-      </c>
-      <c r="F4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
         <v>262</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>262</v>
       </c>
-      <c r="D5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" t="s">
-        <v>263</v>
-      </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" t="s">
         <v>261</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>261</v>
-      </c>
-      <c r="F6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" t="s">
         <v>262</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>262</v>
-      </c>
-      <c r="F7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>263</v>
-      </c>
-      <c r="D9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" t="s">
         <v>262</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
         <v>262</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>262</v>
       </c>
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" t="s">
-        <v>263</v>
-      </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" t="s">
         <v>261</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>261</v>
       </c>
-      <c r="D12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" t="s">
-        <v>262</v>
-      </c>
       <c r="F12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" t="s">
         <v>261</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>261</v>
-      </c>
-      <c r="F13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" t="s">
         <v>261</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>261</v>
-      </c>
-      <c r="F14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" t="s">
         <v>262</v>
       </c>
-      <c r="C15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" t="s">
-        <v>263</v>
-      </c>
       <c r="E15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" t="s">
         <v>261</v>
       </c>
-      <c r="F15" t="s">
-        <v>262</v>
-      </c>
       <c r="G15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="s">
         <v>262</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>262</v>
       </c>
-      <c r="D16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" t="s">
-        <v>263</v>
-      </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" t="s">
         <v>261</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>261</v>
       </c>
-      <c r="D17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" t="s">
-        <v>262</v>
-      </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" t="s">
         <v>261</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>261</v>
       </c>
-      <c r="D18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" t="s">
-        <v>262</v>
-      </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" t="s">
         <v>261</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>261</v>
       </c>
-      <c r="D19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" t="s">
-        <v>262</v>
-      </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -15029,7 +15026,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="17">
         <v>46050</v>
@@ -15041,12 +15038,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17">
         <v>46056</v>
@@ -15058,12 +15055,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="17">
         <v>46064</v>
@@ -15075,12 +15072,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="17">
         <v>46070</v>
@@ -15092,12 +15089,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="17">
         <v>46078</v>
@@ -15109,12 +15106,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="17">
         <v>46084</v>
@@ -15126,12 +15123,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="17">
         <v>46092</v>
@@ -15143,12 +15140,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="9">
         <v>46099</v>
@@ -15160,12 +15157,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9">
         <v>46112</v>
@@ -15177,12 +15174,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9">
         <v>46120</v>
@@ -15194,12 +15191,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9">
         <v>46126</v>
@@ -15211,12 +15208,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9">
         <v>46134</v>
@@ -15228,12 +15225,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9">
         <v>46140</v>
@@ -15245,12 +15242,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -15262,18 +15259,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -15281,15 +15278,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -15297,15 +15294,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -15313,7 +15310,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -15321,7 +15318,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -15329,7 +15326,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -15337,7 +15334,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -15345,7 +15342,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -15353,17 +15350,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -15398,7 +15395,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="17">
         <v>45951</v>
@@ -15410,12 +15407,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17">
         <v>45973</v>
@@ -15427,12 +15424,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="17">
         <v>45993</v>
@@ -15444,12 +15441,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="17">
         <v>46036</v>
@@ -15461,12 +15458,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="17">
         <v>46077</v>
@@ -15478,12 +15475,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="17">
         <v>46106</v>
@@ -15495,12 +15492,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="17">
         <v>46141</v>
@@ -15512,12 +15509,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="9">
         <v>46161</v>
@@ -15529,12 +15526,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9">
         <v>46190</v>
@@ -15546,12 +15543,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9">
         <v>46224</v>
@@ -15563,12 +15560,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9">
         <v>46245</v>
@@ -15580,12 +15577,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9">
         <v>46295</v>
@@ -15597,12 +15594,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -15614,7 +15611,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -15626,18 +15623,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -15645,15 +15642,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -15661,15 +15658,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -15677,7 +15674,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -15685,7 +15682,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -15693,7 +15690,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -15701,7 +15698,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -15709,7 +15706,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -15717,17 +15714,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -15762,7 +15759,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="8">
         <v>45945</v>
@@ -15774,12 +15771,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="8">
         <v>45959</v>
@@ -15791,12 +15788,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="8">
         <v>45979</v>
@@ -15808,12 +15805,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="8">
         <v>46001</v>
@@ -15825,12 +15822,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="8">
         <v>46008</v>
@@ -15842,12 +15839,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="8">
         <v>46028</v>
@@ -15859,12 +15856,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="8">
         <v>46043</v>
@@ -15876,12 +15873,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -15892,7 +15889,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -15904,7 +15901,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -15916,7 +15913,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -15928,7 +15925,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -15940,7 +15937,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -15952,7 +15949,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -15964,18 +15961,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -15983,15 +15980,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -15999,15 +15996,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -16015,7 +16012,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -16023,7 +16020,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -16031,7 +16028,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -16039,7 +16036,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -16047,7 +16044,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -16055,17 +16052,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -16099,7 +16096,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="9">
         <v>45957</v>
@@ -16111,12 +16108,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="9">
         <f>B1+1</f>
@@ -16129,12 +16126,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B6" si="0">B2+1</f>
@@ -16147,12 +16144,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" si="0"/>
@@ -16165,12 +16162,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
@@ -16183,12 +16180,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
@@ -16201,12 +16198,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="b">
@@ -16218,7 +16215,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="b">
@@ -16230,7 +16227,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16242,7 +16239,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16254,7 +16251,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16266,7 +16263,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16278,7 +16275,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16290,7 +16287,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16302,18 +16299,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>28</v>
@@ -16321,15 +16318,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -16337,15 +16334,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="10">
         <v>0.33333333333333331</v>
@@ -16353,7 +16350,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="10">
         <v>0.66666666666666663</v>
@@ -16361,43 +16358,43 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -16417,7 +16414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B674D435-D420-471A-A5F5-9FBCD730FC8D}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16432,7 +16429,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="6">
         <v>45964</v>
@@ -16444,12 +16441,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6">
         <v>46153</v>
@@ -16461,12 +16458,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -16478,7 +16475,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -16490,7 +16487,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -16502,7 +16499,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -16514,7 +16511,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -16525,7 +16522,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -16536,7 +16533,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16548,7 +16545,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16560,7 +16557,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16572,7 +16569,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16584,7 +16581,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16596,7 +16593,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16608,18 +16605,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -16627,15 +16624,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -16643,15 +16640,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -16659,7 +16656,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -16667,37 +16664,37 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -16731,7 +16728,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="6">
         <v>45936</v>
@@ -16743,12 +16740,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6">
         <v>46118</v>
@@ -16760,12 +16757,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -16777,7 +16774,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -16789,7 +16786,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -16801,7 +16798,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -16813,7 +16810,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -16824,7 +16821,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -16835,7 +16832,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16847,7 +16844,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16859,7 +16856,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16871,7 +16868,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16883,7 +16880,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16895,7 +16892,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16907,18 +16904,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -16926,15 +16923,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -16942,15 +16939,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -16958,7 +16955,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -16966,37 +16963,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -17030,7 +17027,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13">
         <v>45931</v>
@@ -17044,7 +17041,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>45966</v>
@@ -17058,7 +17055,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13">
         <v>45994</v>
@@ -17072,7 +17069,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -17083,7 +17080,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -17094,7 +17091,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -17105,7 +17102,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -17116,7 +17113,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -17127,7 +17124,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -17139,7 +17136,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -17151,7 +17148,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -17163,7 +17160,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -17175,7 +17172,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -17187,7 +17184,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -17199,18 +17196,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -17218,15 +17215,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -17234,15 +17231,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -17250,7 +17247,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -17258,37 +17255,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -17305,15 +17302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -17496,6 +17484,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -17505,11 +17502,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76B7488-D5D5-4788-99E4-6103CC3A1C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAE9E6A-91B7-459E-8CE6-874CBF1D1BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="6" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="264">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -494,358 +494,358 @@
     <t>Gold</t>
   </si>
   <si>
+    <t>Hardiman</t>
+  </si>
+  <si>
+    <t>Krant</t>
+  </si>
+  <si>
+    <t>Laranjeira</t>
+  </si>
+  <si>
+    <t>Lund</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Pimentel</t>
+  </si>
+  <si>
+    <t>Prins</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Rowell</t>
+  </si>
+  <si>
+    <t>Tonelli</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Christian Rubbert</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>Firat Iletir</t>
+  </si>
+  <si>
+    <t>Jeffrey Kelleher</t>
+  </si>
+  <si>
+    <t>Joseph Samaro</t>
+  </si>
+  <si>
+    <t>Prassuna Budlong</t>
+  </si>
+  <si>
+    <t>Ronald Baker</t>
+  </si>
+  <si>
+    <t>Stephen Moran</t>
+  </si>
+  <si>
+    <t>Alex Fouillit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris McDonald </t>
+  </si>
+  <si>
+    <t>Craig DiGiovanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan Quinn </t>
+  </si>
+  <si>
+    <t>Doug Atkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Varela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian Hurst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Kelly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Lanteigne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Ahrens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Onorato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Falzone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan Fancher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick J. Sullivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Lamb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Jensen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaddeus Yukna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Pascoe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">William White </t>
+  </si>
+  <si>
+    <t>Date 1</t>
+  </si>
+  <si>
+    <t>KBED</t>
+  </si>
+  <si>
+    <t>Date 2</t>
+  </si>
+  <si>
+    <t>Date 3</t>
+  </si>
+  <si>
+    <t>Date 4</t>
+  </si>
+  <si>
+    <t>Date 5</t>
+  </si>
+  <si>
+    <t>Date 6</t>
+  </si>
+  <si>
+    <t>Date 7</t>
+  </si>
+  <si>
+    <t>Date 8</t>
+  </si>
+  <si>
+    <t>Date 9</t>
+  </si>
+  <si>
+    <t>Date 10</t>
+  </si>
+  <si>
+    <t>Date 11</t>
+  </si>
+  <si>
+    <t>KPYM</t>
+  </si>
+  <si>
+    <t>Date 12</t>
+  </si>
+  <si>
+    <t>Date 13</t>
+  </si>
+  <si>
+    <t>Date 14</t>
+  </si>
+  <si>
+    <t>LIVE Option</t>
+  </si>
+  <si>
+    <t>Can work N prior?</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>How Many Students Per Class?</t>
+  </si>
+  <si>
+    <t>Nurses and Medic Separate?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>How Many Classes Per Day?</t>
+  </si>
+  <si>
+    <t>Is this a two day class?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Time 1 START</t>
+  </si>
+  <si>
+    <t>Time 1 END</t>
+  </si>
+  <si>
+    <t>Time 2 START</t>
+  </si>
+  <si>
+    <t>Time 2 END</t>
+  </si>
+  <si>
+    <t>Time 3 START</t>
+  </si>
+  <si>
+    <t>Time 3 END</t>
+  </si>
+  <si>
+    <t>Time 4 START</t>
+  </si>
+  <si>
+    <t>Time 4 END</t>
+  </si>
+  <si>
+    <t>Instructors per day</t>
+  </si>
+  <si>
+    <t>BAW</t>
+  </si>
+  <si>
+    <t>MGH</t>
+  </si>
+  <si>
+    <t>Lahey</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>DATES</t>
+  </si>
+  <si>
+    <t>10/6-7/25</t>
+  </si>
+  <si>
+    <t>11/3-4/25</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>WED Staff Mtg</t>
+  </si>
+  <si>
+    <t>4/6-7/26</t>
+  </si>
+  <si>
+    <t>5/11-12/26</t>
+  </si>
+  <si>
+    <t>LIVE</t>
+  </si>
+  <si>
+    <t>THURS Staff Mtg</t>
+  </si>
+  <si>
+    <t>MICRO Sim</t>
+  </si>
+  <si>
+    <t>Airway Sim</t>
+  </si>
+  <si>
+    <t>PYM</t>
+  </si>
+  <si>
+    <t>Decision Making Sim</t>
+  </si>
+  <si>
+    <t>Neo Sim</t>
+  </si>
+  <si>
+    <t>PYM?</t>
+  </si>
+  <si>
+    <t>OB Sim</t>
+  </si>
+  <si>
+    <t>ATLS  BWH</t>
+  </si>
+  <si>
+    <t>ATLS  MGH</t>
+  </si>
+  <si>
+    <t>ATLS Lahey</t>
+  </si>
+  <si>
+    <t>ATLS 2026 TBD</t>
+  </si>
+  <si>
+    <t>10/6-10/7</t>
+  </si>
+  <si>
+    <t>4/6-4/7</t>
+  </si>
+  <si>
+    <t>11/3-11/4</t>
+  </si>
+  <si>
+    <t>5/11-5/12</t>
+  </si>
+  <si>
+    <t>Ps of Pregnancy ( OB FCCS lite)</t>
+  </si>
+  <si>
+    <t>Phase V  ECMO VAD</t>
+  </si>
+  <si>
+    <t>Phase V  Ultrasound</t>
+  </si>
+  <si>
+    <t>Phase V   Mech Vent I/ CHD I</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Phase V   Mech Vent II/ Tox</t>
+  </si>
+  <si>
+    <t>Phase V  Aviation Weather/EKG</t>
+  </si>
+  <si>
+    <t>Phase V   CHD II/Equipment Troubleshooting</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Grazioso</t>
-  </si>
-  <si>
-    <t>Hardiman</t>
-  </si>
-  <si>
-    <t>Krant</t>
-  </si>
-  <si>
-    <t>Laranjeira</t>
-  </si>
-  <si>
-    <t>Lund</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>Pimentel</t>
-  </si>
-  <si>
-    <t>Prins</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Rowell</t>
-  </si>
-  <si>
-    <t>Tonelli</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Christian Rubbert</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>Firat Iletir</t>
-  </si>
-  <si>
-    <t>Jeffrey Kelleher</t>
-  </si>
-  <si>
-    <t>Joseph Samaro</t>
-  </si>
-  <si>
-    <t>Prassuna Budlong</t>
-  </si>
-  <si>
-    <t>Ronald Baker</t>
-  </si>
-  <si>
-    <t>Stephen Moran</t>
-  </si>
-  <si>
-    <t>Alex Fouillit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris McDonald </t>
-  </si>
-  <si>
-    <t>Craig DiGiovanni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan Quinn </t>
-  </si>
-  <si>
-    <t>Doug Atkins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Varela </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian Hurst </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph Kelly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keith Lanteigne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Ahrens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Onorato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Falzone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathan Fancher </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick J. Sullivan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Lamb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven Jensen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thaddeus Yukna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony Pascoe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">William White </t>
-  </si>
-  <si>
-    <t>Date 1</t>
-  </si>
-  <si>
-    <t>KBED</t>
-  </si>
-  <si>
-    <t>Date 2</t>
-  </si>
-  <si>
-    <t>Date 3</t>
-  </si>
-  <si>
-    <t>Date 4</t>
-  </si>
-  <si>
-    <t>Date 5</t>
-  </si>
-  <si>
-    <t>Date 6</t>
-  </si>
-  <si>
-    <t>Date 7</t>
-  </si>
-  <si>
-    <t>Date 8</t>
-  </si>
-  <si>
-    <t>Date 9</t>
-  </si>
-  <si>
-    <t>Date 10</t>
-  </si>
-  <si>
-    <t>Date 11</t>
-  </si>
-  <si>
-    <t>KPYM</t>
-  </si>
-  <si>
-    <t>Date 12</t>
-  </si>
-  <si>
-    <t>Date 13</t>
-  </si>
-  <si>
-    <t>Date 14</t>
-  </si>
-  <si>
-    <t>LIVE Option</t>
-  </si>
-  <si>
-    <t>Can work N prior?</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>How Many Students Per Class?</t>
-  </si>
-  <si>
-    <t>Nurses and Medic Separate?</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>How Many Classes Per Day?</t>
-  </si>
-  <si>
-    <t>Is this a two day class?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Time 1 START</t>
-  </si>
-  <si>
-    <t>Time 1 END</t>
-  </si>
-  <si>
-    <t>Time 2 START</t>
-  </si>
-  <si>
-    <t>Time 2 END</t>
-  </si>
-  <si>
-    <t>Time 3 START</t>
-  </si>
-  <si>
-    <t>Time 3 END</t>
-  </si>
-  <si>
-    <t>Time 4 START</t>
-  </si>
-  <si>
-    <t>Time 4 END</t>
-  </si>
-  <si>
-    <t>Instructors per day</t>
-  </si>
-  <si>
-    <t>BAW</t>
-  </si>
-  <si>
-    <t>MGH</t>
-  </si>
-  <si>
-    <t>Lahey</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>DATES</t>
-  </si>
-  <si>
-    <t>10/6-7/25</t>
-  </si>
-  <si>
-    <t>11/3-4/25</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>WED Staff Mtg</t>
-  </si>
-  <si>
-    <t>4/6-7/26</t>
-  </si>
-  <si>
-    <t>5/11-12/26</t>
-  </si>
-  <si>
-    <t>LIVE</t>
-  </si>
-  <si>
-    <t>THURS Staff Mtg</t>
-  </si>
-  <si>
-    <t>MICRO Sim</t>
-  </si>
-  <si>
-    <t>Airway Sim</t>
-  </si>
-  <si>
-    <t>PYM</t>
-  </si>
-  <si>
-    <t>Decision Making Sim</t>
-  </si>
-  <si>
-    <t>Neo Sim</t>
-  </si>
-  <si>
-    <t>PYM?</t>
-  </si>
-  <si>
-    <t>OB Sim</t>
-  </si>
-  <si>
-    <t>ATLS  BWH</t>
-  </si>
-  <si>
-    <t>ATLS  MGH</t>
-  </si>
-  <si>
-    <t>ATLS Lahey</t>
-  </si>
-  <si>
-    <t>ATLS 2026 TBD</t>
-  </si>
-  <si>
-    <t>10/6-10/7</t>
-  </si>
-  <si>
-    <t>4/6-4/7</t>
-  </si>
-  <si>
-    <t>11/3-11/4</t>
-  </si>
-  <si>
-    <t>5/11-5/12</t>
-  </si>
-  <si>
-    <t>Ps of Pregnancy ( OB FCCS lite)</t>
-  </si>
-  <si>
-    <t>Phase V  ECMO VAD</t>
-  </si>
-  <si>
-    <t>Phase V  Ultrasound</t>
-  </si>
-  <si>
-    <t>Phase V   Mech Vent I/ CHD I</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Phase V   Mech Vent II/ Tox</t>
-  </si>
-  <si>
-    <t>Phase V  Aviation Weather/EKG</t>
-  </si>
-  <si>
-    <t>Phase V   CHD II/Equipment Troubleshooting</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>LT</t>
@@ -1260,8 +1260,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:X155" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:X155" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:X154" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:X154" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{50DC1D60-DB40-CC4E-AADA-C428B2A2A55B}" name="STAFF NAME" dataDxfId="26"/>
     <tableColumn id="8" xr3:uid="{6E8B322B-E8A9-4A76-89E6-0423806BDF7D}" name="Role" dataDxfId="25"/>
@@ -1631,11 +1631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
-  <dimension ref="A1:X155"/>
+  <dimension ref="A1:X154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F15" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <pane xSplit="5" topLeftCell="F96" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A118" sqref="A118:XFD118"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8551,6 +8551,12 @@
       <c r="B118" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="E118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="L118" s="2" t="b">
         <v>1</v>
       </c>
@@ -8580,12 +8586,6 @@
       <c r="B119" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="L119" s="2" t="b">
         <v>1</v>
       </c>
@@ -8869,12 +8869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="L129" s="2" t="b">
         <v>1</v>
@@ -8900,10 +8900,10 @@
     </row>
     <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="L130" s="2" t="b">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>159</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L131" s="2" t="b">
         <v>1</v>
@@ -8961,7 +8961,7 @@
         <v>160</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L132" s="2" t="b">
         <v>1</v>
@@ -8990,7 +8990,7 @@
         <v>161</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L133" s="2" t="b">
         <v>1</v>
@@ -9019,7 +9019,7 @@
         <v>162</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L134" s="2" t="b">
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>163</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L135" s="2" t="b">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>164</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L136" s="2" t="b">
         <v>1</v>
@@ -9106,7 +9106,7 @@
         <v>165</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L137" s="2" t="b">
         <v>1</v>
@@ -9135,7 +9135,7 @@
         <v>166</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L138" s="2" t="b">
         <v>1</v>
@@ -9164,7 +9164,7 @@
         <v>167</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L139" s="2" t="b">
         <v>1</v>
@@ -9193,7 +9193,7 @@
         <v>168</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L140" s="2" t="b">
         <v>1</v>
@@ -9222,7 +9222,7 @@
         <v>169</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L141" s="2" t="b">
         <v>1</v>
@@ -9251,7 +9251,7 @@
         <v>170</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L142" s="2" t="b">
         <v>1</v>
@@ -9280,7 +9280,7 @@
         <v>171</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L143" s="2" t="b">
         <v>1</v>
@@ -9309,7 +9309,7 @@
         <v>172</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L144" s="2" t="b">
         <v>1</v>
@@ -9338,7 +9338,7 @@
         <v>173</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L145" s="2" t="b">
         <v>1</v>
@@ -9367,7 +9367,7 @@
         <v>174</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L146" s="2" t="b">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>175</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L147" s="2" t="b">
         <v>1</v>
@@ -9425,7 +9425,7 @@
         <v>176</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L148" s="2" t="b">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>177</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L149" s="2" t="b">
         <v>1</v>
@@ -9483,7 +9483,7 @@
         <v>178</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L150" s="2" t="b">
         <v>1</v>
@@ -9512,7 +9512,7 @@
         <v>179</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L151" s="2" t="b">
         <v>1</v>
@@ -9541,7 +9541,7 @@
         <v>180</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L152" s="2" t="b">
         <v>1</v>
@@ -9570,7 +9570,7 @@
         <v>181</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L153" s="2" t="b">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>182</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L154" s="2" t="b">
         <v>1</v>
@@ -9620,35 +9620,6 @@
         <v>0</v>
       </c>
       <c r="X154" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A155" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X155" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9678,7 +9649,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>45946</v>
@@ -9692,7 +9663,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>45981</v>
@@ -9706,7 +9677,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46009</v>
@@ -9720,7 +9691,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -9731,7 +9702,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -9742,7 +9713,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -9753,7 +9724,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -9764,7 +9735,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -9775,7 +9746,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -9787,7 +9758,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -9799,7 +9770,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -9811,7 +9782,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -9823,7 +9794,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -9835,7 +9806,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -9847,18 +9818,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -9866,15 +9837,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -9882,15 +9853,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -9898,7 +9869,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -9906,37 +9877,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -9970,7 +9941,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46029</v>
@@ -9984,7 +9955,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46057</v>
@@ -9998,7 +9969,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46085</v>
@@ -10012,7 +9983,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10023,7 +9994,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10034,7 +10005,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10045,7 +10016,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10056,7 +10027,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10067,7 +10038,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10079,7 +10050,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10091,7 +10062,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10103,7 +10074,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10115,7 +10086,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10127,7 +10098,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10139,18 +10110,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10158,15 +10129,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10174,15 +10145,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10190,7 +10161,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10198,37 +10169,37 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10263,7 +10234,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46037</v>
@@ -10277,7 +10248,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46072</v>
@@ -10291,7 +10262,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46100</v>
@@ -10305,7 +10276,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10316,7 +10287,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10327,7 +10298,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10338,7 +10309,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10349,7 +10320,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10360,7 +10331,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10372,7 +10343,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10384,7 +10355,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10396,7 +10367,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10408,7 +10379,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10420,7 +10391,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10432,18 +10403,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10451,15 +10422,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10467,15 +10438,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10483,7 +10454,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10491,37 +10462,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10555,7 +10526,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46113</v>
@@ -10569,7 +10540,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46148</v>
@@ -10583,7 +10554,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46176</v>
@@ -10597,7 +10568,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10608,7 +10579,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10619,7 +10590,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10630,7 +10601,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10641,7 +10612,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10652,7 +10623,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10664,7 +10635,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10676,7 +10647,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10688,7 +10659,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10700,7 +10671,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10712,7 +10683,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10724,18 +10695,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10743,15 +10714,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10759,15 +10730,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10775,7 +10746,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10783,37 +10754,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10848,7 +10819,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46128</v>
@@ -10862,7 +10833,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46163</v>
@@ -10876,7 +10847,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46191</v>
@@ -10890,7 +10861,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10901,7 +10872,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10912,7 +10883,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10923,7 +10894,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10934,7 +10905,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10945,7 +10916,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10957,7 +10928,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10969,7 +10940,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10981,7 +10952,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10993,7 +10964,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11005,7 +10976,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11017,18 +10988,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11036,15 +11007,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11052,15 +11023,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11068,7 +11039,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11076,37 +11047,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11140,7 +11111,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46204</v>
@@ -11154,7 +11125,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46239</v>
@@ -11168,7 +11139,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46267</v>
@@ -11182,7 +11153,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11193,7 +11164,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11204,7 +11175,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -11215,7 +11186,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11226,7 +11197,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11237,7 +11208,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11249,7 +11220,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11261,7 +11232,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11273,7 +11244,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11285,7 +11256,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11297,7 +11268,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11309,18 +11280,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11328,15 +11299,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11344,15 +11315,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11360,7 +11331,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11368,37 +11339,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11433,7 +11404,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46219</v>
@@ -11447,7 +11418,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46254</v>
@@ -11461,7 +11432,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46282</v>
@@ -11475,7 +11446,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11486,7 +11457,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11497,7 +11468,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -11508,7 +11479,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11519,7 +11490,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11530,7 +11501,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11542,7 +11513,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11554,7 +11525,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11566,7 +11537,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11578,7 +11549,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11590,7 +11561,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11602,18 +11573,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11621,15 +11592,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11637,15 +11608,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11653,7 +11624,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11661,37 +11632,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11725,7 +11696,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6">
         <v>45974</v>
@@ -11737,12 +11708,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6">
         <v>46035</v>
@@ -11754,12 +11725,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6">
         <v>46063</v>
@@ -11771,12 +11742,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6">
         <v>46091</v>
@@ -11788,12 +11759,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6">
         <v>46114</v>
@@ -11805,12 +11776,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="6">
         <v>46170</v>
@@ -11822,12 +11793,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11838,7 +11809,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11849,7 +11820,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11861,7 +11832,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11873,7 +11844,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11885,7 +11856,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11897,7 +11868,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11909,7 +11880,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11921,18 +11892,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -11940,15 +11911,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11956,15 +11927,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11972,7 +11943,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11980,37 +11951,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -12044,7 +12015,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8">
         <v>46042</v>
@@ -12056,12 +12027,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="12" t="b">
@@ -12073,7 +12044,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="12" t="b">
@@ -12085,7 +12056,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="b">
@@ -12097,7 +12068,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="b">
@@ -12109,7 +12080,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="b">
@@ -12121,7 +12092,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="b">
@@ -12133,7 +12104,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12144,7 +12115,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12156,7 +12127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12168,7 +12139,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12180,7 +12151,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12192,7 +12163,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12204,7 +12175,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12216,18 +12187,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -12235,15 +12206,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12251,15 +12222,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12267,7 +12238,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -12275,41 +12246,41 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -12343,7 +12314,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8">
         <v>46253</v>
@@ -12355,12 +12326,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8">
         <v>46260</v>
@@ -12372,12 +12343,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8">
         <v>46266</v>
@@ -12389,12 +12360,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="8">
         <v>46274</v>
@@ -12406,12 +12377,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="8">
         <v>46280</v>
@@ -12423,12 +12394,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8">
         <v>46288</v>
@@ -12440,12 +12411,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8">
         <v>46294</v>
@@ -12457,12 +12428,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12473,7 +12444,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12485,7 +12456,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12497,7 +12468,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12509,7 +12480,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12521,7 +12492,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12533,7 +12504,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12545,18 +12516,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -12564,15 +12535,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -12580,15 +12551,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -12596,7 +12567,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -12604,7 +12575,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -12612,7 +12583,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -12620,7 +12591,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -12628,7 +12599,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -12636,17 +12607,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -12681,7 +12652,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>46147</v>
@@ -12693,12 +12664,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>46162</v>
@@ -12710,12 +12681,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>46168</v>
@@ -12727,12 +12698,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17">
         <v>46175</v>
@@ -12744,12 +12715,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="17">
         <v>46183</v>
@@ -12761,12 +12732,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="17">
         <v>46189</v>
@@ -12778,12 +12749,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17">
         <v>46203</v>
@@ -12795,12 +12766,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9">
         <v>46211</v>
@@ -12812,12 +12783,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9">
         <v>46217</v>
@@ -12829,12 +12800,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9">
         <v>46225</v>
@@ -12846,12 +12817,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9">
         <v>46231</v>
@@ -12863,12 +12834,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9">
         <v>46238</v>
@@ -12880,12 +12851,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9">
         <v>46246</v>
@@ -12897,12 +12868,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12914,18 +12885,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -12933,15 +12904,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -12949,15 +12920,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -12965,7 +12936,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -12973,7 +12944,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -12981,7 +12952,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -12989,7 +12960,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -12997,7 +12968,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -13005,17 +12976,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -13050,7 +13021,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>45946</v>
@@ -13062,12 +13033,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>45950</v>
@@ -13079,12 +13050,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>45982</v>
@@ -13096,12 +13067,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="12" t="b">
@@ -13113,7 +13084,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="12" t="b">
@@ -13125,7 +13096,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="12" t="b">
@@ -13137,7 +13108,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="12" t="b">
@@ -13149,7 +13120,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="b">
@@ -13161,7 +13132,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -13173,7 +13144,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -13185,7 +13156,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -13197,7 +13168,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -13209,7 +13180,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -13221,7 +13192,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -13233,18 +13204,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -13252,15 +13223,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -13268,15 +13239,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -13284,7 +13255,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -13292,41 +13263,41 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -13358,7 +13329,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -13379,36 +13350,36 @@
         <v>15</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" t="s">
         <v>223</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>224</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>225</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>226</v>
-      </c>
-      <c r="N1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="D2" s="6">
         <v>46042</v>
@@ -13420,10 +13391,10 @@
         <v>46253</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>231</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>232</v>
       </c>
       <c r="I2" s="18">
         <v>45931</v>
@@ -13433,10 +13404,10 @@
     <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="E3" s="6">
         <v>46035</v>
@@ -13445,7 +13416,7 @@
         <v>46260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I3" s="18">
         <v>45966</v>
@@ -13461,7 +13432,7 @@
         <v>46266</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" s="18">
         <v>45994</v>
@@ -13477,13 +13448,13 @@
         <v>46274</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I5" s="18">
         <v>46029</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1">
@@ -13495,7 +13466,7 @@
         <v>46280</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I6" s="18">
         <v>46057</v>
@@ -13511,7 +13482,7 @@
         <v>46288</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="18">
         <v>46085</v>
@@ -13524,7 +13495,7 @@
         <v>46294</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="18">
         <v>46113</v>
@@ -13533,18 +13504,18 @@
     </row>
     <row r="9" spans="1:14" hidden="1">
       <c r="H9" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" s="18">
         <v>46148</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1">
       <c r="H10" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I10" s="18">
         <v>46176</v>
@@ -13553,7 +13524,7 @@
     </row>
     <row r="11" spans="1:14" hidden="1">
       <c r="H11" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" s="18">
         <v>46204</v>
@@ -13563,7 +13534,7 @@
     <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I12" s="18">
         <v>46239</v>
@@ -13573,19 +13544,19 @@
     <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" s="18">
         <v>46267</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I14" s="18">
         <v>45946</v>
@@ -13595,19 +13566,19 @@
     <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I15" s="18">
         <v>45981</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I16" s="18">
         <v>46009</v>
@@ -13616,7 +13587,7 @@
     </row>
     <row r="17" spans="1:10" hidden="1">
       <c r="H17" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I17" s="18">
         <v>46037</v>
@@ -13625,7 +13596,7 @@
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="H18" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I18" s="18">
         <v>46072</v>
@@ -13634,19 +13605,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="H19" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I19" s="18">
         <v>46100</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="18">
         <v>46128</v>
@@ -13656,7 +13627,7 @@
     <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I21" s="18">
         <v>46163</v>
@@ -13666,7 +13637,7 @@
     <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I22" s="18">
         <v>46191</v>
@@ -13676,19 +13647,19 @@
     <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I23" s="18">
         <v>46219</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="18">
         <v>46254</v>
@@ -13697,7 +13668,7 @@
     </row>
     <row r="25" spans="1:10" hidden="1">
       <c r="H25" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I25" s="18">
         <v>46282</v>
@@ -13706,7 +13677,7 @@
     </row>
     <row r="26" spans="1:10" hidden="1">
       <c r="H26" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I26" s="18">
         <v>45945</v>
@@ -13716,7 +13687,7 @@
     <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I27" s="18">
         <v>45959</v>
@@ -13726,7 +13697,7 @@
     <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I28" s="18">
         <v>45979</v>
@@ -13736,7 +13707,7 @@
     <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I29" s="18">
         <v>46001</v>
@@ -13746,7 +13717,7 @@
     <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I30" s="18">
         <v>46008</v>
@@ -13756,7 +13727,7 @@
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I31" s="18">
         <v>46028</v>
@@ -13766,7 +13737,7 @@
     <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I32" s="18">
         <v>46043</v>
@@ -13775,7 +13746,7 @@
     </row>
     <row r="33" spans="1:10" hidden="1">
       <c r="H33" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I33" s="18">
         <v>46050</v>
@@ -13784,7 +13755,7 @@
     </row>
     <row r="34" spans="1:10" hidden="1">
       <c r="H34" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I34" s="18">
         <v>46056</v>
@@ -13793,7 +13764,7 @@
     </row>
     <row r="35" spans="1:10" hidden="1">
       <c r="H35" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I35" s="18">
         <v>46064</v>
@@ -13802,7 +13773,7 @@
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="H36" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I36" s="18">
         <v>46070</v>
@@ -13811,7 +13782,7 @@
     </row>
     <row r="37" spans="1:10" hidden="1">
       <c r="H37" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I37" s="18">
         <v>46078</v>
@@ -13820,7 +13791,7 @@
     </row>
     <row r="38" spans="1:10" hidden="1">
       <c r="H38" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I38" s="18">
         <v>46084</v>
@@ -13829,7 +13800,7 @@
     </row>
     <row r="39" spans="1:10" hidden="1">
       <c r="H39" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I39" s="18">
         <v>46092</v>
@@ -13839,7 +13810,7 @@
     <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I40" s="18">
         <v>46099</v>
@@ -13851,7 +13822,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I41" s="18">
         <v>46112</v>
@@ -13863,7 +13834,7 @@
         <v>46253</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I42" s="18">
         <v>46120</v>
@@ -13875,13 +13846,13 @@
         <v>46260</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I43" s="18">
         <v>46126</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1">
@@ -13889,13 +13860,13 @@
         <v>46266</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I44" s="18">
         <v>46134</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1">
@@ -13903,13 +13874,13 @@
         <v>46274</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I45" s="18">
         <v>46140</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1">
@@ -13917,7 +13888,7 @@
         <v>46280</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I46" s="18">
         <v>45951</v>
@@ -13929,7 +13900,7 @@
         <v>46288</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I47" s="18">
         <v>45983</v>
@@ -13941,7 +13912,7 @@
         <v>46294</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I48" s="18">
         <v>45993</v>
@@ -13953,7 +13924,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" s="18">
         <v>46036</v>
@@ -13962,10 +13933,10 @@
     </row>
     <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I50" s="18">
         <v>46077</v>
@@ -13975,7 +13946,7 @@
     <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I51" s="18">
         <v>46106</v>
@@ -13985,7 +13956,7 @@
     <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I52" s="18">
         <v>46141</v>
@@ -13995,7 +13966,7 @@
     <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I53" s="18">
         <v>46161</v>
@@ -14005,7 +13976,7 @@
     <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I54" s="18">
         <v>46190</v>
@@ -14015,7 +13986,7 @@
     <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I55" s="18">
         <v>46224</v>
@@ -14025,7 +13996,7 @@
     <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I56" s="18">
         <v>46245</v>
@@ -14034,7 +14005,7 @@
     </row>
     <row r="57" spans="1:10" hidden="1">
       <c r="H57" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I57" s="18">
         <v>46295</v>
@@ -14043,7 +14014,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1">
       <c r="H58" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I58" s="18">
         <v>46147</v>
@@ -14052,7 +14023,7 @@
     </row>
     <row r="59" spans="1:10" hidden="1">
       <c r="H59" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I59" s="18">
         <v>46162</v>
@@ -14061,7 +14032,7 @@
     </row>
     <row r="60" spans="1:10" hidden="1">
       <c r="H60" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I60" s="18">
         <v>46168</v>
@@ -14070,7 +14041,7 @@
     </row>
     <row r="61" spans="1:10" hidden="1">
       <c r="H61" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I61" s="18">
         <v>46175</v>
@@ -14079,7 +14050,7 @@
     </row>
     <row r="62" spans="1:10" hidden="1">
       <c r="H62" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I62" s="18">
         <v>46183</v>
@@ -14088,7 +14059,7 @@
     </row>
     <row r="63" spans="1:10" hidden="1">
       <c r="H63" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I63" s="18">
         <v>46189</v>
@@ -14097,7 +14068,7 @@
     </row>
     <row r="64" spans="1:10" hidden="1">
       <c r="H64" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I64" s="18">
         <v>46203</v>
@@ -14106,7 +14077,7 @@
     </row>
     <row r="65" spans="8:14" hidden="1">
       <c r="H65" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I65" s="18">
         <v>46211</v>
@@ -14115,7 +14086,7 @@
     </row>
     <row r="66" spans="8:14" hidden="1">
       <c r="H66" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I66" s="18">
         <v>46217</v>
@@ -14124,7 +14095,7 @@
     </row>
     <row r="67" spans="8:14" hidden="1">
       <c r="H67" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I67" s="18">
         <v>46225</v>
@@ -14133,40 +14104,40 @@
     </row>
     <row r="68" spans="8:14" hidden="1">
       <c r="H68" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I68" s="18">
         <v>46231</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="8:14" hidden="1">
       <c r="H69" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I69" s="18">
         <v>46238</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="8:14" hidden="1">
       <c r="H70" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I70" s="18">
         <v>46246</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="8:14" hidden="1">
       <c r="H71" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I71" s="18">
         <v>46253</v>
@@ -14175,7 +14146,7 @@
     </row>
     <row r="72" spans="8:14" hidden="1">
       <c r="H72" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I72" s="18">
         <v>46260</v>
@@ -14184,7 +14155,7 @@
     </row>
     <row r="73" spans="8:14" hidden="1">
       <c r="H73" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73" s="18">
         <v>46266</v>
@@ -14193,7 +14164,7 @@
     </row>
     <row r="74" spans="8:14" hidden="1">
       <c r="H74" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I74" s="18">
         <v>46274</v>
@@ -14202,7 +14173,7 @@
     </row>
     <row r="75" spans="8:14" hidden="1">
       <c r="H75" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" s="18">
         <v>46280</v>
@@ -14211,7 +14182,7 @@
     </row>
     <row r="76" spans="8:14" hidden="1">
       <c r="H76" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I76" s="18">
         <v>46288</v>
@@ -14220,7 +14191,7 @@
     </row>
     <row r="77" spans="8:14" hidden="1">
       <c r="H77" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I77" s="18">
         <v>46294</v>
@@ -14229,7 +14200,7 @@
     </row>
     <row r="78" spans="8:14" hidden="1">
       <c r="H78" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I78" s="18">
         <v>45946</v>
@@ -14246,7 +14217,7 @@
     </row>
     <row r="79" spans="8:14" hidden="1">
       <c r="H79" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I79" s="18">
         <v>45950</v>
@@ -14263,7 +14234,7 @@
     </row>
     <row r="80" spans="8:14" hidden="1">
       <c r="H80" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I80" s="18">
         <v>45982</v>
@@ -14280,7 +14251,7 @@
     </row>
     <row r="81" spans="8:14" hidden="1">
       <c r="H81" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="16"/>
@@ -14294,7 +14265,7 @@
         <v>9</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -14307,7 +14278,7 @@
         <v>9</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
@@ -14320,7 +14291,7 @@
         <v>10</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
@@ -14333,7 +14304,7 @@
         <v>10</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
@@ -14343,7 +14314,7 @@
     </row>
     <row r="86" spans="8:14" hidden="1">
       <c r="H86" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I86" s="18">
         <v>45677</v>
@@ -14356,7 +14327,7 @@
     </row>
     <row r="87" spans="8:14" hidden="1">
       <c r="H87" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I87" s="18">
         <v>45739</v>
@@ -14447,7 +14418,7 @@
     </row>
     <row r="94" spans="8:14" hidden="1">
       <c r="H94" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I94" s="18">
         <v>45981</v>
@@ -14470,7 +14441,7 @@
     </row>
     <row r="95" spans="8:14" hidden="1">
       <c r="H95" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I95" s="18">
         <v>45672</v>
@@ -14493,13 +14464,13 @@
     </row>
     <row r="96" spans="8:14" hidden="1">
       <c r="H96" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I96" s="18">
         <v>45735</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>36</v>
@@ -14516,7 +14487,7 @@
     </row>
     <row r="97" spans="8:10" hidden="1">
       <c r="H97" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I97" s="18">
         <v>45798</v>
@@ -14525,7 +14496,7 @@
     </row>
     <row r="98" spans="8:10" hidden="1">
       <c r="H98" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I98" s="18">
         <v>45854</v>
@@ -14534,7 +14505,7 @@
     </row>
     <row r="99" spans="8:10" hidden="1">
       <c r="H99" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I99" s="18">
         <v>45917</v>
@@ -14593,22 +14564,22 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
         <v>260</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>260</v>
       </c>
-      <c r="D2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" t="s">
-        <v>261</v>
-      </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14616,22 +14587,22 @@
         <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14639,22 +14610,22 @@
         <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" t="s">
         <v>260</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>260</v>
-      </c>
-      <c r="F4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -14662,22 +14633,22 @@
         <v>142</v>
       </c>
       <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
         <v>261</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>261</v>
       </c>
-      <c r="D5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" t="s">
-        <v>262</v>
-      </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14685,22 +14656,22 @@
         <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" t="s">
         <v>260</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>260</v>
-      </c>
-      <c r="F6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -14708,62 +14679,62 @@
         <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" t="s">
         <v>261</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>261</v>
-      </c>
-      <c r="F7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
         <v>263</v>
@@ -14774,180 +14745,180 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
         <v>261</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
         <v>261</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>261</v>
       </c>
-      <c r="D11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" t="s">
-        <v>262</v>
-      </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" t="s">
         <v>260</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>260</v>
       </c>
-      <c r="D12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" t="s">
-        <v>261</v>
-      </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" t="s">
         <v>260</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>260</v>
-      </c>
-      <c r="F13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s">
         <v>260</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>260</v>
-      </c>
-      <c r="F14" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" t="s">
         <v>261</v>
       </c>
-      <c r="C15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" t="s">
-        <v>262</v>
-      </c>
       <c r="E15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" t="s">
         <v>260</v>
       </c>
-      <c r="F15" t="s">
-        <v>261</v>
-      </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" t="s">
         <v>261</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>261</v>
       </c>
-      <c r="D16" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" t="s">
-        <v>262</v>
-      </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" t="s">
         <v>260</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>260</v>
-      </c>
-      <c r="D17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" t="s">
-        <v>261</v>
       </c>
       <c r="F17" t="s">
         <v>263</v>
@@ -14958,48 +14929,48 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" t="s">
         <v>260</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>260</v>
       </c>
-      <c r="D18" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" t="s">
-        <v>261</v>
-      </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" t="s">
         <v>260</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>260</v>
       </c>
-      <c r="D19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" t="s">
-        <v>261</v>
-      </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -15026,7 +14997,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>46050</v>
@@ -15038,12 +15009,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>46056</v>
@@ -15055,12 +15026,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>46064</v>
@@ -15072,12 +15043,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17">
         <v>46070</v>
@@ -15089,12 +15060,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="17">
         <v>46078</v>
@@ -15106,12 +15077,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="17">
         <v>46084</v>
@@ -15123,12 +15094,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17">
         <v>46092</v>
@@ -15140,12 +15111,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9">
         <v>46099</v>
@@ -15157,12 +15128,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9">
         <v>46112</v>
@@ -15174,12 +15145,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9">
         <v>46120</v>
@@ -15191,12 +15162,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9">
         <v>46126</v>
@@ -15208,12 +15179,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9">
         <v>46134</v>
@@ -15225,12 +15196,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9">
         <v>46140</v>
@@ -15242,12 +15213,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -15259,18 +15230,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -15278,15 +15249,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -15294,15 +15265,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -15310,7 +15281,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -15318,7 +15289,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -15326,7 +15297,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -15334,7 +15305,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -15342,7 +15313,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -15350,17 +15321,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -15395,7 +15366,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>45951</v>
@@ -15407,12 +15378,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>45973</v>
@@ -15424,12 +15395,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>45993</v>
@@ -15441,12 +15412,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17">
         <v>46036</v>
@@ -15458,12 +15429,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="17">
         <v>46077</v>
@@ -15475,12 +15446,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="17">
         <v>46106</v>
@@ -15492,12 +15463,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17">
         <v>46141</v>
@@ -15509,12 +15480,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9">
         <v>46161</v>
@@ -15526,12 +15497,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9">
         <v>46190</v>
@@ -15543,12 +15514,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9">
         <v>46224</v>
@@ -15560,12 +15531,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9">
         <v>46245</v>
@@ -15577,12 +15548,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9">
         <v>46295</v>
@@ -15594,12 +15565,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -15611,7 +15582,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -15623,18 +15594,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -15642,15 +15613,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -15658,15 +15629,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -15674,7 +15645,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -15682,7 +15653,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -15690,7 +15661,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -15698,7 +15669,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -15706,7 +15677,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -15714,17 +15685,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -15759,7 +15730,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8">
         <v>45945</v>
@@ -15771,12 +15742,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8">
         <v>45959</v>
@@ -15788,12 +15759,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8">
         <v>45979</v>
@@ -15805,12 +15776,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="8">
         <v>46001</v>
@@ -15822,12 +15793,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="8">
         <v>46008</v>
@@ -15839,12 +15810,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8">
         <v>46028</v>
@@ -15856,12 +15827,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8">
         <v>46043</v>
@@ -15873,12 +15844,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -15889,7 +15860,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -15901,7 +15872,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -15913,7 +15884,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -15925,7 +15896,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -15937,7 +15908,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -15949,7 +15920,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -15961,18 +15932,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -15980,15 +15951,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -15996,15 +15967,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -16012,7 +15983,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -16020,7 +15991,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -16028,7 +15999,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -16036,7 +16007,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -16044,7 +16015,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -16052,17 +16023,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -16096,7 +16067,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="9">
         <v>45957</v>
@@ -16108,12 +16079,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9">
         <f>B1+1</f>
@@ -16126,12 +16097,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B6" si="0">B2+1</f>
@@ -16144,12 +16115,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" si="0"/>
@@ -16162,12 +16133,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
@@ -16180,12 +16151,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
@@ -16198,12 +16169,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="b">
@@ -16215,7 +16186,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="b">
@@ -16227,7 +16198,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16239,7 +16210,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16251,7 +16222,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16263,7 +16234,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16275,7 +16246,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16287,7 +16258,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16299,18 +16270,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>28</v>
@@ -16318,15 +16289,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -16334,15 +16305,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="10">
         <v>0.33333333333333331</v>
@@ -16350,7 +16321,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="10">
         <v>0.66666666666666663</v>
@@ -16358,43 +16329,43 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -16429,7 +16400,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6">
         <v>45964</v>
@@ -16441,12 +16412,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6">
         <v>46153</v>
@@ -16458,12 +16429,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -16475,7 +16446,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -16487,7 +16458,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -16499,7 +16470,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -16511,7 +16482,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -16522,7 +16493,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -16533,7 +16504,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16545,7 +16516,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16557,7 +16528,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16569,7 +16540,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16581,7 +16552,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16593,7 +16564,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16605,18 +16576,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -16624,15 +16595,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -16640,15 +16611,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -16656,7 +16627,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -16664,37 +16635,37 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -16728,7 +16699,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6">
         <v>45936</v>
@@ -16740,12 +16711,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6">
         <v>46118</v>
@@ -16757,12 +16728,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -16774,7 +16745,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -16786,7 +16757,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -16798,7 +16769,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -16810,7 +16781,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -16821,7 +16792,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -16832,7 +16803,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16844,7 +16815,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16856,7 +16827,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16868,7 +16839,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16880,7 +16851,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16892,7 +16863,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16904,18 +16875,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -16923,15 +16894,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -16939,15 +16910,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -16955,7 +16926,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -16963,37 +16934,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -17027,7 +16998,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>45931</v>
@@ -17041,7 +17012,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>45966</v>
@@ -17055,7 +17026,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>45994</v>
@@ -17069,7 +17040,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -17080,7 +17051,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -17091,7 +17062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -17102,7 +17073,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -17113,7 +17084,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -17124,7 +17095,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -17136,7 +17107,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -17148,7 +17119,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -17160,7 +17131,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -17172,7 +17143,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -17184,7 +17155,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -17196,18 +17167,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -17215,15 +17186,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -17231,15 +17202,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -17247,7 +17218,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -17255,37 +17226,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAE9E6A-91B7-459E-8CE6-874CBF1D1BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F30F92C2-46ED-4A63-A48B-009265140159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="6" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="264">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -1633,9 +1633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:X154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F96" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A118" sqref="A118:XFD118"/>
+      <selection pane="topRight" activeCell="A118" sqref="A118"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12001,14 +12001,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73369AC4-C9B4-42DD-BF9C-2665EDC8C92A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="3"/>
+    <col min="2" max="2" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="15.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
@@ -12034,12 +12035,17 @@
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8">
+        <v>46104</v>
+      </c>
       <c r="C2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -17273,6 +17279,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -17455,15 +17470,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -17473,11 +17479,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B40B572-FB42-4735-AA27-663A3392E251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B272A4-7BB0-4CA7-9FA3-8BCD959FF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="4" activeTab="4" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="4" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1641,9 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I34" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E55" sqref="E55"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="b">
         <v>0</v>
@@ -16270,8 +16270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81150DD8-0930-408D-BFC8-717F4FA0F2BD}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B272A4-7BB0-4CA7-9FA3-8BCD959FF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{6E98703C-2371-B44B-9CE2-2FA2D2F339A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21405708-ABF4-425F-AFE3-E06816BB1399}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="4" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1641,9 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I34" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="L65" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E57" sqref="E57"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2" t="b">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2" t="b">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2" t="b">
         <v>0</v>
@@ -12231,8 +12231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -12348,6 +12348,9 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>191</v>
+      </c>
+      <c r="B7" s="9">
+        <v>46347</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -17836,11 +17839,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18027,16 +18031,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18044,5 +18047,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{6E98703C-2371-B44B-9CE2-2FA2D2F339A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21405708-ABF4-425F-AFE3-E06816BB1399}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{6E98703C-2371-B44B-9CE2-2FA2D2F339A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F800878-73A8-4428-9373-07E69D56DB5D}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="20" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="265">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Shelanskas</t>
   </si>
   <si>
-    <t>Shewan</t>
-  </si>
-  <si>
     <t>Steckevicz</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>Lahey</t>
+  </si>
+  <si>
+    <t>BWH</t>
   </si>
   <si>
     <t>Course</t>
@@ -1267,8 +1267,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:Y154" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:Y154" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:Y153" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:Y153" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{50DC1D60-DB40-CC4E-AADA-C428B2A2A55B}" name="STAFF NAME" dataDxfId="27"/>
     <tableColumn id="8" xr3:uid="{6E8B322B-E8A9-4A76-89E6-0423806BDF7D}" name="Role" dataDxfId="26"/>
@@ -1639,11 +1639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
-  <dimension ref="A1:Y154"/>
+  <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="L65" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A73" sqref="A73:XFD73"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="b">
         <v>0</v>
@@ -7047,8 +7047,11 @@
       <c r="B73" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C73" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="D73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2" t="b">
         <v>0</v>
@@ -7072,13 +7075,13 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="2" t="b">
         <v>1</v>
       </c>
       <c r="N73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2" t="b">
         <v>0</v>
@@ -7087,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="2" t="b">
         <v>1</v>
@@ -7119,13 +7122,10 @@
         <v>99</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="2" t="b">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -7149,19 +7149,19 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="2" t="b">
         <v>1</v>
       </c>
       <c r="N74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="2" t="b">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>100</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2" t="b">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" s="2" t="b">
         <v>1</v>
@@ -7232,13 +7232,13 @@
         <v>1</v>
       </c>
       <c r="O75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="2" t="b">
         <v>1</v>
@@ -7306,13 +7306,13 @@
         <v>1</v>
       </c>
       <c r="O76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="2" t="b">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>102</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D77" s="2" t="b">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="2" t="b">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="2" t="b">
         <v>1</v>
@@ -7418,40 +7418,43 @@
         <v>103</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C78" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" s="2" t="b">
         <v>1</v>
       </c>
       <c r="N78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" s="2" t="b">
         <v>0</v>
@@ -7494,32 +7497,29 @@
       <c r="B79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="D79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="2" t="b">
         <v>0</v>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="N79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" s="2" t="b">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" s="2" t="b">
         <v>1</v>
@@ -7572,7 +7572,7 @@
         <v>29</v>
       </c>
       <c r="D80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -7593,10 +7593,10 @@
         <v>1</v>
       </c>
       <c r="K80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="2" t="b">
         <v>1</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="2" t="b">
         <v>1</v>
@@ -7643,10 +7643,7 @@
         <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="2" t="b">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E81" s="2" t="b">
         <v>0</v>
@@ -7682,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="2" t="b">
         <v>1</v>
@@ -7717,78 +7714,36 @@
         <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="b">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="M82" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="N82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S82" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="T82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="M83" s="2" t="b">
         <v>1</v>
@@ -7817,7 +7772,7 @@
         <v>110</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M84" s="2" t="b">
         <v>1</v>
@@ -7846,7 +7801,7 @@
         <v>111</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M85" s="2" t="b">
         <v>1</v>
@@ -7875,7 +7830,7 @@
         <v>112</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M86" s="2" t="b">
         <v>1</v>
@@ -7904,7 +7859,7 @@
         <v>113</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M87" s="2" t="b">
         <v>1</v>
@@ -7933,7 +7888,7 @@
         <v>114</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M88" s="2" t="b">
         <v>1</v>
@@ -7962,7 +7917,7 @@
         <v>115</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M89" s="2" t="b">
         <v>1</v>
@@ -7991,7 +7946,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M90" s="2" t="b">
         <v>1</v>
@@ -8020,7 +7975,7 @@
         <v>117</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M91" s="2" t="b">
         <v>1</v>
@@ -8049,7 +8004,7 @@
         <v>118</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M92" s="2" t="b">
         <v>1</v>
@@ -8078,7 +8033,7 @@
         <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M93" s="2" t="b">
         <v>1</v>
@@ -8107,7 +8062,7 @@
         <v>120</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M94" s="2" t="b">
         <v>1</v>
@@ -8136,7 +8091,7 @@
         <v>121</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M95" s="2" t="b">
         <v>1</v>
@@ -8165,7 +8120,7 @@
         <v>122</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M96" s="2" t="b">
         <v>1</v>
@@ -8194,7 +8149,7 @@
         <v>123</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M97" s="2" t="b">
         <v>1</v>
@@ -8223,7 +8178,7 @@
         <v>124</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="M98" s="2" t="b">
         <v>1</v>
@@ -8249,10 +8204,10 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="M99" s="2" t="b">
         <v>1</v>
@@ -8281,7 +8236,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M100" s="2" t="b">
         <v>1</v>
@@ -8310,7 +8265,7 @@
         <v>128</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M101" s="2" t="b">
         <v>1</v>
@@ -8339,7 +8294,7 @@
         <v>129</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M102" s="2" t="b">
         <v>1</v>
@@ -8368,7 +8323,7 @@
         <v>130</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M103" s="2" t="b">
         <v>1</v>
@@ -8397,7 +8352,7 @@
         <v>131</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M104" s="2" t="b">
         <v>1</v>
@@ -8426,7 +8381,7 @@
         <v>132</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M105" s="2" t="b">
         <v>1</v>
@@ -8455,7 +8410,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M106" s="2" t="b">
         <v>1</v>
@@ -8484,7 +8439,7 @@
         <v>134</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M107" s="2" t="b">
         <v>1</v>
@@ -8513,7 +8468,7 @@
         <v>135</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M108" s="2" t="b">
         <v>1</v>
@@ -8542,7 +8497,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M109" s="2" t="b">
         <v>1</v>
@@ -8571,7 +8526,7 @@
         <v>137</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M110" s="2" t="b">
         <v>1</v>
@@ -8600,7 +8555,7 @@
         <v>138</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M111" s="2" t="b">
         <v>1</v>
@@ -8626,10 +8581,10 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="M112" s="2" t="b">
         <v>1</v>
@@ -8658,7 +8613,7 @@
         <v>141</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M113" s="2" t="b">
         <v>1</v>
@@ -8687,7 +8642,7 @@
         <v>142</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M114" s="2" t="b">
         <v>1</v>
@@ -8716,7 +8671,7 @@
         <v>143</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M115" s="2" t="b">
         <v>1</v>
@@ -8745,7 +8700,7 @@
         <v>144</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M116" s="2" t="b">
         <v>1</v>
@@ -8774,7 +8729,16 @@
         <v>145</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="E117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M117" s="2" t="b">
         <v>1</v>
@@ -8803,16 +8767,7 @@
         <v>146</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="M118" s="2" t="b">
         <v>1</v>
@@ -8841,7 +8796,7 @@
         <v>147</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M119" s="2" t="b">
         <v>1</v>
@@ -8870,7 +8825,7 @@
         <v>148</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M120" s="2" t="b">
         <v>1</v>
@@ -8899,7 +8854,7 @@
         <v>149</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M121" s="2" t="b">
         <v>1</v>
@@ -8928,7 +8883,7 @@
         <v>150</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M122" s="2" t="b">
         <v>1</v>
@@ -8957,7 +8912,7 @@
         <v>151</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M123" s="2" t="b">
         <v>1</v>
@@ -8986,7 +8941,7 @@
         <v>152</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M124" s="2" t="b">
         <v>1</v>
@@ -9015,7 +8970,7 @@
         <v>153</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M125" s="2" t="b">
         <v>1</v>
@@ -9044,7 +8999,7 @@
         <v>154</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M126" s="2" t="b">
         <v>1</v>
@@ -9073,7 +9028,7 @@
         <v>155</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M127" s="2" t="b">
         <v>1</v>
@@ -9097,12 +9052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="M128" s="2" t="b">
         <v>1</v>
@@ -9128,10 +9083,10 @@
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="M129" s="2" t="b">
         <v>1</v>
@@ -9160,7 +9115,7 @@
         <v>159</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M130" s="2" t="b">
         <v>1</v>
@@ -9189,7 +9144,7 @@
         <v>160</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M131" s="2" t="b">
         <v>1</v>
@@ -9218,7 +9173,7 @@
         <v>161</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M132" s="2" t="b">
         <v>1</v>
@@ -9247,7 +9202,7 @@
         <v>162</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M133" s="2" t="b">
         <v>1</v>
@@ -9276,7 +9231,7 @@
         <v>163</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M134" s="2" t="b">
         <v>1</v>
@@ -9305,7 +9260,7 @@
         <v>164</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M135" s="2" t="b">
         <v>1</v>
@@ -9334,7 +9289,7 @@
         <v>165</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M136" s="2" t="b">
         <v>1</v>
@@ -9363,7 +9318,7 @@
         <v>166</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M137" s="2" t="b">
         <v>1</v>
@@ -9392,7 +9347,7 @@
         <v>167</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M138" s="2" t="b">
         <v>1</v>
@@ -9421,7 +9376,7 @@
         <v>168</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M139" s="2" t="b">
         <v>1</v>
@@ -9450,7 +9405,7 @@
         <v>169</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M140" s="2" t="b">
         <v>1</v>
@@ -9479,7 +9434,7 @@
         <v>170</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M141" s="2" t="b">
         <v>1</v>
@@ -9508,7 +9463,7 @@
         <v>171</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M142" s="2" t="b">
         <v>1</v>
@@ -9537,7 +9492,7 @@
         <v>172</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M143" s="2" t="b">
         <v>1</v>
@@ -9566,7 +9521,7 @@
         <v>173</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M144" s="2" t="b">
         <v>1</v>
@@ -9595,7 +9550,7 @@
         <v>174</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M145" s="2" t="b">
         <v>1</v>
@@ -9624,7 +9579,7 @@
         <v>175</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M146" s="2" t="b">
         <v>1</v>
@@ -9653,7 +9608,7 @@
         <v>176</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M147" s="2" t="b">
         <v>1</v>
@@ -9682,7 +9637,7 @@
         <v>177</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M148" s="2" t="b">
         <v>1</v>
@@ -9711,7 +9666,7 @@
         <v>178</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M149" s="2" t="b">
         <v>1</v>
@@ -9740,7 +9695,7 @@
         <v>179</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M150" s="2" t="b">
         <v>1</v>
@@ -9769,7 +9724,7 @@
         <v>180</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M151" s="2" t="b">
         <v>1</v>
@@ -9798,7 +9753,7 @@
         <v>181</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M152" s="2" t="b">
         <v>1</v>
@@ -9827,7 +9782,7 @@
         <v>182</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M153" s="2" t="b">
         <v>1</v>
@@ -9848,35 +9803,6 @@
         <v>0</v>
       </c>
       <c r="Y153" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A154" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y154" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9906,7 +9832,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>45931</v>
@@ -9920,7 +9846,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>45966</v>
@@ -9934,7 +9860,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>45994</v>
@@ -9948,7 +9874,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -9959,7 +9885,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -9970,7 +9896,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -9981,7 +9907,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -9992,7 +9918,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10003,7 +9929,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10015,7 +9941,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10027,7 +9953,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10039,7 +9965,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10051,7 +9977,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10063,7 +9989,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10075,18 +10001,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10094,15 +10020,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10110,15 +10036,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10126,7 +10052,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10134,37 +10060,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10198,7 +10124,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>45946</v>
@@ -10212,7 +10138,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>45981</v>
@@ -10226,7 +10152,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46009</v>
@@ -10240,7 +10166,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10251,7 +10177,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10262,7 +10188,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10273,7 +10199,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10284,7 +10210,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10295,7 +10221,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10307,7 +10233,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10319,7 +10245,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10331,7 +10257,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10343,7 +10269,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10355,7 +10281,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10367,18 +10293,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10386,15 +10312,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10402,15 +10328,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10418,7 +10344,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10426,37 +10352,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10490,7 +10416,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46029</v>
@@ -10504,7 +10430,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46057</v>
@@ -10518,7 +10444,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46085</v>
@@ -10532,7 +10458,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10543,7 +10469,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10554,7 +10480,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10565,7 +10491,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10576,7 +10502,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10587,7 +10513,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10599,7 +10525,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10611,7 +10537,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10623,7 +10549,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10635,7 +10561,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10647,7 +10573,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10659,18 +10585,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10678,15 +10604,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10694,15 +10620,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -10710,7 +10636,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -10718,37 +10644,37 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10783,7 +10709,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46037</v>
@@ -10797,7 +10723,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46072</v>
@@ -10811,7 +10737,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46100</v>
@@ -10825,7 +10751,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -10836,7 +10762,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -10847,7 +10773,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -10858,7 +10784,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -10869,7 +10795,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -10880,7 +10806,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -10892,7 +10818,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -10904,7 +10830,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -10916,7 +10842,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -10928,7 +10854,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -10940,7 +10866,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -10952,18 +10878,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -10971,15 +10897,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -10987,15 +10913,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11003,7 +10929,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11011,37 +10937,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11075,7 +11001,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46113</v>
@@ -11089,7 +11015,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46148</v>
@@ -11103,7 +11029,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46176</v>
@@ -11117,7 +11043,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11128,7 +11054,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11139,7 +11065,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -11150,7 +11076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11161,7 +11087,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11172,7 +11098,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11184,7 +11110,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11196,7 +11122,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11208,7 +11134,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11220,7 +11146,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11232,7 +11158,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11244,18 +11170,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11263,15 +11189,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11279,15 +11205,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11295,7 +11221,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11303,37 +11229,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11368,7 +11294,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46128</v>
@@ -11382,7 +11308,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46163</v>
@@ -11396,7 +11322,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46191</v>
@@ -11410,7 +11336,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11421,7 +11347,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11432,7 +11358,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -11443,7 +11369,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11454,7 +11380,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11465,7 +11391,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11477,7 +11403,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11489,7 +11415,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11501,7 +11427,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11513,7 +11439,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11525,7 +11451,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11537,18 +11463,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11556,15 +11482,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11572,15 +11498,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11588,7 +11514,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11596,37 +11522,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11660,7 +11586,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46204</v>
@@ -11674,7 +11600,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46239</v>
@@ -11688,7 +11614,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46267</v>
@@ -11702,7 +11628,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -11713,7 +11639,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -11724,7 +11650,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -11735,7 +11661,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -11746,7 +11672,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -11757,7 +11683,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -11769,7 +11695,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -11781,7 +11707,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -11793,7 +11719,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -11805,7 +11731,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -11817,7 +11743,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -11829,18 +11755,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -11848,15 +11774,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -11864,15 +11790,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -11880,7 +11806,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -11888,37 +11814,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -11953,7 +11879,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13">
         <v>46219</v>
@@ -11967,7 +11893,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13">
         <v>46254</v>
@@ -11981,7 +11907,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>46282</v>
@@ -11995,7 +11921,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -12006,7 +11932,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -12017,7 +11943,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -12028,7 +11954,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -12039,7 +11965,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12050,7 +11976,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12062,7 +11988,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12074,7 +12000,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12086,7 +12012,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12098,7 +12024,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12110,7 +12036,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12122,18 +12048,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -12141,15 +12067,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12157,15 +12083,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12173,7 +12099,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -12181,37 +12107,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -12231,7 +12157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -12245,7 +12171,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6">
         <v>45974</v>
@@ -12257,12 +12183,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6">
         <v>46035</v>
@@ -12274,12 +12200,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6">
         <v>46063</v>
@@ -12291,12 +12217,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6">
         <v>46091</v>
@@ -12308,12 +12234,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6">
         <v>46114</v>
@@ -12325,12 +12251,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="6">
         <v>46170</v>
@@ -12342,12 +12268,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="9">
         <v>46347</v>
@@ -12361,7 +12287,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12372,7 +12298,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12384,7 +12310,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12396,7 +12322,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12408,7 +12334,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12420,7 +12346,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12432,7 +12358,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12444,18 +12370,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -12463,15 +12389,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12479,15 +12405,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12495,7 +12421,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.45833333333333331</v>
@@ -12503,37 +12429,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -12568,7 +12494,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8">
         <v>46042</v>
@@ -12580,12 +12506,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8">
         <v>46104</v>
@@ -12597,12 +12523,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="12" t="b">
@@ -12614,7 +12540,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="b">
@@ -12626,7 +12552,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="b">
@@ -12638,7 +12564,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="b">
@@ -12650,7 +12576,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="b">
@@ -12662,7 +12588,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -12673,7 +12599,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -12685,7 +12611,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -12697,7 +12623,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -12709,7 +12635,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -12721,7 +12647,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -12733,7 +12659,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -12745,18 +12671,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -12764,15 +12690,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -12780,15 +12706,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -12796,7 +12722,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -12804,41 +12730,41 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -12873,7 +12799,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>46147</v>
@@ -12885,12 +12811,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>46162</v>
@@ -12902,12 +12828,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>46168</v>
@@ -12919,12 +12845,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17">
         <v>46175</v>
@@ -12936,12 +12862,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="17">
         <v>46183</v>
@@ -12953,12 +12879,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="17">
         <v>46189</v>
@@ -12970,12 +12896,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17">
         <v>46203</v>
@@ -12987,12 +12913,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9">
         <v>46211</v>
@@ -13004,12 +12930,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9">
         <v>46217</v>
@@ -13021,12 +12947,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9">
         <v>46225</v>
@@ -13038,12 +12964,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9">
         <v>46231</v>
@@ -13055,12 +12981,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9">
         <v>46238</v>
@@ -13072,12 +12998,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9">
         <v>46246</v>
@@ -13089,12 +13015,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -13106,18 +13032,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -13125,15 +13051,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -13141,15 +13067,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -13157,7 +13083,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -13165,7 +13091,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -13173,7 +13099,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -13181,7 +13107,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -13189,7 +13115,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -13197,17 +13123,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -13241,7 +13167,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8">
         <v>46253</v>
@@ -13253,12 +13179,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8">
         <v>46260</v>
@@ -13270,12 +13196,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8">
         <v>46266</v>
@@ -13287,12 +13213,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="8">
         <v>46274</v>
@@ -13304,12 +13230,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="8">
         <v>46280</v>
@@ -13321,12 +13247,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8">
         <v>46288</v>
@@ -13338,12 +13264,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8">
         <v>46294</v>
@@ -13355,12 +13281,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -13371,7 +13297,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -13383,7 +13309,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -13395,7 +13321,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -13407,7 +13333,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -13419,7 +13345,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -13431,7 +13357,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -13443,18 +13369,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -13462,15 +13388,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -13478,15 +13404,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -13494,7 +13420,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -13502,7 +13428,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -13510,7 +13436,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -13518,7 +13444,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -13526,7 +13452,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -13534,17 +13460,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -13565,13 +13491,14 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.875" style="3"/>
@@ -13579,7 +13506,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>45946</v>
@@ -13591,12 +13518,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>45950</v>
@@ -13608,12 +13535,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>45982</v>
@@ -13625,84 +13552,114 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="17"/>
+        <v>187</v>
+      </c>
+      <c r="B4" s="17">
+        <v>46079</v>
+      </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="B5" s="17">
+        <v>46114</v>
+      </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>189</v>
+      </c>
+      <c r="B6" s="17">
+        <v>46198</v>
+      </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="17"/>
+        <v>190</v>
+      </c>
+      <c r="B7" s="17">
+        <v>46303</v>
+      </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="B8" s="9">
+        <v>46314</v>
+      </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>192</v>
+      </c>
+      <c r="B9" s="9">
+        <v>46373</v>
+      </c>
       <c r="C9" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -13714,7 +13671,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -13726,7 +13683,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -13738,7 +13695,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -13750,7 +13707,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -13762,18 +13719,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -13781,15 +13738,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -13797,15 +13754,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -13813,7 +13770,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -13821,41 +13778,41 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -14767,7 +14724,7 @@
         <v>80</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
@@ -14784,7 +14741,7 @@
         <v>65</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
@@ -14801,7 +14758,7 @@
         <v>94</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
@@ -15119,7 +15076,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>260</v>
@@ -15142,7 +15099,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>261</v>
@@ -15165,7 +15122,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>261</v>
@@ -15188,7 +15145,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>261</v>
@@ -15211,7 +15168,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>261</v>
@@ -15234,7 +15191,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>262</v>
@@ -15280,7 +15237,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>262</v>
@@ -15303,7 +15260,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>262</v>
@@ -15326,7 +15283,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>261</v>
@@ -15349,7 +15306,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>260</v>
@@ -15372,7 +15329,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>261</v>
@@ -15395,7 +15352,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>261</v>
@@ -15418,7 +15375,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>261</v>
@@ -15441,7 +15398,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
         <v>261</v>
@@ -15464,7 +15421,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>260</v>
@@ -15487,7 +15444,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>260</v>
@@ -15510,7 +15467,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
         <v>260</v>
@@ -15555,7 +15512,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>46050</v>
@@ -15567,12 +15524,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>46056</v>
@@ -15584,12 +15541,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>46064</v>
@@ -15601,12 +15558,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17">
         <v>46070</v>
@@ -15618,12 +15575,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="17">
         <v>46078</v>
@@ -15635,12 +15592,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="17">
         <v>46084</v>
@@ -15652,12 +15609,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17">
         <v>46092</v>
@@ -15669,12 +15626,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9">
         <v>46099</v>
@@ -15686,12 +15643,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9">
         <v>46112</v>
@@ -15703,12 +15660,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9">
         <v>46120</v>
@@ -15720,12 +15677,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9">
         <v>46126</v>
@@ -15737,12 +15694,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9">
         <v>46134</v>
@@ -15754,12 +15711,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9">
         <v>46140</v>
@@ -15771,12 +15728,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -15788,18 +15745,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -15807,15 +15764,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -15823,15 +15780,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -15839,7 +15796,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -15847,7 +15804,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -15855,7 +15812,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -15863,7 +15820,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -15871,7 +15828,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -15879,17 +15836,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -15924,7 +15881,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="17">
         <v>45951</v>
@@ -15936,12 +15893,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>45973</v>
@@ -15953,12 +15910,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="17">
         <v>45993</v>
@@ -15970,12 +15927,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17">
         <v>46036</v>
@@ -15987,12 +15944,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="17">
         <v>46077</v>
@@ -16004,12 +15961,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="17">
         <v>46106</v>
@@ -16021,12 +15978,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17">
         <v>46141</v>
@@ -16038,12 +15995,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9">
         <v>46161</v>
@@ -16055,12 +16012,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9">
         <v>46190</v>
@@ -16072,12 +16029,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9">
         <v>46224</v>
@@ -16089,12 +16046,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9">
         <v>46245</v>
@@ -16106,12 +16063,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9">
         <v>46295</v>
@@ -16123,12 +16080,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16140,7 +16097,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16152,18 +16109,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -16171,15 +16128,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -16187,15 +16144,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -16203,7 +16160,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -16211,7 +16168,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -16219,7 +16176,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -16227,7 +16184,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -16235,7 +16192,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -16243,17 +16200,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -16288,7 +16245,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8">
         <v>45999</v>
@@ -16300,12 +16257,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="12" t="b">
@@ -16317,7 +16274,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="12" t="b">
@@ -16329,7 +16286,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="b">
@@ -16341,7 +16298,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="b">
@@ -16353,7 +16310,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="b">
@@ -16365,7 +16322,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="b">
@@ -16377,7 +16334,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -16388,7 +16345,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16400,7 +16357,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16412,7 +16369,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16424,7 +16381,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16436,7 +16393,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16448,7 +16405,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16460,18 +16417,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -16479,15 +16436,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -16495,15 +16452,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -16511,7 +16468,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.70833333333333337</v>
@@ -16519,41 +16476,41 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -16588,7 +16545,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8">
         <v>45945</v>
@@ -16600,12 +16557,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8">
         <v>45959</v>
@@ -16617,12 +16574,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8">
         <v>45979</v>
@@ -16634,12 +16591,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="8">
         <v>46001</v>
@@ -16651,12 +16608,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="8">
         <v>46008</v>
@@ -16668,12 +16625,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8">
         <v>46028</v>
@@ -16685,12 +16642,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8">
         <v>46043</v>
@@ -16702,12 +16659,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -16718,7 +16675,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -16730,7 +16687,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -16742,7 +16699,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -16754,7 +16711,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -16766,7 +16723,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -16778,7 +16735,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -16790,18 +16747,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -16809,15 +16766,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>3</v>
@@ -16825,15 +16782,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.41666666666666669</v>
@@ -16841,7 +16798,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.5</v>
@@ -16849,7 +16806,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11">
         <v>0.54166666666666663</v>
@@ -16857,7 +16814,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="11">
         <v>0.625</v>
@@ -16865,7 +16822,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="11">
         <v>0.66666666666666663</v>
@@ -16873,7 +16830,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="11">
         <v>0.75</v>
@@ -16881,17 +16838,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -16925,7 +16882,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="9">
         <v>45957</v>
@@ -16937,12 +16894,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9">
         <f>B1+1</f>
@@ -16955,12 +16912,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B6" si="0">B2+1</f>
@@ -16973,12 +16930,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" si="0"/>
@@ -16991,12 +16948,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
@@ -17009,12 +16966,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
@@ -17027,12 +16984,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="b">
@@ -17044,7 +17001,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="b">
@@ -17056,7 +17013,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -17068,7 +17025,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -17080,7 +17037,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -17092,7 +17049,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -17104,7 +17061,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -17116,7 +17073,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -17128,18 +17085,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>28</v>
@@ -17147,15 +17104,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -17163,15 +17120,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="10">
         <v>0.33333333333333331</v>
@@ -17179,7 +17136,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="10">
         <v>0.66666666666666663</v>
@@ -17187,43 +17144,43 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -17258,7 +17215,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6">
         <v>45964</v>
@@ -17270,12 +17227,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6">
         <v>46153</v>
@@ -17287,12 +17244,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -17304,7 +17261,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -17316,7 +17273,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -17328,7 +17285,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -17340,7 +17297,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -17351,7 +17308,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -17362,7 +17319,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -17374,7 +17331,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -17386,7 +17343,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -17398,7 +17355,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -17410,7 +17367,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -17422,7 +17379,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -17434,18 +17391,18 @@
     </row>
     <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -17453,15 +17410,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -17469,15 +17426,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -17485,7 +17442,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -17493,37 +17450,37 @@
     </row>
     <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -17557,7 +17514,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6">
         <v>45936</v>
@@ -17569,12 +17526,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6">
         <v>46118</v>
@@ -17586,12 +17543,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="b">
@@ -17603,7 +17560,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="b">
@@ -17615,7 +17572,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="b">
@@ -17627,7 +17584,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="b">
@@ -17639,7 +17596,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -17650,7 +17607,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -17661,7 +17618,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12" t="b">
@@ -17673,7 +17630,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="12" t="b">
@@ -17685,7 +17642,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="b">
@@ -17697,7 +17654,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="12" t="b">
@@ -17709,7 +17666,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="b">
@@ -17721,7 +17678,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="12" t="b">
@@ -17733,18 +17690,18 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -17752,15 +17709,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
@@ -17768,15 +17725,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11">
         <v>0.33333333333333331</v>
@@ -17784,7 +17741,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11">
         <v>0.66666666666666663</v>
@@ -17792,37 +17749,37 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -17848,6 +17805,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -18030,22 +17995,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git Desktop Clone\CrewOps360\training\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{6E98703C-2371-B44B-9CE2-2FA2D2F339A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F800878-73A8-4428-9373-07E69D56DB5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B807E-83A1-4200-BDBC-D7A463061BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="20" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="1530" yWindow="1680" windowWidth="27270" windowHeight="14520" firstSheet="20" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1641,13 +1641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A73" sqref="A73:XFD73"/>
       <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
@@ -1670,7 +1670,7 @@
     <col min="20" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="b">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>101</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>103</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>106</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>109</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>111</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>113</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>114</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>115</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>118</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>123</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>126</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>127</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>128</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>129</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>130</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>131</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>132</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>133</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>134</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>135</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>136</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>137</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>138</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>140</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>141</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>142</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>143</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>144</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>145</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>146</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>147</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>148</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>149</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>151</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>152</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>153</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>154</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>155</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>159</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>160</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>162</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>163</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>165</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>166</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>167</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>168</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>169</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>170</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>171</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>172</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>173</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>174</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>175</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>176</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>177</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>178</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>179</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>180</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>181</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>182</v>
       </c>
@@ -9822,7 +9822,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -9830,7 +9830,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10058,37 +10058,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10114,7 +10114,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -10122,7 +10122,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10350,37 +10350,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10406,7 +10406,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -10414,7 +10414,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.95">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.95">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.95">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.95">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.95">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.95">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.95">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.95">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.95">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.95">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.95">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.95">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.95">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.95">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.95">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.95">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.95">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.95">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.95">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10642,37 +10642,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.95">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.95">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.95">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.95">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.95">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.95">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.95">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10698,7 +10698,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -10707,7 +10707,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10935,37 +10935,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10991,7 +10991,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -10999,7 +10999,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -11227,37 +11227,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -11283,7 +11283,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -11292,7 +11292,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -11520,37 +11520,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -11576,7 +11576,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -11584,7 +11584,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -11812,37 +11812,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -11868,7 +11868,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -11877,7 +11877,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -12105,37 +12105,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -12161,7 +12161,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -12169,7 +12169,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -12427,37 +12427,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -12483,7 +12483,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="3" bestFit="1" customWidth="1"/>
@@ -12492,7 +12492,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -12728,41 +12728,41 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -12788,7 +12788,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -12797,7 +12797,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -13121,17 +13121,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -13157,7 +13157,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -13165,7 +13165,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -13458,17 +13458,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -13494,7 +13494,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -13504,7 +13504,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -13776,41 +13776,41 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -13836,13 +13836,13 @@
       <selection activeCell="H94" sqref="H94:N94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="26.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>221</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:14" hidden="1">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>233</v>
@@ -13938,7 +13938,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:14" hidden="1">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="E4" s="6">
         <v>46063</v>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:14" hidden="1">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="E5" s="6">
         <v>46091</v>
@@ -13972,7 +13972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="E6" s="6">
         <v>46114</v>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:14" hidden="1">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="E7" s="6">
         <v>46170</v>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:14" hidden="1">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="F8" s="8">
         <v>46294</v>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:14" hidden="1">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H9" s="16" t="s">
         <v>232</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H10" s="16" t="s">
         <v>232</v>
       </c>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:14" hidden="1">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H11" s="16" t="s">
         <v>232</v>
       </c>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
         <v>232</v>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:14" hidden="1">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
         <v>232</v>
@@ -14068,7 +14068,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
         <v>236</v>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:14" hidden="1">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
         <v>236</v>
@@ -14090,7 +14090,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
         <v>236</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H17" s="16" t="s">
         <v>236</v>
       </c>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H18" s="16" t="s">
         <v>236</v>
       </c>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H19" s="16" t="s">
         <v>236</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
         <v>236</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
         <v>236</v>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
         <v>236</v>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
         <v>236</v>
@@ -14171,7 +14171,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
         <v>236</v>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H25" s="16" t="s">
         <v>236</v>
       </c>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H26" s="16" t="s">
         <v>237</v>
       </c>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
         <v>237</v>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
         <v>237</v>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
         <v>237</v>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
         <v>237</v>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
         <v>237</v>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
         <v>237</v>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H33" s="16" t="s">
         <v>238</v>
       </c>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H34" s="16" t="s">
         <v>238</v>
       </c>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H35" s="16" t="s">
         <v>238</v>
       </c>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H36" s="16" t="s">
         <v>238</v>
       </c>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H37" s="16" t="s">
         <v>238</v>
       </c>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H38" s="16" t="s">
         <v>238</v>
       </c>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H39" s="16" t="s">
         <v>238</v>
       </c>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
         <v>238</v>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>46253</v>
       </c>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>46260</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>46266</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>46274</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>46280</v>
       </c>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46288</v>
       </c>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46294</v>
       </c>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>16</v>
       </c>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>231</v>
       </c>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="J50" s="16"/>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
         <v>240</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="J51" s="16"/>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
         <v>240</v>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
         <v>240</v>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
         <v>240</v>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
         <v>240</v>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
         <v>240</v>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H57" s="16" t="s">
         <v>240</v>
       </c>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="J57" s="16"/>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H58" s="16" t="s">
         <v>241</v>
       </c>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H59" s="16" t="s">
         <v>241</v>
       </c>
@@ -14545,7 +14545,7 @@
       </c>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H60" s="16" t="s">
         <v>241</v>
       </c>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H61" s="16" t="s">
         <v>241</v>
       </c>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H62" s="16" t="s">
         <v>241</v>
       </c>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H63" s="16" t="s">
         <v>241</v>
       </c>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H64" s="16" t="s">
         <v>241</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="8:14" hidden="1">
+    <row r="65" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H65" s="16" t="s">
         <v>241</v>
       </c>
@@ -14599,7 +14599,7 @@
       </c>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="8:14" hidden="1">
+    <row r="66" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H66" s="16" t="s">
         <v>241</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="8:14" hidden="1">
+    <row r="67" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H67" s="16" t="s">
         <v>241</v>
       </c>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" spans="8:14" hidden="1">
+    <row r="68" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H68" s="16" t="s">
         <v>241</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="8:14" hidden="1">
+    <row r="69" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H69" s="16" t="s">
         <v>241</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="8:14" hidden="1">
+    <row r="70" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H70" s="16" t="s">
         <v>241</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="8:14" hidden="1">
+    <row r="71" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H71" s="16" t="s">
         <v>243</v>
       </c>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="J71" s="16"/>
     </row>
-    <row r="72" spans="8:14" hidden="1">
+    <row r="72" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H72" s="16" t="s">
         <v>243</v>
       </c>
@@ -14668,7 +14668,7 @@
       </c>
       <c r="J72" s="16"/>
     </row>
-    <row r="73" spans="8:14" hidden="1">
+    <row r="73" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H73" s="16" t="s">
         <v>243</v>
       </c>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="8:14" hidden="1">
+    <row r="74" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H74" s="16" t="s">
         <v>243</v>
       </c>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="8:14" hidden="1">
+    <row r="75" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H75" s="16" t="s">
         <v>243</v>
       </c>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="8:14" hidden="1">
+    <row r="76" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H76" s="16" t="s">
         <v>243</v>
       </c>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="8:14" hidden="1">
+    <row r="77" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H77" s="16" t="s">
         <v>243</v>
       </c>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="8:14" hidden="1">
+    <row r="78" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H78" s="16" t="s">
         <v>244</v>
       </c>
@@ -14730,7 +14730,7 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="8:14" hidden="1">
+    <row r="79" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H79" s="16" t="s">
         <v>245</v>
       </c>
@@ -14747,7 +14747,7 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="8:14" hidden="1">
+    <row r="80" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H80" s="16" t="s">
         <v>246</v>
       </c>
@@ -14764,7 +14764,7 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="8:14" hidden="1">
+    <row r="81" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H81" s="16" t="s">
         <v>247</v>
       </c>
@@ -14775,7 +14775,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="8:14" hidden="1">
+    <row r="82" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H82" s="16" t="s">
         <v>10</v>
       </c>
@@ -14788,7 +14788,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="8:14" hidden="1">
+    <row r="83" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H83" s="16" t="s">
         <v>10</v>
       </c>
@@ -14801,7 +14801,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="8:14">
+    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H84" s="16" t="s">
         <v>11</v>
       </c>
@@ -14814,7 +14814,7 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="8:14">
+    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H85" s="16" t="s">
         <v>11</v>
       </c>
@@ -14827,7 +14827,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="8:14" hidden="1">
+    <row r="86" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H86" s="16" t="s">
         <v>252</v>
       </c>
@@ -14840,7 +14840,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="8:14" hidden="1">
+    <row r="87" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H87" s="16" t="s">
         <v>252</v>
       </c>
@@ -14853,7 +14853,7 @@
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="8:14" hidden="1">
+    <row r="88" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H88" s="16" t="s">
         <v>13</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="8:14" hidden="1">
+    <row r="89" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H89" s="16" t="s">
         <v>13</v>
       </c>
@@ -14879,7 +14879,7 @@
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="8:14" hidden="1">
+    <row r="90" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H90" s="16" t="s">
         <v>13</v>
       </c>
@@ -14892,7 +14892,7 @@
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="8:14" hidden="1">
+    <row r="91" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H91" s="16" t="s">
         <v>13</v>
       </c>
@@ -14905,7 +14905,7 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="8:14" hidden="1">
+    <row r="92" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H92" s="16" t="s">
         <v>13</v>
       </c>
@@ -14918,7 +14918,7 @@
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="8:14" hidden="1">
+    <row r="93" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H93" s="16" t="s">
         <v>13</v>
       </c>
@@ -14931,7 +14931,7 @@
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="8:14" hidden="1">
+    <row r="94" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H94" s="16" t="s">
         <v>253</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="8:14" hidden="1">
+    <row r="95" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H95" s="16" t="s">
         <v>254</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="8:14" hidden="1">
+    <row r="96" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H96" s="16" t="s">
         <v>255</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="8:10" hidden="1">
+    <row r="97" spans="8:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H97" s="16" t="s">
         <v>257</v>
       </c>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="8:10" hidden="1">
+    <row r="98" spans="8:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H98" s="16" t="s">
         <v>258</v>
       </c>
@@ -15018,7 +15018,7 @@
       </c>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="8:10" hidden="1">
+    <row r="99" spans="8:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="H99" s="16" t="s">
         <v>259</v>
       </c>
@@ -15043,13 +15043,13 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1">
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13">
         <v>45957</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -15501,7 +15501,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -15510,7 +15510,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -15834,17 +15834,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -15870,7 +15870,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -15879,7 +15879,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -16198,17 +16198,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -16234,7 +16234,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -16243,7 +16243,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.95">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.95">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.95">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.95">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.95">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.95">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.95">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.95">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.95">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.95">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.95">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.95">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.95">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.95">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.95">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.95">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.95">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.95">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.95">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -16474,41 +16474,41 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.95">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="15.95">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="15.95">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="15.95">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" ht="15.95">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.95">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.95">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -16534,7 +16534,7 @@
       <selection activeCell="E1" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -16543,7 +16543,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -16836,17 +16836,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -16872,7 +16872,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -16880,7 +16880,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -17142,43 +17142,43 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -17204,7 +17204,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="3" bestFit="1" customWidth="1"/>
@@ -17213,7 +17213,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.95">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.95">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.95">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.95">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.95">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.95">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.95">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.95">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.95">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.95">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.95">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.95">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.95">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.95">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.95">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.95">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.95">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.95">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.95">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -17448,37 +17448,37 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.95">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.95">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.95">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.95">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.95">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.95">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.95">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -17504,7 +17504,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -17512,7 +17512,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -17747,37 +17747,37 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -17805,14 +17805,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -17995,14 +17987,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git Desktop Clone\CrewOps360\training\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B807E-83A1-4200-BDBC-D7A463061BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8576CA84-A073-4055-813B-B38338FDB558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1680" windowWidth="27270" windowHeight="14520" firstSheet="20" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1641,13 +1641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="K33" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K43" sqref="K43"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
@@ -1670,7 +1670,7 @@
     <col min="20" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2" t="b">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
         <v>101</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
         <v>103</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
         <v>106</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
         <v>109</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
         <v>111</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
         <v>113</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
         <v>114</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
         <v>115</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
         <v>118</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25">
       <c r="A97" s="1" t="s">
         <v>123</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25">
       <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25">
       <c r="A99" s="1" t="s">
         <v>126</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25">
       <c r="A100" s="1" t="s">
         <v>127</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25">
       <c r="A101" s="1" t="s">
         <v>128</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25">
       <c r="A102" s="1" t="s">
         <v>129</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25">
       <c r="A103" s="1" t="s">
         <v>130</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25">
       <c r="A104" s="1" t="s">
         <v>131</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25">
       <c r="A105" s="1" t="s">
         <v>132</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25">
       <c r="A106" s="1" t="s">
         <v>133</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25">
       <c r="A107" s="1" t="s">
         <v>134</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="A108" s="1" t="s">
         <v>135</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="A109" s="1" t="s">
         <v>136</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="A110" s="1" t="s">
         <v>137</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="A111" s="1" t="s">
         <v>138</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25">
       <c r="A112" s="1" t="s">
         <v>140</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25">
       <c r="A113" s="1" t="s">
         <v>141</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25">
       <c r="A114" s="1" t="s">
         <v>142</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25">
       <c r="A115" s="1" t="s">
         <v>143</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
         <v>144</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25">
       <c r="A117" s="1" t="s">
         <v>145</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25">
       <c r="A118" s="1" t="s">
         <v>146</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25">
       <c r="A119" s="1" t="s">
         <v>147</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25">
       <c r="A120" s="1" t="s">
         <v>148</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25">
       <c r="A121" s="1" t="s">
         <v>149</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25">
       <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25">
       <c r="A123" s="1" t="s">
         <v>151</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25">
       <c r="A124" s="1" t="s">
         <v>152</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25">
       <c r="A125" s="1" t="s">
         <v>153</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25">
       <c r="A126" s="1" t="s">
         <v>154</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25">
       <c r="A127" s="1" t="s">
         <v>155</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>159</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>160</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>162</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>163</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>165</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>166</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>167</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>168</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>169</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>170</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>171</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>172</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>173</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>174</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>175</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>176</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>177</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>178</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>179</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>180</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>181</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>182</v>
       </c>
@@ -9822,7 +9822,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -9830,7 +9830,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10058,37 +10058,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10114,7 +10114,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -10122,7 +10122,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10350,37 +10350,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10406,7 +10406,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -10414,7 +10414,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10642,37 +10642,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10698,7 +10698,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -10707,7 +10707,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -10935,37 +10935,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -10991,7 +10991,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -10999,7 +10999,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -11227,37 +11227,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -11283,7 +11283,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -11292,7 +11292,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -11520,37 +11520,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -11576,7 +11576,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -11584,7 +11584,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -11812,37 +11812,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -11868,7 +11868,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -11877,7 +11877,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -12105,37 +12105,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -12161,7 +12161,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -12169,7 +12169,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -12427,37 +12427,37 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -12483,7 +12483,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="3" bestFit="1" customWidth="1"/>
@@ -12492,7 +12492,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -12728,41 +12728,41 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -12788,7 +12788,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -12797,7 +12797,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -13121,17 +13121,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -13157,7 +13157,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -13165,7 +13165,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -13458,17 +13458,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -13494,7 +13494,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="3" bestFit="1" customWidth="1"/>
@@ -13504,7 +13504,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -13776,41 +13776,41 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -13836,13 +13836,13 @@
       <selection activeCell="H94" sqref="H94:N94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="8" max="8" width="26.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>221</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="4" t="s">
         <v>228</v>
       </c>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>233</v>
@@ -13938,7 +13938,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" s="5"/>
       <c r="E4" s="6">
         <v>46063</v>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="5"/>
       <c r="E5" s="6">
         <v>46091</v>
@@ -13972,7 +13972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" s="5"/>
       <c r="E6" s="6">
         <v>46114</v>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="5"/>
       <c r="E7" s="6">
         <v>46170</v>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="5"/>
       <c r="F8" s="8">
         <v>46294</v>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1">
       <c r="H9" s="16" t="s">
         <v>232</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1">
       <c r="H10" s="16" t="s">
         <v>232</v>
       </c>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1">
       <c r="H11" s="16" t="s">
         <v>232</v>
       </c>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
         <v>232</v>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
         <v>232</v>
@@ -14068,7 +14068,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
         <v>236</v>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
         <v>236</v>
@@ -14090,7 +14090,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
         <v>236</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1">
       <c r="H17" s="16" t="s">
         <v>236</v>
       </c>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1">
       <c r="H18" s="16" t="s">
         <v>236</v>
       </c>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1">
       <c r="H19" s="16" t="s">
         <v>236</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
         <v>236</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
         <v>236</v>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
         <v>236</v>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
         <v>236</v>
@@ -14171,7 +14171,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
         <v>236</v>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1">
       <c r="H25" s="16" t="s">
         <v>236</v>
       </c>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1">
       <c r="H26" s="16" t="s">
         <v>237</v>
       </c>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
         <v>237</v>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
         <v>237</v>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
         <v>237</v>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
         <v>237</v>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
         <v>237</v>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
         <v>237</v>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1">
       <c r="H33" s="16" t="s">
         <v>238</v>
       </c>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1">
       <c r="H34" s="16" t="s">
         <v>238</v>
       </c>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1">
       <c r="H35" s="16" t="s">
         <v>238</v>
       </c>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1">
       <c r="H36" s="16" t="s">
         <v>238</v>
       </c>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1">
       <c r="H37" s="16" t="s">
         <v>238</v>
       </c>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1">
       <c r="H38" s="16" t="s">
         <v>238</v>
       </c>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1">
       <c r="H39" s="16" t="s">
         <v>238</v>
       </c>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
         <v>238</v>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="6">
         <v>46253</v>
       </c>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="6">
         <v>46260</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="6">
         <v>46266</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="6">
         <v>46274</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="6">
         <v>46280</v>
       </c>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="6">
         <v>46288</v>
       </c>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="6">
         <v>46294</v>
       </c>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="5" t="s">
         <v>16</v>
       </c>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="5" t="s">
         <v>231</v>
       </c>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="J50" s="16"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
         <v>240</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="J51" s="16"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
         <v>240</v>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
         <v>240</v>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
         <v>240</v>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
         <v>240</v>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
         <v>240</v>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1">
       <c r="H57" s="16" t="s">
         <v>240</v>
       </c>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="J57" s="16"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1">
       <c r="H58" s="16" t="s">
         <v>241</v>
       </c>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1">
       <c r="H59" s="16" t="s">
         <v>241</v>
       </c>
@@ -14545,7 +14545,7 @@
       </c>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1">
       <c r="H60" s="16" t="s">
         <v>241</v>
       </c>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1">
       <c r="H61" s="16" t="s">
         <v>241</v>
       </c>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1">
       <c r="H62" s="16" t="s">
         <v>241</v>
       </c>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1">
       <c r="H63" s="16" t="s">
         <v>241</v>
       </c>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1">
       <c r="H64" s="16" t="s">
         <v>241</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:14" hidden="1">
       <c r="H65" s="16" t="s">
         <v>241</v>
       </c>
@@ -14599,7 +14599,7 @@
       </c>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:14" hidden="1">
       <c r="H66" s="16" t="s">
         <v>241</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:14" hidden="1">
       <c r="H67" s="16" t="s">
         <v>241</v>
       </c>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:14" hidden="1">
       <c r="H68" s="16" t="s">
         <v>241</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:14" hidden="1">
       <c r="H69" s="16" t="s">
         <v>241</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:14" hidden="1">
       <c r="H70" s="16" t="s">
         <v>241</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:14" hidden="1">
       <c r="H71" s="16" t="s">
         <v>243</v>
       </c>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="J71" s="16"/>
     </row>
-    <row r="72" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:14" hidden="1">
       <c r="H72" s="16" t="s">
         <v>243</v>
       </c>
@@ -14668,7 +14668,7 @@
       </c>
       <c r="J72" s="16"/>
     </row>
-    <row r="73" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:14" hidden="1">
       <c r="H73" s="16" t="s">
         <v>243</v>
       </c>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:14" hidden="1">
       <c r="H74" s="16" t="s">
         <v>243</v>
       </c>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:14" hidden="1">
       <c r="H75" s="16" t="s">
         <v>243</v>
       </c>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:14" hidden="1">
       <c r="H76" s="16" t="s">
         <v>243</v>
       </c>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:14" hidden="1">
       <c r="H77" s="16" t="s">
         <v>243</v>
       </c>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:14" hidden="1">
       <c r="H78" s="16" t="s">
         <v>244</v>
       </c>
@@ -14730,7 +14730,7 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:14" hidden="1">
       <c r="H79" s="16" t="s">
         <v>245</v>
       </c>
@@ -14747,7 +14747,7 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:14" hidden="1">
       <c r="H80" s="16" t="s">
         <v>246</v>
       </c>
@@ -14764,7 +14764,7 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:14" hidden="1">
       <c r="H81" s="16" t="s">
         <v>247</v>
       </c>
@@ -14775,7 +14775,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:14" hidden="1">
       <c r="H82" s="16" t="s">
         <v>10</v>
       </c>
@@ -14788,7 +14788,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:14" hidden="1">
       <c r="H83" s="16" t="s">
         <v>10</v>
       </c>
@@ -14801,7 +14801,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:14">
       <c r="H84" s="16" t="s">
         <v>11</v>
       </c>
@@ -14814,7 +14814,7 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:14">
       <c r="H85" s="16" t="s">
         <v>11</v>
       </c>
@@ -14827,7 +14827,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:14" hidden="1">
       <c r="H86" s="16" t="s">
         <v>252</v>
       </c>
@@ -14840,7 +14840,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:14" hidden="1">
       <c r="H87" s="16" t="s">
         <v>252</v>
       </c>
@@ -14853,7 +14853,7 @@
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:14" hidden="1">
       <c r="H88" s="16" t="s">
         <v>13</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:14" hidden="1">
       <c r="H89" s="16" t="s">
         <v>13</v>
       </c>
@@ -14879,7 +14879,7 @@
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:14" hidden="1">
       <c r="H90" s="16" t="s">
         <v>13</v>
       </c>
@@ -14892,7 +14892,7 @@
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:14" hidden="1">
       <c r="H91" s="16" t="s">
         <v>13</v>
       </c>
@@ -14905,7 +14905,7 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:14" hidden="1">
       <c r="H92" s="16" t="s">
         <v>13</v>
       </c>
@@ -14918,7 +14918,7 @@
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:14" hidden="1">
       <c r="H93" s="16" t="s">
         <v>13</v>
       </c>
@@ -14931,7 +14931,7 @@
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:14" hidden="1">
       <c r="H94" s="16" t="s">
         <v>253</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:14" hidden="1">
       <c r="H95" s="16" t="s">
         <v>254</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="8:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:14" hidden="1">
       <c r="H96" s="16" t="s">
         <v>255</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="8:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:10" hidden="1">
       <c r="H97" s="16" t="s">
         <v>257</v>
       </c>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="8:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:10" hidden="1">
       <c r="H98" s="16" t="s">
         <v>258</v>
       </c>
@@ -15018,7 +15018,7 @@
       </c>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="8:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:10" hidden="1">
       <c r="H99" s="16" t="s">
         <v>259</v>
       </c>
@@ -15043,13 +15043,13 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="13" customFormat="1">
       <c r="B1" s="13">
         <v>45957</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -15501,7 +15501,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -15510,7 +15510,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -15834,17 +15834,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -15870,7 +15870,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -15879,7 +15879,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -16198,17 +16198,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -16234,7 +16234,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -16243,7 +16243,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -16474,41 +16474,41 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -16534,7 +16534,7 @@
       <selection activeCell="E1" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
@@ -16543,7 +16543,7 @@
     <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
@@ -16836,17 +16836,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -16872,7 +16872,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -16880,7 +16880,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -17142,43 +17142,43 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -17204,7 +17204,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="3" bestFit="1" customWidth="1"/>
@@ -17213,7 +17213,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.95">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.95">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.95">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.95">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.95">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.95">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -17448,37 +17448,37 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.95">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.95">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.95">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.95">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.95">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.95">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.95">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -17504,7 +17504,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.875" style="3"/>
@@ -17512,7 +17512,7 @@
     <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="14" t="s">
         <v>199</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -17747,37 +17747,37 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>216</v>
       </c>
@@ -17805,6 +17805,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -17987,47 +17995,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8576CA84-A073-4055-813B-B38338FDB558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4647449-70E8-4DF1-A8FE-DF409DF2970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -1268,7 +1268,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}" name="Table2" displayName="Table2" ref="A1:Y153" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:Y153" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}"/>
+  <autoFilter ref="A1:Y153" xr:uid="{5C9BF4B3-A48F-BE48-B38E-211555B96796}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MEDIC"/>
+        <filter val="NURSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{50DC1D60-DB40-CC4E-AADA-C428B2A2A55B}" name="STAFF NAME" dataDxfId="27"/>
     <tableColumn id="8" xr3:uid="{6E8B322B-E8A9-4A76-89E6-0423806BDF7D}" name="Role" dataDxfId="26"/>
@@ -1642,8 +1649,8 @@
   <dimension ref="A1:Y153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K33" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K43" sqref="K43"/>
+      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2309,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
@@ -2383,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
@@ -2457,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -2605,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>0</v>
@@ -2679,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -2907,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -3132,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>0</v>
@@ -3659,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2" t="b">
         <v>0</v>
@@ -3733,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2" t="b">
         <v>0</v>
@@ -4032,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2" t="b">
         <v>0</v>
@@ -4106,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="2" t="b">
         <v>0</v>
@@ -4180,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2" t="b">
         <v>0</v>
@@ -4553,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2" t="b">
         <v>1</v>
@@ -4627,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="2" t="b">
         <v>0</v>
@@ -4923,13 +4930,13 @@
         <v>1</v>
       </c>
       <c r="N44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="2" t="b">
         <v>0</v>
@@ -5071,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="2" t="b">
         <v>0</v>
@@ -5293,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="2" t="b">
         <v>0</v>
@@ -5891,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="2" t="b">
         <v>0</v>
@@ -6039,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="2" t="b">
         <v>1</v>
@@ -6187,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="2" t="b">
         <v>0</v>
@@ -6261,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="2" t="b">
         <v>0</v>
@@ -6338,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="2" t="b">
         <v>0</v>
@@ -6412,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="N64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="2" t="b">
         <v>0</v>
@@ -6486,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="N65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="2" t="b">
         <v>0</v>
@@ -6634,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="2" t="b">
         <v>1</v>
@@ -6856,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="N70" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="2" t="b">
         <v>1</v>
@@ -7602,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="N80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" s="2" t="b">
         <v>0</v>
@@ -7709,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
@@ -7738,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" s="1" t="s">
         <v>109</v>
       </c>
@@ -7767,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -7796,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" s="1" t="s">
         <v>111</v>
       </c>
@@ -7825,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -7854,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" s="1" t="s">
         <v>113</v>
       </c>
@@ -7883,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" s="1" t="s">
         <v>114</v>
       </c>
@@ -7912,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" s="1" t="s">
         <v>115</v>
       </c>
@@ -7941,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -7970,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" hidden="1">
       <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
@@ -7999,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" s="1" t="s">
         <v>118</v>
       </c>
@@ -8028,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" hidden="1">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -8057,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
@@ -8086,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" hidden="1">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
@@ -8115,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" hidden="1">
       <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
@@ -8144,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" s="1" t="s">
         <v>123</v>
       </c>
@@ -8173,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
@@ -8202,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="1" t="s">
         <v>126</v>
       </c>
@@ -8231,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="1" t="s">
         <v>127</v>
       </c>
@@ -8260,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="1" t="s">
         <v>128</v>
       </c>
@@ -8289,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="1" t="s">
         <v>129</v>
       </c>
@@ -8318,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="1" t="s">
         <v>130</v>
       </c>
@@ -8347,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="1" t="s">
         <v>131</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="1" t="s">
         <v>132</v>
       </c>
@@ -8405,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="1" t="s">
         <v>133</v>
       </c>
@@ -8434,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="1" t="s">
         <v>134</v>
       </c>
@@ -8463,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="1" t="s">
         <v>135</v>
       </c>
@@ -8492,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="1" t="s">
         <v>136</v>
       </c>
@@ -8521,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="1" t="s">
         <v>137</v>
       </c>
@@ -8550,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="1" t="s">
         <v>138</v>
       </c>
@@ -8579,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="1" t="s">
         <v>140</v>
       </c>
@@ -8608,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="1" t="s">
         <v>141</v>
       </c>
@@ -8637,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="1" t="s">
         <v>142</v>
       </c>
@@ -8666,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="1" t="s">
         <v>143</v>
       </c>
@@ -8695,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="1" t="s">
         <v>144</v>
       </c>
@@ -8724,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="1" t="s">
         <v>145</v>
       </c>
@@ -8762,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="1" t="s">
         <v>146</v>
       </c>
@@ -8791,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="1" t="s">
         <v>147</v>
       </c>
@@ -8820,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="1" t="s">
         <v>148</v>
       </c>
@@ -8849,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="1" t="s">
         <v>149</v>
       </c>
@@ -8878,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
@@ -8907,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="1" t="s">
         <v>151</v>
       </c>
@@ -8936,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="1" t="s">
         <v>152</v>
       </c>
@@ -8965,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" s="1" t="s">
         <v>153</v>
       </c>
@@ -8994,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" hidden="1">
       <c r="A126" s="1" t="s">
         <v>154</v>
       </c>
@@ -9023,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" s="1" t="s">
         <v>155</v>
       </c>
@@ -9052,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
@@ -9081,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>159</v>
       </c>
@@ -9139,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>160</v>
       </c>
@@ -9168,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -9197,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>162</v>
       </c>
@@ -9226,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>163</v>
       </c>
@@ -9255,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
@@ -9284,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>165</v>
       </c>
@@ -9313,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>166</v>
       </c>
@@ -9342,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>167</v>
       </c>
@@ -9371,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>168</v>
       </c>
@@ -9400,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>169</v>
       </c>
@@ -9429,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>170</v>
       </c>
@@ -9458,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>171</v>
       </c>
@@ -9487,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>172</v>
       </c>
@@ -9516,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>173</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>174</v>
       </c>
@@ -9574,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>175</v>
       </c>
@@ -9603,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>176</v>
       </c>
@@ -9632,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>177</v>
       </c>
@@ -9661,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>178</v>
       </c>
@@ -9690,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>179</v>
       </c>
@@ -9719,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>180</v>
       </c>
@@ -9748,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>181</v>
       </c>
@@ -9777,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>182</v>
       </c>
@@ -17796,23 +17803,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -17995,8 +17985,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18004,5 +18011,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4647449-70E8-4DF1-A8FE-DF409DF2970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4218FDA9-4F10-459A-A1BA-443B54D34263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -1649,8 +1649,8 @@
   <dimension ref="A1:Y153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <pane xSplit="5" topLeftCell="R10" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y24" sqref="Y24"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3456,28 +3456,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25">

--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4218FDA9-4F10-459A-A1BA-443B54D34263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{129BC524-094E-4D12-B48D-FE161517442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1648,9 +1648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="R10" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y24" sqref="Y24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F10" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12164,8 +12164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -12282,9 +12282,7 @@
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="9">
-        <v>46347</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="12" t="b">
         <v>0</v>
       </c>
@@ -17986,14 +17984,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18002,14 +17992,22 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{129BC524-094E-4D12-B48D-FE161517442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89650E17-C945-4654-B6F5-F609E08D1026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1648,9 +1648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F10" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="O44" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q62" sqref="Q62"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="b">
         <v>1</v>
@@ -12164,7 +12164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -17984,6 +17984,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17992,22 +18000,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89650E17-C945-4654-B6F5-F609E08D1026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3055E1-6185-4A60-90EA-80EA712D53C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="20" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="265">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -1648,9 +1648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="O44" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q62" sqref="Q62"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="P27" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q21" sqref="Q21"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2" t="b">
         <v>1</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="2" t="b">
         <v>1</v>
@@ -13495,8 +13495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0587D0-89DF-4D05-A902-12BFC82DD3EC}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -13565,7 +13565,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="17">
-        <v>46079</v>
+        <v>46009</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>0</v>
@@ -13582,7 +13582,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="17">
-        <v>46114</v>
+        <v>46079</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="17">
-        <v>46198</v>
+        <v>46114</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>0</v>
@@ -13616,7 +13616,7 @@
         <v>190</v>
       </c>
       <c r="B7" s="17">
-        <v>46303</v>
+        <v>46198</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -13628,12 +13628,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="9">
-        <v>46314</v>
+      <c r="B8" s="17">
+        <v>46303</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13650,7 +13650,7 @@
         <v>192</v>
       </c>
       <c r="B9" s="9">
-        <v>46373</v>
+        <v>46314</v>
       </c>
       <c r="C9" s="12" t="b">
         <v>0</v>
@@ -13659,19 +13659,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9">
+        <v>46373</v>
+      </c>
       <c r="C10" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -17984,14 +17989,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18000,14 +17997,22 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3055E1-6185-4A60-90EA-80EA712D53C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77839C66-A928-4EDD-B145-1E1184936429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" activeTab="20" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="20" activeTab="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -12164,8 +12164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -12429,7 +12429,7 @@
         <v>209</v>
       </c>
       <c r="B21" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -12467,7 +12467,7 @@
         <v>216</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13495,7 +13495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0587D0-89DF-4D05-A902-12BFC82DD3EC}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -17806,8 +17806,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4bad1610c91d0b731428cd1924a7702c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ebe52f4cd8f254828780b0264eed20e" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
     <xsd:import namespace="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
     <xsd:element name="properties">
@@ -17989,6 +17989,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17997,22 +18005,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BFDB43-3412-4AC3-BA2B-29C478F71F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B03C4CB-57FC-4C2F-B670-A46F1278C814}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77839C66-A928-4EDD-B145-1E1184936429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3D52A6-7E2E-425A-B926-AF7C52032D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="20" activeTab="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1648,9 +1648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3E758-B252-634C-B9B3-AE34AE7DE6C7}">
   <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="P27" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I29" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N43" sqref="N43"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2" t="b">
         <v>0</v>
@@ -12164,8 +12164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C4556-B6F5-4EAB-AE0D-DC7FA135F386}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -17989,14 +17989,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18005,14 +17997,22 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B03C4CB-57FC-4C2F-B670-A46F1278C814}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3D52A6-7E2E-425A-B926-AF7C52032D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A556287-4413-441E-BF48-259CBC3BF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" firstSheet="17" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
+    <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Enrollment" sheetId="1" r:id="rId1"/>
@@ -1649,8 +1649,8 @@
   <dimension ref="A1:Y153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I29" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N43" sqref="N43"/>
+      <pane xSplit="5" topLeftCell="M10" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N17" sqref="N17"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -17806,8 +17806,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4bad1610c91d0b731428cd1924a7702c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ebe52f4cd8f254828780b0264eed20e" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8cd92d5d720c8b451634de8e1489b6c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74fedd6aba8b38a7a56590550b558444" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
     <xsd:import namespace="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
     <xsd:element name="properties">
@@ -17988,25 +18005,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B03C4CB-57FC-4C2F-B670-A46F1278C814}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18014,5 +18014,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D399043-4649-46C8-8556-0661CEE17725}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A556287-4413-441E-BF48-259CBC3BF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AD6E70-0254-440B-917A-7DDA35F8AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -17814,15 +17814,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8cd92d5d720c8b451634de8e1489b6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74fedd6aba8b38a7a56590550b558444" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -18005,14 +17996,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13094262-B8A9-472E-A55D-BC65572C19CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D399043-4649-46C8-8556-0661CEE17725}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D399043-4649-46C8-8556-0661CEE17725}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE3643D-FDE0-44DC-9CDA-200C2597DFB6}"/>
 </file>
--- a/training/upload/MASTER Education Classes Roster.xlsx
+++ b/training/upload/MASTER Education Classes Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AD6E70-0254-440B-917A-7DDA35F8AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E492E8-B4FA-4922-B867-32D78D437C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30480" yWindow="4680" windowWidth="38240" windowHeight="15120" xr2:uid="{5604E27C-0991-9B4E-A9D1-5F87A876A78F}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="267">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -721,6 +721,12 @@
   </si>
   <si>
     <t>BWH</t>
+  </si>
+  <si>
+    <t>Date 15</t>
+  </si>
+  <si>
+    <t>Date 16</t>
   </si>
   <si>
     <t>Course</t>
@@ -1649,8 +1655,8 @@
   <dimension ref="A1:Y153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="M10" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N17" sqref="N17"/>
+      <pane xSplit="5" topLeftCell="L55" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N57" sqref="N57"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3074,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2" t="b">
         <v>1</v>
@@ -3121,10 +3127,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="b">
         <v>0</v>
@@ -3151,28 +3157,28 @@
         <v>0</v>
       </c>
       <c r="R20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -5688,28 +5694,28 @@
         <v>0</v>
       </c>
       <c r="R54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5892,13 +5898,13 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2" t="b">
         <v>1</v>
       </c>
       <c r="N57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2" t="b">
         <v>0</v>
@@ -13493,10 +13499,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0587D0-89DF-4D05-A902-12BFC82DD3EC}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -13611,12 +13617,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B7" s="17">
-        <v>46198</v>
+        <v>46178</v>
       </c>
       <c r="C7" s="12" t="b">
         <v>0</v>
@@ -13625,15 +13631,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="17">
-        <v>46303</v>
+        <v>46198</v>
       </c>
       <c r="C8" s="12" t="b">
         <v>0</v>
@@ -13645,12 +13651,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="9">
-        <v>46314</v>
+      <c r="B9" s="17">
+        <v>46303</v>
       </c>
       <c r="C9" s="12" t="b">
         <v>0</v>
@@ -13659,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13667,7 +13673,7 @@
         <v>193</v>
       </c>
       <c r="B10" s="9">
-        <v>46373</v>
+        <v>46314</v>
       </c>
       <c r="C10" s="12" t="b">
         <v>0</v>
@@ -13676,31 +13682,41 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9">
+        <v>45981</v>
+      </c>
       <c r="C11" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="9">
+        <v>46373</v>
+      </c>
       <c r="C12" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="12" t="b">
         <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13728,109 +13744,133 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>201</v>
+      <c r="A15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B22" s="11">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B23" s="11">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B30" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{715332AC-6F7F-42E3-B9E0-82D9005C52C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B21" xr:uid="{715332AC-6F7F-42E3-B9E0-82D9005C52C8}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13854,7 +13894,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -13875,36 +13915,36 @@
         <v>16</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D2" s="6">
         <v>46042</v>
@@ -13916,10 +13956,10 @@
         <v>46253</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I2" s="18">
         <v>45931</v>
@@ -13929,10 +13969,10 @@
     <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E3" s="6">
         <v>46035</v>
@@ -13941,7 +13981,7 @@
         <v>46260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I3" s="18">
         <v>45966</v>
@@ -13957,7 +13997,7 @@
         <v>46266</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I4" s="18">
         <v>45994</v>
@@ -13973,13 +14013,13 @@
         <v>46274</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I5" s="18">
         <v>46029</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1">
@@ -13991,7 +14031,7 @@
         <v>46280</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I6" s="18">
         <v>46057</v>
@@ -14007,7 +14047,7 @@
         <v>46288</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I7" s="18">
         <v>46085</v>
@@ -14020,7 +14060,7 @@
         <v>46294</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I8" s="18">
         <v>46113</v>
@@ -14029,18 +14069,18 @@
     </row>
     <row r="9" spans="1:14" hidden="1">
       <c r="H9" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I9" s="18">
         <v>46148</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1">
       <c r="H10" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I10" s="18">
         <v>46176</v>
@@ -14049,7 +14089,7 @@
     </row>
     <row r="11" spans="1:14" hidden="1">
       <c r="H11" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I11" s="18">
         <v>46204</v>
@@ -14059,7 +14099,7 @@
     <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="5"/>
       <c r="H12" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I12" s="18">
         <v>46239</v>
@@ -14069,19 +14109,19 @@
     <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="5"/>
       <c r="H13" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I13" s="18">
         <v>46267</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="5"/>
       <c r="H14" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I14" s="18">
         <v>45946</v>
@@ -14091,19 +14131,19 @@
     <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="5"/>
       <c r="H15" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I15" s="18">
         <v>45981</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="5"/>
       <c r="H16" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I16" s="18">
         <v>46009</v>
@@ -14112,7 +14152,7 @@
     </row>
     <row r="17" spans="1:10" hidden="1">
       <c r="H17" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I17" s="18">
         <v>46037</v>
@@ -14121,7 +14161,7 @@
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="H18" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I18" s="18">
         <v>46072</v>
@@ -14130,19 +14170,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="H19" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I19" s="18">
         <v>46100</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="5"/>
       <c r="H20" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I20" s="18">
         <v>46128</v>
@@ -14152,7 +14192,7 @@
     <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="5"/>
       <c r="H21" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I21" s="18">
         <v>46163</v>
@@ -14162,7 +14202,7 @@
     <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="5"/>
       <c r="H22" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I22" s="18">
         <v>46191</v>
@@ -14172,19 +14212,19 @@
     <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="5"/>
       <c r="H23" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I23" s="18">
         <v>46219</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="5"/>
       <c r="H24" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I24" s="18">
         <v>46254</v>
@@ -14193,7 +14233,7 @@
     </row>
     <row r="25" spans="1:10" hidden="1">
       <c r="H25" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I25" s="18">
         <v>46282</v>
@@ -14202,7 +14242,7 @@
     </row>
     <row r="26" spans="1:10" hidden="1">
       <c r="H26" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I26" s="18">
         <v>45945</v>
@@ -14212,7 +14252,7 @@
     <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="5"/>
       <c r="H27" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I27" s="18">
         <v>45959</v>
@@ -14222,7 +14262,7 @@
     <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="5"/>
       <c r="H28" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I28" s="18">
         <v>45979</v>
@@ -14232,7 +14272,7 @@
     <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="5"/>
       <c r="H29" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I29" s="18">
         <v>46001</v>
@@ -14242,7 +14282,7 @@
     <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="5"/>
       <c r="H30" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I30" s="18">
         <v>46008</v>
@@ -14252,7 +14292,7 @@
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="5"/>
       <c r="H31" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I31" s="18">
         <v>46028</v>
@@ -14262,7 +14302,7 @@
     <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="5"/>
       <c r="H32" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I32" s="18">
         <v>46043</v>
@@ -14271,7 +14311,7 @@
     </row>
     <row r="33" spans="1:10" hidden="1">
       <c r="H33" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I33" s="18">
         <v>46050</v>
@@ -14280,7 +14320,7 @@
     </row>
     <row r="34" spans="1:10" hidden="1">
       <c r="H34" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I34" s="18">
         <v>46056</v>
@@ -14289,7 +14329,7 @@
     </row>
     <row r="35" spans="1:10" hidden="1">
       <c r="H35" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I35" s="18">
         <v>46064</v>
@@ -14298,7 +14338,7 @@
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="H36" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I36" s="18">
         <v>46070</v>
@@ -14307,7 +14347,7 @@
     </row>
     <row r="37" spans="1:10" hidden="1">
       <c r="H37" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I37" s="18">
         <v>46078</v>
@@ -14316,7 +14356,7 @@
     </row>
     <row r="38" spans="1:10" hidden="1">
       <c r="H38" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I38" s="18">
         <v>46084</v>
@@ -14325,7 +14365,7 @@
     </row>
     <row r="39" spans="1:10" hidden="1">
       <c r="H39" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I39" s="18">
         <v>46092</v>
@@ -14335,7 +14375,7 @@
     <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="5"/>
       <c r="H40" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I40" s="18">
         <v>46099</v>
@@ -14347,7 +14387,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I41" s="18">
         <v>46112</v>
@@ -14359,7 +14399,7 @@
         <v>46253</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I42" s="18">
         <v>46120</v>
@@ -14371,13 +14411,13 @@
         <v>46260</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I43" s="18">
         <v>46126</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1">
@@ -14385,13 +14425,13 @@
         <v>46266</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I44" s="18">
         <v>46134</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1">
@@ -14399,13 +14439,13 @@
         <v>46274</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I45" s="18">
         <v>46140</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1">
@@ -14413,7 +14453,7 @@
         <v>46280</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I46" s="18">
         <v>45951</v>
@@ -14425,7 +14465,7 @@
         <v>46288</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I47" s="18">
         <v>45983</v>
@@ -14437,7 +14477,7 @@
         <v>46294</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I48" s="18">
         <v>45993</v>
@@ -14449,7 +14489,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I49" s="18">
         <v>46036</v>
@@ -14458,10 +14498,10 @@
     </row>
     <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I50" s="18">
         <v>46077</v>
@@ -14471,7 +14511,7 @@
     <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="5"/>
       <c r="H51" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I51" s="18">
         <v>46106</v>
@@ -14481,7 +14521,7 @@
     <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="5"/>
       <c r="H52" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I52" s="18">
         <v>46141</v>
@@ -14491,7 +14531,7 @@
     <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="5"/>
       <c r="H53" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I53" s="18">
         <v>46161</v>
@@ -14501,7 +14541,7 @@
     <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="5"/>
       <c r="H54" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I54" s="18">
         <v>46190</v>
@@ -14511,7 +14551,7 @@
     <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="5"/>
       <c r="H55" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I55" s="18">
         <v>46224</v>
@@ -14521,7 +14561,7 @@
     <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="5"/>
       <c r="H56" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I56" s="18">
         <v>46245</v>
@@ -14530,7 +14570,7 @@
     </row>
     <row r="57" spans="1:10" hidden="1">
       <c r="H57" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I57" s="18">
         <v>46295</v>
@@ -14539,7 +14579,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1">
       <c r="H58" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I58" s="18">
         <v>46147</v>
@@ -14548,7 +14588,7 @@
     </row>
     <row r="59" spans="1:10" hidden="1">
       <c r="H59" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I59" s="18">
         <v>46162</v>
@@ -14557,7 +14597,7 @@
     </row>
     <row r="60" spans="1:10" hidden="1">
       <c r="H60" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I60" s="18">
         <v>46168</v>
@@ -14566,7 +14606,7 @@
     </row>
     <row r="61" spans="1:10" hidden="1">
       <c r="H61" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I61" s="18">
         <v>46175</v>
@@ -14575,7 +14615,7 @@
     </row>
     <row r="62" spans="1:10" hidden="1">
       <c r="H62" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I62" s="18">
         <v>46183</v>
@@ -14584,7 +14624,7 @@
     </row>
     <row r="63" spans="1:10" hidden="1">
       <c r="H63" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I63" s="18">
         <v>46189</v>
@@ -14593,7 +14633,7 @@
     </row>
     <row r="64" spans="1:10" hidden="1">
       <c r="H64" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I64" s="18">
         <v>46203</v>
@@ -14602,7 +14642,7 @@
     </row>
     <row r="65" spans="8:14" hidden="1">
       <c r="H65" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I65" s="18">
         <v>46211</v>
@@ -14611,7 +14651,7 @@
     </row>
     <row r="66" spans="8:14" hidden="1">
       <c r="H66" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I66" s="18">
         <v>46217</v>
@@ -14620,7 +14660,7 @@
     </row>
     <row r="67" spans="8:14" hidden="1">
       <c r="H67" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I67" s="18">
         <v>46225</v>
@@ -14629,40 +14669,40 @@
     </row>
     <row r="68" spans="8:14" hidden="1">
       <c r="H68" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I68" s="18">
         <v>46231</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="8:14" hidden="1">
       <c r="H69" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I69" s="18">
         <v>46238</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="8:14" hidden="1">
       <c r="H70" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I70" s="18">
         <v>46246</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="8:14" hidden="1">
       <c r="H71" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I71" s="18">
         <v>46253</v>
@@ -14671,7 +14711,7 @@
     </row>
     <row r="72" spans="8:14" hidden="1">
       <c r="H72" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I72" s="18">
         <v>46260</v>
@@ -14680,7 +14720,7 @@
     </row>
     <row r="73" spans="8:14" hidden="1">
       <c r="H73" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I73" s="18">
         <v>46266</v>
@@ -14689,7 +14729,7 @@
     </row>
     <row r="74" spans="8:14" hidden="1">
       <c r="H74" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I74" s="18">
         <v>46274</v>
@@ -14698,7 +14738,7 @@
     </row>
     <row r="75" spans="8:14" hidden="1">
       <c r="H75" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I75" s="18">
         <v>46280</v>
@@ -14707,7 +14747,7 @@
     </row>
     <row r="76" spans="8:14" hidden="1">
       <c r="H76" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I76" s="18">
         <v>46288</v>
@@ -14716,7 +14756,7 @@
     </row>
     <row r="77" spans="8:14" hidden="1">
       <c r="H77" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I77" s="18">
         <v>46294</v>
@@ -14725,7 +14765,7 @@
     </row>
     <row r="78" spans="8:14" hidden="1">
       <c r="H78" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I78" s="18">
         <v>45946</v>
@@ -14742,7 +14782,7 @@
     </row>
     <row r="79" spans="8:14" hidden="1">
       <c r="H79" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I79" s="18">
         <v>45950</v>
@@ -14759,7 +14799,7 @@
     </row>
     <row r="80" spans="8:14" hidden="1">
       <c r="H80" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I80" s="18">
         <v>45982</v>
@@ -14776,7 +14816,7 @@
     </row>
     <row r="81" spans="8:14" hidden="1">
       <c r="H81" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="16"/>
@@ -14790,7 +14830,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -14803,7 +14843,7 @@
         <v>10</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
@@ -14816,7 +14856,7 @@
         <v>11</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
@@ -14829,7 +14869,7 @@
         <v>11</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
@@ -14839,7 +14879,7 @@
     </row>
     <row r="86" spans="8:14" hidden="1">
       <c r="H86" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I86" s="18">
         <v>45677</v>
@@ -14852,7 +14892,7 @@
     </row>
     <row r="87" spans="8:14" hidden="1">
       <c r="H87" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I87" s="18">
         <v>45739</v>
@@ -14943,7 +14983,7 @@
     </row>
     <row r="94" spans="8:14" hidden="1">
       <c r="H94" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I94" s="18">
         <v>45981</v>
@@ -14966,7 +15006,7 @@
     </row>
     <row r="95" spans="8:14" hidden="1">
       <c r="H95" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I95" s="18">
         <v>45672</v>
@@ -14989,13 +15029,13 @@
     </row>
     <row r="96" spans="8:14" hidden="1">
       <c r="H96" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I96" s="18">
         <v>45735</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>37</v>
@@ -15012,7 +15052,7 @@
     </row>
     <row r="97" spans="8:10" hidden="1">
       <c r="H97" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I97" s="18">
         <v>45798</v>
@@ -15021,7 +15061,7 @@
     </row>
     <row r="98" spans="8:10" hidden="1">
       <c r="H98" s="16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I98" s="18">
         <v>45854</v>
@@ -15030,7 +15070,7 @@
     </row>
     <row r="99" spans="8:10" hidden="1">
       <c r="H99" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I99" s="18">
         <v>45917</v>
@@ -15089,22 +15129,22 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15112,22 +15152,22 @@
         <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -15135,22 +15175,22 @@
         <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>